--- a/Group-6 Portfolio Dashboard_Week4_14022025.xlsx
+++ b/Group-6 Portfolio Dashboard_Week4_14022025.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maanoj_ToBeTransferred\Dev\PyCharm\Algo\FinMod_MVO\FinMod_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E306A214-D691-430B-9714-0AD7D57AA178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAAC5C6-A4D6-4F84-AEE2-758798F90849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Portfolio_Summary" sheetId="5" r:id="rId1"/>
-    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
-    <sheet name="Transactions" sheetId="3" r:id="rId3"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
+    <sheet name="Transactions" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dashboard!$B$8:$L$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dashboard!$A$7:$AA$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -88,6 +87,13 @@
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="30"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="33"/>
         </ext>
       </extLst>
     </bk>
@@ -179,13 +185,6 @@
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="72"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="75"/>
         </ext>
       </extLst>
     </bk>
@@ -343,7 +342,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
   <si>
     <t>Current Holdings</t>
   </si>
@@ -361,9 +360,6 @@
   </si>
   <si>
     <t>Current Price</t>
-  </si>
-  <si>
-    <t>Market Value</t>
   </si>
   <si>
     <t>Gain (Loss)</t>
@@ -387,7 +383,13 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>BUY</t>
+  </si>
+  <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>SELL</t>
   </si>
   <si>
     <t>31/1/2025</t>
@@ -417,13 +419,13 @@
     <t>U.S. Treasury</t>
   </si>
   <si>
+    <t>Portfolio Tracker</t>
+  </si>
+  <si>
     <t>Portfolio Value</t>
   </si>
   <si>
     <t>$Weekly Change</t>
-  </si>
-  <si>
-    <t>Gain/Loss</t>
   </si>
   <si>
     <t>Entry Price</t>
@@ -432,16 +434,34 @@
     <t>Exit Price</t>
   </si>
   <si>
+    <t xml:space="preserve">                SELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
     <t>14/2/2025</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>14/2/2026</t>
+  </si>
+  <si>
+    <t>Entry Market Value</t>
+  </si>
+  <si>
+    <t>Current Market Value</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
   <si>
     <t>Prev Week Portfolio Value</t>
   </si>
   <si>
-    <t>Sector</t>
-  </si>
-  <si>
-    <t>Previous Week Change</t>
+    <t>This Week Gain/Loss</t>
   </si>
 </sst>
 </file>
@@ -457,11 +477,18 @@
     <numFmt numFmtId="166" formatCode="#,##0_);\(#,##0\);\-\-_)"/>
     <numFmt numFmtId="167" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -506,6 +533,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -548,8 +582,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,12 +636,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC9C9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -638,140 +764,213 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1"/>
-    <xf numFmtId="7" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{91011D9D-2B1C-4491-831E-F4ADB4C172F7}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="7">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <family val="2"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE699"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -787,26 +986,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="11" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
@@ -825,10 +1004,12 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="11" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -857,11 +1038,17 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Transactions-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="7"/>
-      <tableStyleElement type="firstRowStripe" dxfId="6"/>
-      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstRowStripe" dxfId="5"/>
+      <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFC9C9"/>
+      <color rgb="FFFB8585"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -871,6 +1058,45 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="533400" cy="533400"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image2.png" descr="Bar graph with upward trend with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1418,17 +1644,773 @@
     <v>29</v>
   </rv>
   <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a22xk2&amp;q=XNYS%3aSHW&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a22xk2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>THE SHERWIN-WILLIAMS COMPANY (XNYS:SHW)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>400.42</v>
+    <v>282.08999999999997</v>
+    <v>1.2359</v>
+    <v>-4.2699999999999996</v>
+    <v>1.5129999999999998E-3</v>
+    <v>-1.1823999999999999E-2</v>
+    <v>0.54</v>
+    <v>USD</v>
+    <v>The Sherwin-Williams Company is engaged in the development, manufacture, distribution and sale of paint, coatings and related products to professional, industrial, commercial and retail customers primarily in North and South America with additional operations in the Caribbean region, Europe, Asia and Australia. Its Paint Stores Group segment is engaged in servicing the needs of architectural and industrial paint contractors and do-it-yourself homeowners. The Consumer Brands Group segment manufactures and distributes a broad portfolio of branded and private-label architectural paint, stains, varnishes, industrial products, wood finishes products, wood preservatives, applicators, corrosion inhibitors, aerosols, caulks and adhesives to retailers, including home centers and hardware stores, dedicated dealers and distributors. The Performance Coatings Group segment develops and sells industrial coatings for wood finishing and general industrial (metal and plastic) applications and others.</v>
+    <v>64088</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>101 Prospect Ave Nw, CLEVELAND, OH, 44115 US</v>
+    <v>366.45</v>
+    <v>Chemicals</v>
+    <v>Stock</v>
+    <v>45702.920059096876</v>
+    <v>31</v>
+    <v>356.32</v>
+    <v>89876370000</v>
+    <v>THE SHERWIN-WILLIAMS COMPANY</v>
+    <v>THE SHERWIN-WILLIAMS COMPANY</v>
+    <v>362.18</v>
+    <v>33.834600000000002</v>
+    <v>361.13</v>
+    <v>356.86</v>
+    <v>357.4</v>
+    <v>251853300</v>
+    <v>SHW</v>
+    <v>THE SHERWIN-WILLIAMS COMPANY (XNYS:SHW)</v>
+    <v>1871973</v>
+    <v>1545189</v>
+    <v>1884</v>
+  </rv>
+  <rv s="4">
+    <v>32</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a24j8m&amp;q=XNYS%3aTRV&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a24j8m</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>The Travelers Companies, Inc. (XNYS:TRV)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>269.55500000000001</v>
+    <v>200.21</v>
+    <v>0.63100000000000001</v>
+    <v>-4.7</v>
+    <v>2.7974000000000002E-2</v>
+    <v>-1.9341000000000001E-2</v>
+    <v>6.6662999999999997</v>
+    <v>USD</v>
+    <v>The Travelers Companies, Inc. is a provider of property casualty insurance for auto, home and business. The Company's segments include Business Insurance, Bond &amp; Specialty Insurance, and Personal Insurance. The Business Insurance segment offers a broad array of property and casualty insurance products and services. The Bond &amp; Specialty Insurance segment offers surety, fidelity, management liability, professional liability, and other property and casualty coverages and related risk management services, primarily in the United States, and certain surety and specialty insurance products in Canada, the United Kingdom and the Republic of Ireland, as well as Brazil. The Personal Insurance segment offers a broad range of property and casualty insurance products and services covering individuals personal risks, primarily in the United States, as well as in Canada. The Company, through its subsidiary, Corvus Insurance Holdings, Inc., is a cyber insurance managing general underwriter.</v>
+    <v>34000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>385 WASHINGTON ST, SAINT PAUL, MN, 55102 US</v>
+    <v>242.44</v>
+    <v>Insurance</v>
+    <v>Stock</v>
+    <v>45702.974853460153</v>
+    <v>34</v>
+    <v>236.96</v>
+    <v>54028950000</v>
+    <v>The Travelers Companies, Inc.</v>
+    <v>The Travelers Companies, Inc.</v>
+    <v>242.02</v>
+    <v>11.097099999999999</v>
+    <v>243.01</v>
+    <v>238.31</v>
+    <v>244.96629999999999</v>
+    <v>226726600</v>
+    <v>TRV</v>
+    <v>The Travelers Companies, Inc. (XNYS:TRV)</v>
+    <v>1348206</v>
+    <v>1393306</v>
+    <v>1853</v>
+  </rv>
+  <rv s="4">
+    <v>35</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a24xlh&amp;q=XNYS%3aUNH&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a24xlh</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>UNITEDHEALTH GROUP INCORPORATED (XNYS:UNH)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>630.73</v>
+    <v>436.38</v>
+    <v>0.61299999999999999</v>
+    <v>-7.83</v>
+    <v>-4.0109999999999999E-4</v>
+    <v>-1.4740999999999999E-2</v>
+    <v>-0.21</v>
+    <v>USD</v>
+    <v>UnitedHealth Group Incorporated is a healthcare company. The Company has two businesses, Optum and UnitedHealthcare. Optum serves the health care marketplace, including patients and consumers, payers, care providers, employers, governments and life sciences companies. UnitedHealthcare offers a full range of health benefits designed to simplify the health care experience and make it more affordable for consumers to access care. UnitedHealthcare Employer &amp; Individual serves consumers and employers, ranging from sole proprietorships to large, multi-site and national employers and public sector employers. UnitedHealthcare Medicare &amp; Retirement delivers health and well-being benefits to seniors and other Medicare eligible consumers. The Company’s segments include Optum Health, Optum Insight, Optum Rx and UnitedHealthcare. UnitedHealthcare segment includes UnitedHealthcare Employer &amp; Individual, UnitedHealthcare Medicare &amp; Retirement and UnitedHealthcare Community &amp; State.</v>
+    <v>440000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1 HEALTH DRIVE, EDEN PRAIRIE, MN, 55344 US</v>
+    <v>533.20000000000005</v>
+    <v>Healthcare Providers &amp; Services</v>
+    <v>Stock</v>
+    <v>45702.997279883595</v>
+    <v>37</v>
+    <v>522.91</v>
+    <v>481778100000</v>
+    <v>UNITEDHEALTH GROUP INCORPORATED</v>
+    <v>UNITEDHEALTH GROUP INCORPORATED</v>
+    <v>529</v>
+    <v>33.7532</v>
+    <v>531.17999999999995</v>
+    <v>523.35</v>
+    <v>523.29999999999995</v>
+    <v>920284300</v>
+    <v>UNH</v>
+    <v>UNITEDHEALTH GROUP INCORPORATED (XNYS:UNH)</v>
+    <v>3705326</v>
+    <v>4277561</v>
+    <v>2015</v>
+  </rv>
+  <rv s="4">
+    <v>38</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1qc1h&amp;q=XNYS%3aCRM&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a1qc1h</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>SALESFORCE, INC. (XNYS:CRM)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>369</v>
+    <v>212</v>
+    <v>1.3357000000000001</v>
+    <v>-3.31</v>
+    <v>0</v>
+    <v>-1.0035000000000001E-2</v>
+    <v>0</v>
+    <v>USD</v>
+    <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company's Customer 360 platform spans sales, service, marketing, commerce, collaboration, integration, artificial intelligence, analytics, automation, and others. It connects customer data across systems, applications and devices to create a complete view of customers. The Company also enables third parties to use its platform and developer tools to create additional functionality and applications that run on the Company’s platform. Its customers use its sales offering to store data, monitor leads and progress, forecast opportunities, gain insights through analytics and relationship intelligence and deliver quotes, contracts and invoices. Its service offering helps to connect its service agents with customers across any touchpoint. It helps customers to resolve routine issues with predictions and recommendations. The Company offers its services to businesses worldwide on a subscription basis.</v>
+    <v>72682</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
+    <v>328.5</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45702.881944444445</v>
+    <v>40</v>
+    <v>322.62</v>
+    <v>312498800000</v>
+    <v>SALESFORCE, INC.</v>
+    <v>SALESFORCE, INC.</v>
+    <v>328.03</v>
+    <v>53.694899999999997</v>
+    <v>329.85</v>
+    <v>326.54000000000002</v>
+    <v>326.54000000000002</v>
+    <v>957000000</v>
+    <v>CRM</v>
+    <v>SALESFORCE, INC. (XNYS:CRM)</v>
+    <v>5879716</v>
+    <v>6530055</v>
+    <v>1999</v>
+  </rv>
+  <rv s="4">
+    <v>41</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1xxmw&amp;q=XNYS%3aMRK&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a1xxmw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>MERCK &amp; CO., INC. (XNYS:MRK)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>134.63</v>
+    <v>82.093900000000005</v>
+    <v>0.35580000000000001</v>
+    <v>-1.42</v>
+    <v>4.6739999999999998E-4</v>
+    <v>-1.6820999999999999E-2</v>
+    <v>3.8800000000000001E-2</v>
+    <v>USD</v>
+    <v>Merck &amp; Co., Inc. is a research-intensive biopharmaceutical company engaged in research to deliver health solutions that advance the prevention and treatment of diseases in people and animals. Its Pharmaceutical segment includes human health pharmaceutical and vaccine products. Human health pharmaceutical products consist of therapeutic and preventive agents, generally sold by prescription, for the treatment of human disorders. Human health vaccine products consist of preventive pediatric, adolescent and adult vaccines. The Animal Health segment discovers, develops, manufactures and markets a range of veterinary pharmaceutical and vaccine products, as well as health management solutions and services, for the prevention, treatment and control of disease in all major livestock and companion animal species. It is also engaged in developed a novel class of small molecules that target cancer cells lacking expression of a key DNA repair protein called O6-methylguanine methyl transferase.</v>
+    <v>72000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>2000 Galloping Hill Road, KENILWORTH, NJ, 07033 US</v>
+    <v>84.78</v>
+    <v>Pharmaceuticals</v>
+    <v>Stock</v>
+    <v>45702.99728039297</v>
+    <v>43</v>
+    <v>82.093900000000005</v>
+    <v>209985100000</v>
+    <v>MERCK &amp; CO., INC.</v>
+    <v>MERCK &amp; CO., INC.</v>
+    <v>84.415000000000006</v>
+    <v>12.325699999999999</v>
+    <v>84.42</v>
+    <v>83</v>
+    <v>83.0488</v>
+    <v>2529636000</v>
+    <v>MRK</v>
+    <v>MERCK &amp; CO., INC. (XNYS:MRK)</v>
+    <v>26778993</v>
+    <v>15402122</v>
+    <v>1970</v>
+  </rv>
+  <rv s="4">
+    <v>44</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1p7zr&amp;q=XNYS%3aCAT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a1p7zr</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>CATERPILLAR INC. (XNYS:CAT)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>418.5</v>
+    <v>307.05</v>
+    <v>1.1267</v>
+    <v>-0.35</v>
+    <v>-8.4909999999999998E-5</v>
+    <v>-9.8949999999999993E-4</v>
+    <v>-0.03</v>
+    <v>USD</v>
+    <v>Caterpillar Inc. is a manufacturer of construction and mining equipment, off-highway diesel and natural gas engines, industrial gas turbines and diesel-electric locomotives. The Company operates through its three primary segments: Construction Industries, Resource Industries and Energy &amp; Transportation. It also provides financing and related services through its Financial Products segment. The Construction Industries segment is primarily responsible for supporting customers using machinery in infrastructure and building construction applications. The Resource Industries segment is primarily responsible for supporting customers using machinery in mining, heavy construction and quarry and aggregates. The Energy &amp; Transportation segment is primarily responsible for supporting customers using reciprocating engines, turbines, diesel-electric locomotives, and related services across industries serving oil and gas, power generation, industrial and transportation applications.</v>
+    <v>113200</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>5205 N. O'connor Boulevard, Suite 100, IRVING, TX, 75039 US</v>
+    <v>358.87619999999998</v>
+    <v>Machinery, Equipment &amp; Components</v>
+    <v>Stock</v>
+    <v>45702.99728113359</v>
+    <v>46</v>
+    <v>352.8</v>
+    <v>170583800000</v>
+    <v>CATERPILLAR INC.</v>
+    <v>CATERPILLAR INC.</v>
+    <v>356.6</v>
+    <v>16.010000000000002</v>
+    <v>353.7</v>
+    <v>353.35</v>
+    <v>353.29</v>
+    <v>482802500</v>
+    <v>CAT</v>
+    <v>CATERPILLAR INC. (XNYS:CAT)</v>
+    <v>2045278</v>
+    <v>2520431</v>
+    <v>1986</v>
+  </rv>
+  <rv s="4">
+    <v>47</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ut3m&amp;q=XNAS%3aHON&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a1ut3m</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>HONEYWELL INTERNATIONAL INCORPORATION (XNAS:HON)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>242.77</v>
+    <v>189.75</v>
+    <v>1.0649999999999999</v>
+    <v>-2.52</v>
+    <v>2.4169999999999999E-3</v>
+    <v>-1.2277E-2</v>
+    <v>0.49</v>
+    <v>USD</v>
+    <v>Honeywell International Inc. is an integrated operating company. Its Aerospace Technologies segment supplies products, software, and services for aircraft that it sells to original equipment manufacturers and other customers in a variety of end markets, including air transport, regional, business and general aviation aircraft, airlines, aircraft operators, and others. Its Industrial Automation segment provides industrial automation solutions that deliver intelligent, sustainable, and secure operations for customers in oil and gas, petrochemicals, life sciences, metals and mining, and other segments. The Energy and Sustainability Solutions segment consists of UOP, advanced materials business units and LNG process technology and equipment business. The Building Automation segment offers products, software, security access solutions, and technologies that enable building owners and occupants to ensure their facilities are safe, energy efficient, sustainable, and productive.</v>
+    <v>95000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>855 S. Mint Street, CHARLOTTE, NC, 28202 US</v>
+    <v>205.14</v>
+    <v>Consumer Goods Conglomerates</v>
+    <v>Stock</v>
+    <v>45702.911210346872</v>
+    <v>49</v>
+    <v>201.54</v>
+    <v>131837700000</v>
+    <v>HONEYWELL INTERNATIONAL INCORPORATION</v>
+    <v>HONEYWELL INTERNATIONAL INCORPORATION</v>
+    <v>204.82</v>
+    <v>23.275400000000001</v>
+    <v>205.27</v>
+    <v>202.75</v>
+    <v>203.24</v>
+    <v>650247400</v>
+    <v>HON</v>
+    <v>HONEYWELL INTERNATIONAL INCORPORATION (XNAS:HON)</v>
+    <v>5351415</v>
+    <v>4211723</v>
+    <v>1985</v>
+  </rv>
+  <rv s="4">
+    <v>50</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yjxm&amp;q=XNYS%3aNKE&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a1yjxm</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>NIKE, INC. (XNYS:NKE)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>107.34</v>
+    <v>68.62</v>
+    <v>1.0317000000000001</v>
+    <v>-0.17</v>
+    <v>8.2149999999999996E-4</v>
+    <v>-2.3219999999999998E-3</v>
+    <v>0.06</v>
+    <v>USD</v>
+    <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
+    <v>79400</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
+    <v>73.5</v>
+    <v>Textiles &amp; Apparel</v>
+    <v>Stock</v>
+    <v>45702.991162580467</v>
+    <v>52</v>
+    <v>72.34</v>
+    <v>108035400000</v>
+    <v>NIKE, INC.</v>
+    <v>NIKE, INC.</v>
+    <v>73.17</v>
+    <v>22.5627</v>
+    <v>73.209999999999994</v>
+    <v>73.040000000000006</v>
+    <v>73.099999999999994</v>
+    <v>1479127000</v>
+    <v>NKE</v>
+    <v>NIKE, INC. (XNYS:NKE)</v>
+    <v>9254379</v>
+    <v>13121451</v>
+    <v>1969</v>
+  </rv>
+  <rv s="4">
+    <v>53</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a25ya2&amp;q=XNYS%3aWMT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a25ya2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>WALMART INC. (XNYS:WMT)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>105.3</v>
+    <v>55.846600000000002</v>
+    <v>0.53649999999999998</v>
+    <v>-1.03</v>
+    <v>1.0580000000000001E-3</v>
+    <v>-9.8050000000000012E-3</v>
+    <v>0.1101</v>
+    <v>USD</v>
+    <v>Walmart Inc. is a technology-powered omnichannel retailer. The Company is engaged in the operation of retail and wholesale stores and clubs, as well as e-commerce websites and mobile applications, located throughout the United States, Africa, Canada, Central America, Chile, China, India and Mexico. It operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment includes the Company's mass merchant concept in the United States, as well as e-commerce, which includes omni-channel initiatives and certain other business offerings such as advertising services through Walmart Connect. It operates under the Walmart and Walmart Neighborhood Market brands. The Walmart International segment consists of the Company's operations outside of the United States, as well as e-commerce and omni-channel initiatives. The Sam's Club segment includes the warehouse membership clubs in the United States, as well as e-commerce and omni-channel initiatives.</v>
+    <v>2100000</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
+    <v>105.3</v>
+    <v>Food &amp; Drug Retailing</v>
+    <v>Stock</v>
+    <v>45702.997279015624</v>
+    <v>55</v>
+    <v>103.6</v>
+    <v>835793500000</v>
+    <v>WALMART INC.</v>
+    <v>WALMART INC.</v>
+    <v>105.3</v>
+    <v>52.519399999999997</v>
+    <v>105.05</v>
+    <v>104.02</v>
+    <v>104.15009999999999</v>
+    <v>8033386000</v>
+    <v>WMT</v>
+    <v>WALMART INC. (XNYS:WMT)</v>
+    <v>14109460</v>
+    <v>15303511</v>
+    <v>1969</v>
+  </rv>
+  <rv s="4">
+    <v>56</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1waa2&amp;q=XNYS%3aJPM&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a1waa2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>279.23340000000002</v>
+    <v>174.42</v>
+    <v>1.0898000000000001</v>
+    <v>0.27</v>
+    <v>6.1459999999999998E-4</v>
+    <v>9.7710000000000006E-4</v>
+    <v>0.17</v>
+    <v>USD</v>
+    <v>JPMorgan Chase &amp; Co. is a financial holding company. The Company is engaged in investment banking, financial services for consumers and small businesses, commercial banking, financial transaction processing and asset management. The Company operates through three segments: Consumer &amp; Community Banking (CCB), Commercial &amp; Investment Bank (CIB), and Asset &amp; Wealth Management (AWM). Its CCB segment offers products and services to consumers and small businesses through bank branches, ATMs, digital and telephone banking. Its CIB segment consists of banking and payments and markets and securities services, and offers a suite of investment banking, lending, payments, market-making, financing, custody and securities products and services to a global base of corporate and institutional clients. AWM segment offers investment and wealth management solutions. It offers multi-asset investment management solutions, retirement products and services, brokerage, custody, estate planning, and others.</v>
+    <v>317233</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>383 Madison Avenue, NEW YORK, NY, 10179 US</v>
+    <v>279.23340000000002</v>
+    <v>Banking Services</v>
+    <v>Stock</v>
+    <v>45702.997279930467</v>
+    <v>58</v>
+    <v>276.45</v>
+    <v>778695000000</v>
+    <v>JPMORGAN CHASE &amp; CO.</v>
+    <v>JPMORGAN CHASE &amp; CO.</v>
+    <v>277.37</v>
+    <v>14.0046</v>
+    <v>276.32</v>
+    <v>276.58999999999997</v>
+    <v>276.76</v>
+    <v>2815340000</v>
+    <v>JPM</v>
+    <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
+    <v>5688627</v>
+    <v>9487452</v>
+    <v>1968</v>
+  </rv>
+  <rv s="4">
+    <v>59</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a256cw&amp;q=XNYS%3aV&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a256cw</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>VISA INC. (XNYS:V)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>356.08</v>
+    <v>252.7</v>
+    <v>0.96220000000000006</v>
+    <v>-1.86</v>
+    <v>1.8649999999999999E-3</v>
+    <v>-5.2300000000000003E-3</v>
+    <v>0.66</v>
+    <v>USD</v>
+    <v>Visa Inc. is a global payments technology company. It facilitates global commerce and money movement across more than 200 countries and territories among a global set of consumers, merchants, financial institutions and government entities through technologies. It operates through the Payment Services segment. It provides transaction processing services (primarily authorization, clearing and settlement) to its financial institution and merchant clients through VisaNet, its proprietary advanced transaction processing network. It offers a range of Visa-branded payment products that its clients, including nearly 14,500 financial institutions, use to develop and offer payment solutions or services, including credit, debit, prepaid and cash access programs for individual, business and government account holders. It also provides value-added services to its clients, including issuing solutions, acceptance solutions, risk and identity solutions, open banking solutions and advisory services.</v>
+    <v>31600</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>P.O. Box 8999, SAN FRANCISCO, CA, 94128-8999 US</v>
+    <v>355.42989999999998</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45702.997280832809</v>
+    <v>61</v>
+    <v>353.22</v>
+    <v>691195000000</v>
+    <v>VISA INC.</v>
+    <v>VISA INC.</v>
+    <v>354.43</v>
+    <v>35.639699999999998</v>
+    <v>355.63</v>
+    <v>353.77</v>
+    <v>354.47</v>
+    <v>1953577000</v>
+    <v>V</v>
+    <v>VISA INC. (XNYS:V)</v>
+    <v>5720285</v>
+    <v>5846579</v>
+    <v>2007</v>
+  </rv>
+  <rv s="4">
+    <v>62</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1w8ec&amp;q=XNYS%3aJNJ&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a1w8ec</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>JOHNSON &amp; JOHNSON (XNYS:JNJ)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>168.85</v>
+    <v>140.68</v>
+    <v>0.47949999999999998</v>
+    <v>-1.1499999999999999</v>
+    <v>-9.5290000000000001E-4</v>
+    <v>-7.3129999999999992E-3</v>
+    <v>-0.14879999999999999</v>
+    <v>USD</v>
+    <v>Johnson &amp; Johnson, through its subsidiaries, is engaged in the research and development, manufacture, and sale of a range of products in the healthcare field. The Company's primary focus is products related to human health and well-being. It operates through two segments: Innovative Medicine and MedTech. The Innovative Medicine segment is focused on various therapeutic areas, including immunology, infectious diseases, neuroscience, oncology, pulmonary hypertension, and cardiovascular and metabolic diseases. Products in this segment are distributed directly to retailers, wholesalers, distributors, hospitals, and healthcare professionals for prescription use. The MedTech segment includes a broad portfolio of products used in the orthopedic, surgery, interventional solutions, cardiovascular intervention, and vision fields. The MedTech segment also offers a commercially available intravascular lithotripsy (IVL) platform for coronary artery disease (CAD) and peripheral artery disease (PAD).</v>
+    <v>138100</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>One Johnson &amp; Johnson Plaza, NEW BRUNSWICK, NJ, 08933 US</v>
+    <v>157.47</v>
+    <v>Pharmaceuticals</v>
+    <v>Stock</v>
+    <v>45702.997279883595</v>
+    <v>64</v>
+    <v>156.06</v>
+    <v>375949300000</v>
+    <v>JOHNSON &amp; JOHNSON</v>
+    <v>JOHNSON &amp; JOHNSON</v>
+    <v>157.29</v>
+    <v>26.931000000000001</v>
+    <v>157.25</v>
+    <v>156.1</v>
+    <v>156.00120000000001</v>
+    <v>2407617000</v>
+    <v>JNJ</v>
+    <v>JOHNSON &amp; JOHNSON (XNYS:JNJ)</v>
+    <v>6411840</v>
+    <v>9456480</v>
+    <v>1887</v>
+  </rv>
+  <rv s="4">
+    <v>65</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1wljc&amp;q=XNYS%3aKO&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a1wljc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>73.53</v>
+    <v>57.93</v>
+    <v>0.59750000000000003</v>
+    <v>-0.63</v>
+    <v>-5.8080000000000002E-4</v>
+    <v>-9.0650000000000001E-3</v>
+    <v>-0.04</v>
+    <v>USD</v>
+    <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa, Latin America, North America, Asia Pacific, Global Ventures and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Trademark Coca-Cola; sparkling flavors; water, sports, coffee and tea; juice, value-added dairy and plant-based beverages and emerging beverages. It owns and markets various nonalcoholic sparkling soft drink brands, including Coca-Cola, Diet Coke/Coca-Cola Light, Coca-Cola Zero Sugar, Fanta, Fresca, Schweppes, Sprite and Thums Up. Its water, sports, coffee and tea brands include Aquarius, Ayataka, BODYARMOR, Ciel, Costa, Dasani, dogadan, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Ice Dew, I LOHAS, Powerade and Topo Chico. Its juice, value-added dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply.</v>
+    <v>79100</v>
+    <v>New York Stock Exchange</v>
+    <v>XNYS</v>
+    <v>XNYS</v>
+    <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
+    <v>70.03</v>
+    <v>Beverages</v>
+    <v>Stock</v>
+    <v>45702.894424536717</v>
+    <v>67</v>
+    <v>68.760000000000005</v>
+    <v>296278800000</v>
+    <v>THE COCA-COLA COMPANY</v>
+    <v>THE COCA-COLA COMPANY</v>
+    <v>69.364999999999995</v>
+    <v>27.985700000000001</v>
+    <v>69.5</v>
+    <v>68.87</v>
+    <v>68.83</v>
+    <v>4302000000</v>
+    <v>KO</v>
+    <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
+    <v>20779090</v>
+    <v>17062163</v>
+    <v>1919</v>
+  </rv>
+  <rv s="4">
+    <v>68</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1qe5r&amp;q=XNAS%3aCSCO&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>a1qe5r</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>CISCO SYSTEMS, INC. (XNAS:CSCO)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>66.5</v>
+    <v>44.5</v>
+    <v>0.78859999999999997</v>
+    <v>1.03</v>
+    <v>1.2330000000000002E-3</v>
+    <v>1.6133999999999999E-2</v>
+    <v>0.08</v>
+    <v>USD</v>
+    <v>Cisco Systems, Inc. designs and sells a range of technologies that power the Internet. The Company is integrating its product portfolios across networking, security, collaboration, applications and cloud. The Company's segments include the Americas; Europe, Middle East, and Africa (EMEA), and Asia Pacific, Japan, and China (APJC). Its Networking product category represents its core networking technologies of switching, routing, wireless, fifth generation (5G), silicon, optics solutions and compute products. Its Security product category consists of its cloud and application security, industrial security, network security, and user and device security offerings. Its Collaboration product category consists of its meetings, collaboration devices, calling, contact center and platform as a service (CPaaS) offering. Its Observability product category consists of its full stack observability offerings.</v>
+    <v>90400</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>170 West Tasman Dr, SAN JOSE, CA, 95134-1706 US</v>
+    <v>65.069999999999993</v>
+    <v>Communications &amp; Networking</v>
+    <v>Stock</v>
+    <v>45702.917652916403</v>
+    <v>70</v>
+    <v>63.44</v>
+    <v>258361500000</v>
+    <v>CISCO SYSTEMS, INC.</v>
+    <v>CISCO SYSTEMS, INC.</v>
+    <v>63.79</v>
+    <v>28.425599999999999</v>
+    <v>63.84</v>
+    <v>64.87</v>
+    <v>64.95</v>
+    <v>3982758000</v>
+    <v>CSCO</v>
+    <v>CISCO SYSTEMS, INC. (XNAS:CSCO)</v>
+    <v>23693320</v>
+    <v>20316380</v>
+    <v>2021</v>
+  </rv>
+  <rv s="4">
+    <v>71</v>
+  </rv>
+  <rv s="0">
     <v>http://en.wikipedia.org/wiki/McDonald's</v>
     <v>Wikipedia</v>
   </rv>
   <rv s="1">
     <v>0</v>
-    <v>31</v>
+    <v>73</v>
   </rv>
   <rv s="2">
     <v>6</v>
     <v>https://www.bing.com/th?id=AMMS_7d8255243964a8970376f8dd41121106&amp;qlt=95</v>
-    <v>32</v>
+    <v>74</v>
     <v>0</v>
     <v>https://www.bing.com/images/search?form=xlimg&amp;q=mcdonald%27s</v>
     <v>Image of MCDONALD'S CORPORATION</v>
@@ -1464,11 +2446,11 @@
     <v>XNYS</v>
     <v>110 N Carpenter St, CHICAGO, IL, 60607-2104 US</v>
     <v>311</v>
-    <v>33</v>
+    <v>75</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
     <v>45702.917718020311</v>
-    <v>34</v>
+    <v>76</v>
     <v>307.77999999999997</v>
     <v>221113000000</v>
     <v>MCDONALD'S CORPORATION</v>
@@ -1484,762 +2466,6 @@
     <v>2674354</v>
     <v>3282043</v>
     <v>1964</v>
-  </rv>
-  <rv s="4">
-    <v>35</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a22xk2&amp;q=XNYS%3aSHW&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a22xk2</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>THE SHERWIN-WILLIAMS COMPANY (XNYS:SHW)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>10</v>
-    <v>400.42</v>
-    <v>282.08999999999997</v>
-    <v>1.2359</v>
-    <v>-4.2699999999999996</v>
-    <v>1.5129999999999998E-3</v>
-    <v>-1.1823999999999999E-2</v>
-    <v>0.54</v>
-    <v>USD</v>
-    <v>The Sherwin-Williams Company is engaged in the development, manufacture, distribution and sale of paint, coatings and related products to professional, industrial, commercial and retail customers primarily in North and South America with additional operations in the Caribbean region, Europe, Asia and Australia. Its Paint Stores Group segment is engaged in servicing the needs of architectural and industrial paint contractors and do-it-yourself homeowners. The Consumer Brands Group segment manufactures and distributes a broad portfolio of branded and private-label architectural paint, stains, varnishes, industrial products, wood finishes products, wood preservatives, applicators, corrosion inhibitors, aerosols, caulks and adhesives to retailers, including home centers and hardware stores, dedicated dealers and distributors. The Performance Coatings Group segment develops and sells industrial coatings for wood finishing and general industrial (metal and plastic) applications and others.</v>
-    <v>64088</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>101 Prospect Ave Nw, CLEVELAND, OH, 44115 US</v>
-    <v>366.45</v>
-    <v>Chemicals</v>
-    <v>Stock</v>
-    <v>45702.920059096876</v>
-    <v>37</v>
-    <v>356.32</v>
-    <v>89876370000</v>
-    <v>THE SHERWIN-WILLIAMS COMPANY</v>
-    <v>THE SHERWIN-WILLIAMS COMPANY</v>
-    <v>362.18</v>
-    <v>33.834600000000002</v>
-    <v>361.13</v>
-    <v>356.86</v>
-    <v>357.4</v>
-    <v>251853300</v>
-    <v>SHW</v>
-    <v>THE SHERWIN-WILLIAMS COMPANY (XNYS:SHW)</v>
-    <v>1871973</v>
-    <v>1545189</v>
-    <v>1884</v>
-  </rv>
-  <rv s="4">
-    <v>38</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a24j8m&amp;q=XNYS%3aTRV&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a24j8m</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>The Travelers Companies, Inc. (XNYS:TRV)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>269.55500000000001</v>
-    <v>200.21</v>
-    <v>0.63100000000000001</v>
-    <v>-4.7</v>
-    <v>2.7974000000000002E-2</v>
-    <v>-1.9341000000000001E-2</v>
-    <v>6.6662999999999997</v>
-    <v>USD</v>
-    <v>The Travelers Companies, Inc. is a provider of property casualty insurance for auto, home and business. The Company's segments include Business Insurance, Bond &amp; Specialty Insurance, and Personal Insurance. The Business Insurance segment offers a broad array of property and casualty insurance products and services. The Bond &amp; Specialty Insurance segment offers surety, fidelity, management liability, professional liability, and other property and casualty coverages and related risk management services, primarily in the United States, and certain surety and specialty insurance products in Canada, the United Kingdom and the Republic of Ireland, as well as Brazil. The Personal Insurance segment offers a broad range of property and casualty insurance products and services covering individuals personal risks, primarily in the United States, as well as in Canada. The Company, through its subsidiary, Corvus Insurance Holdings, Inc., is a cyber insurance managing general underwriter.</v>
-    <v>34000</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>385 WASHINGTON ST, SAINT PAUL, MN, 55102 US</v>
-    <v>242.44</v>
-    <v>Insurance</v>
-    <v>Stock</v>
-    <v>45702.974853460153</v>
-    <v>40</v>
-    <v>236.96</v>
-    <v>54028950000</v>
-    <v>The Travelers Companies, Inc.</v>
-    <v>The Travelers Companies, Inc.</v>
-    <v>242.02</v>
-    <v>11.097099999999999</v>
-    <v>243.01</v>
-    <v>238.31</v>
-    <v>244.96629999999999</v>
-    <v>226726600</v>
-    <v>TRV</v>
-    <v>The Travelers Companies, Inc. (XNYS:TRV)</v>
-    <v>1348206</v>
-    <v>1393306</v>
-    <v>1853</v>
-  </rv>
-  <rv s="4">
-    <v>41</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a24xlh&amp;q=XNYS%3aUNH&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a24xlh</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>UNITEDHEALTH GROUP INCORPORATED (XNYS:UNH)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>630.73</v>
-    <v>436.38</v>
-    <v>0.61299999999999999</v>
-    <v>-7.83</v>
-    <v>-4.0109999999999999E-4</v>
-    <v>-1.4740999999999999E-2</v>
-    <v>-0.21</v>
-    <v>USD</v>
-    <v>UnitedHealth Group Incorporated is a healthcare company. The Company has two businesses, Optum and UnitedHealthcare. Optum serves the health care marketplace, including patients and consumers, payers, care providers, employers, governments and life sciences companies. UnitedHealthcare offers a full range of health benefits designed to simplify the health care experience and make it more affordable for consumers to access care. UnitedHealthcare Employer &amp; Individual serves consumers and employers, ranging from sole proprietorships to large, multi-site and national employers and public sector employers. UnitedHealthcare Medicare &amp; Retirement delivers health and well-being benefits to seniors and other Medicare eligible consumers. The Company’s segments include Optum Health, Optum Insight, Optum Rx and UnitedHealthcare. UnitedHealthcare segment includes UnitedHealthcare Employer &amp; Individual, UnitedHealthcare Medicare &amp; Retirement and UnitedHealthcare Community &amp; State.</v>
-    <v>440000</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>1 HEALTH DRIVE, EDEN PRAIRIE, MN, 55344 US</v>
-    <v>533.20000000000005</v>
-    <v>Healthcare Providers &amp; Services</v>
-    <v>Stock</v>
-    <v>45702.997279883595</v>
-    <v>43</v>
-    <v>522.91</v>
-    <v>481778100000</v>
-    <v>UNITEDHEALTH GROUP INCORPORATED</v>
-    <v>UNITEDHEALTH GROUP INCORPORATED</v>
-    <v>529</v>
-    <v>33.7532</v>
-    <v>531.17999999999995</v>
-    <v>523.35</v>
-    <v>523.29999999999995</v>
-    <v>920284300</v>
-    <v>UNH</v>
-    <v>UNITEDHEALTH GROUP INCORPORATED (XNYS:UNH)</v>
-    <v>3705326</v>
-    <v>4277561</v>
-    <v>2015</v>
-  </rv>
-  <rv s="4">
-    <v>44</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1qc1h&amp;q=XNYS%3aCRM&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a1qc1h</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>10</v>
-    <v>369</v>
-    <v>212</v>
-    <v>1.3357000000000001</v>
-    <v>-3.31</v>
-    <v>0</v>
-    <v>-1.0035000000000001E-2</v>
-    <v>0</v>
-    <v>USD</v>
-    <v>Salesforce, Inc. is a provider of customer relationship management (CRM) technology. The Company's Customer 360 platform spans sales, service, marketing, commerce, collaboration, integration, artificial intelligence, analytics, automation, and others. It connects customer data across systems, applications and devices to create a complete view of customers. The Company also enables third parties to use its platform and developer tools to create additional functionality and applications that run on the Company’s platform. Its customers use its sales offering to store data, monitor leads and progress, forecast opportunities, gain insights through analytics and relationship intelligence and deliver quotes, contracts and invoices. Its service offering helps to connect its service agents with customers across any touchpoint. It helps customers to resolve routine issues with predictions and recommendations. The Company offers its services to businesses worldwide on a subscription basis.</v>
-    <v>72682</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>SALESFORCE TOWER, 415 MISSION STREET 3RD FL, SAN FRANCISCO, CA, 94105 US</v>
-    <v>328.5</v>
-    <v>Software &amp; IT Services</v>
-    <v>Stock</v>
-    <v>45702.881944444445</v>
-    <v>46</v>
-    <v>322.62</v>
-    <v>312498800000</v>
-    <v>SALESFORCE, INC.</v>
-    <v>SALESFORCE, INC.</v>
-    <v>328.03</v>
-    <v>53.694899999999997</v>
-    <v>329.85</v>
-    <v>326.54000000000002</v>
-    <v>326.54000000000002</v>
-    <v>957000000</v>
-    <v>CRM</v>
-    <v>SALESFORCE, INC. (XNYS:CRM)</v>
-    <v>5879716</v>
-    <v>6530055</v>
-    <v>1999</v>
-  </rv>
-  <rv s="4">
-    <v>47</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1xxmw&amp;q=XNYS%3aMRK&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a1xxmw</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>MERCK &amp; CO., INC. (XNYS:MRK)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>134.63</v>
-    <v>82.093900000000005</v>
-    <v>0.35580000000000001</v>
-    <v>-1.42</v>
-    <v>4.6739999999999998E-4</v>
-    <v>-1.6820999999999999E-2</v>
-    <v>3.8800000000000001E-2</v>
-    <v>USD</v>
-    <v>Merck &amp; Co., Inc. is a research-intensive biopharmaceutical company engaged in research to deliver health solutions that advance the prevention and treatment of diseases in people and animals. Its Pharmaceutical segment includes human health pharmaceutical and vaccine products. Human health pharmaceutical products consist of therapeutic and preventive agents, generally sold by prescription, for the treatment of human disorders. Human health vaccine products consist of preventive pediatric, adolescent and adult vaccines. The Animal Health segment discovers, develops, manufactures and markets a range of veterinary pharmaceutical and vaccine products, as well as health management solutions and services, for the prevention, treatment and control of disease in all major livestock and companion animal species. It is also engaged in developed a novel class of small molecules that target cancer cells lacking expression of a key DNA repair protein called O6-methylguanine methyl transferase.</v>
-    <v>72000</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>2000 Galloping Hill Road, KENILWORTH, NJ, 07033 US</v>
-    <v>84.78</v>
-    <v>Pharmaceuticals</v>
-    <v>Stock</v>
-    <v>45702.99728039297</v>
-    <v>49</v>
-    <v>82.093900000000005</v>
-    <v>209985100000</v>
-    <v>MERCK &amp; CO., INC.</v>
-    <v>MERCK &amp; CO., INC.</v>
-    <v>84.415000000000006</v>
-    <v>12.325699999999999</v>
-    <v>84.42</v>
-    <v>83</v>
-    <v>83.0488</v>
-    <v>2529636000</v>
-    <v>MRK</v>
-    <v>MERCK &amp; CO., INC. (XNYS:MRK)</v>
-    <v>26778993</v>
-    <v>15402122</v>
-    <v>1970</v>
-  </rv>
-  <rv s="4">
-    <v>50</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1p7zr&amp;q=XNYS%3aCAT&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a1p7zr</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>CATERPILLAR INC. (XNYS:CAT)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>418.5</v>
-    <v>307.05</v>
-    <v>1.1267</v>
-    <v>-0.35</v>
-    <v>-8.4909999999999998E-5</v>
-    <v>-9.8949999999999993E-4</v>
-    <v>-0.03</v>
-    <v>USD</v>
-    <v>Caterpillar Inc. is a manufacturer of construction and mining equipment, off-highway diesel and natural gas engines, industrial gas turbines and diesel-electric locomotives. The Company operates through its three primary segments: Construction Industries, Resource Industries and Energy &amp; Transportation. It also provides financing and related services through its Financial Products segment. The Construction Industries segment is primarily responsible for supporting customers using machinery in infrastructure and building construction applications. The Resource Industries segment is primarily responsible for supporting customers using machinery in mining, heavy construction and quarry and aggregates. The Energy &amp; Transportation segment is primarily responsible for supporting customers using reciprocating engines, turbines, diesel-electric locomotives, and related services across industries serving oil and gas, power generation, industrial and transportation applications.</v>
-    <v>113200</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>5205 N. O'connor Boulevard, Suite 100, IRVING, TX, 75039 US</v>
-    <v>358.87619999999998</v>
-    <v>Machinery, Equipment &amp; Components</v>
-    <v>Stock</v>
-    <v>45702.99728113359</v>
-    <v>52</v>
-    <v>352.8</v>
-    <v>170583800000</v>
-    <v>CATERPILLAR INC.</v>
-    <v>CATERPILLAR INC.</v>
-    <v>356.6</v>
-    <v>16.010000000000002</v>
-    <v>353.7</v>
-    <v>353.35</v>
-    <v>353.29</v>
-    <v>482802500</v>
-    <v>CAT</v>
-    <v>CATERPILLAR INC. (XNYS:CAT)</v>
-    <v>2045278</v>
-    <v>2520431</v>
-    <v>1986</v>
-  </rv>
-  <rv s="4">
-    <v>53</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ut3m&amp;q=XNAS%3aHON&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a1ut3m</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>HONEYWELL INTERNATIONAL INCORPORATION (XNAS:HON)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>242.77</v>
-    <v>189.75</v>
-    <v>1.0649999999999999</v>
-    <v>-2.52</v>
-    <v>2.4169999999999999E-3</v>
-    <v>-1.2277E-2</v>
-    <v>0.49</v>
-    <v>USD</v>
-    <v>Honeywell International Inc. is an integrated operating company. Its Aerospace Technologies segment supplies products, software, and services for aircraft that it sells to original equipment manufacturers and other customers in a variety of end markets, including air transport, regional, business and general aviation aircraft, airlines, aircraft operators, and others. Its Industrial Automation segment provides industrial automation solutions that deliver intelligent, sustainable, and secure operations for customers in oil and gas, petrochemicals, life sciences, metals and mining, and other segments. The Energy and Sustainability Solutions segment consists of UOP, advanced materials business units and LNG process technology and equipment business. The Building Automation segment offers products, software, security access solutions, and technologies that enable building owners and occupants to ensure their facilities are safe, energy efficient, sustainable, and productive.</v>
-    <v>95000</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>855 S. Mint Street, CHARLOTTE, NC, 28202 US</v>
-    <v>205.14</v>
-    <v>Consumer Goods Conglomerates</v>
-    <v>Stock</v>
-    <v>45702.911210346872</v>
-    <v>55</v>
-    <v>201.54</v>
-    <v>131837700000</v>
-    <v>HONEYWELL INTERNATIONAL INCORPORATION</v>
-    <v>HONEYWELL INTERNATIONAL INCORPORATION</v>
-    <v>204.82</v>
-    <v>23.275400000000001</v>
-    <v>205.27</v>
-    <v>202.75</v>
-    <v>203.24</v>
-    <v>650247400</v>
-    <v>HON</v>
-    <v>HONEYWELL INTERNATIONAL INCORPORATION (XNAS:HON)</v>
-    <v>5351415</v>
-    <v>4211723</v>
-    <v>1985</v>
-  </rv>
-  <rv s="4">
-    <v>56</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1yjxm&amp;q=XNYS%3aNKE&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a1yjxm</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>107.34</v>
-    <v>68.62</v>
-    <v>1.0317000000000001</v>
-    <v>-0.17</v>
-    <v>8.2149999999999996E-4</v>
-    <v>-2.3219999999999998E-3</v>
-    <v>0.06</v>
-    <v>USD</v>
-    <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
-    <v>79400</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>73.5</v>
-    <v>Textiles &amp; Apparel</v>
-    <v>Stock</v>
-    <v>45702.991162580467</v>
-    <v>58</v>
-    <v>72.34</v>
-    <v>108035400000</v>
-    <v>NIKE, INC.</v>
-    <v>NIKE, INC.</v>
-    <v>73.17</v>
-    <v>22.5627</v>
-    <v>73.209999999999994</v>
-    <v>73.040000000000006</v>
-    <v>73.099999999999994</v>
-    <v>1479127000</v>
-    <v>NKE</v>
-    <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>9254379</v>
-    <v>13121451</v>
-    <v>1969</v>
-  </rv>
-  <rv s="4">
-    <v>59</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a25ya2&amp;q=XNYS%3aWMT&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a25ya2</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>WALMART INC. (XNYS:WMT)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>105.3</v>
-    <v>55.846600000000002</v>
-    <v>0.53649999999999998</v>
-    <v>-1.03</v>
-    <v>1.0580000000000001E-3</v>
-    <v>-9.8050000000000012E-3</v>
-    <v>0.1101</v>
-    <v>USD</v>
-    <v>Walmart Inc. is a technology-powered omnichannel retailer. The Company is engaged in the operation of retail and wholesale stores and clubs, as well as e-commerce websites and mobile applications, located throughout the United States, Africa, Canada, Central America, Chile, China, India and Mexico. It operates through three segments: Walmart U.S., Walmart International and Sam's Club. The Walmart U.S. segment includes the Company's mass merchant concept in the United States, as well as e-commerce, which includes omni-channel initiatives and certain other business offerings such as advertising services through Walmart Connect. It operates under the Walmart and Walmart Neighborhood Market brands. The Walmart International segment consists of the Company's operations outside of the United States, as well as e-commerce and omni-channel initiatives. The Sam's Club segment includes the warehouse membership clubs in the United States, as well as e-commerce and omni-channel initiatives.</v>
-    <v>2100000</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>702 SW 8th St, BENTONVILLE, AR, 72716-6209 US</v>
-    <v>105.3</v>
-    <v>Food &amp; Drug Retailing</v>
-    <v>Stock</v>
-    <v>45702.997279015624</v>
-    <v>61</v>
-    <v>103.6</v>
-    <v>835793500000</v>
-    <v>WALMART INC.</v>
-    <v>WALMART INC.</v>
-    <v>105.3</v>
-    <v>52.519399999999997</v>
-    <v>105.05</v>
-    <v>104.02</v>
-    <v>104.15009999999999</v>
-    <v>8033386000</v>
-    <v>WMT</v>
-    <v>WALMART INC. (XNYS:WMT)</v>
-    <v>14109460</v>
-    <v>15303511</v>
-    <v>1969</v>
-  </rv>
-  <rv s="4">
-    <v>62</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1waa2&amp;q=XNYS%3aJPM&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a1waa2</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>279.23340000000002</v>
-    <v>174.42</v>
-    <v>1.0898000000000001</v>
-    <v>0.27</v>
-    <v>6.1459999999999998E-4</v>
-    <v>9.7710000000000006E-4</v>
-    <v>0.17</v>
-    <v>USD</v>
-    <v>JPMorgan Chase &amp; Co. is a financial holding company. The Company is engaged in investment banking, financial services for consumers and small businesses, commercial banking, financial transaction processing and asset management. The Company operates through three segments: Consumer &amp; Community Banking (CCB), Commercial &amp; Investment Bank (CIB), and Asset &amp; Wealth Management (AWM). Its CCB segment offers products and services to consumers and small businesses through bank branches, ATMs, digital and telephone banking. Its CIB segment consists of banking and payments and markets and securities services, and offers a suite of investment banking, lending, payments, market-making, financing, custody and securities products and services to a global base of corporate and institutional clients. AWM segment offers investment and wealth management solutions. It offers multi-asset investment management solutions, retirement products and services, brokerage, custody, estate planning, and others.</v>
-    <v>317233</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>383 Madison Avenue, NEW YORK, NY, 10179 US</v>
-    <v>279.23340000000002</v>
-    <v>Banking Services</v>
-    <v>Stock</v>
-    <v>45702.997279930467</v>
-    <v>64</v>
-    <v>276.45</v>
-    <v>778695000000</v>
-    <v>JPMORGAN CHASE &amp; CO.</v>
-    <v>JPMORGAN CHASE &amp; CO.</v>
-    <v>277.37</v>
-    <v>14.0046</v>
-    <v>276.32</v>
-    <v>276.58999999999997</v>
-    <v>276.76</v>
-    <v>2815340000</v>
-    <v>JPM</v>
-    <v>JPMORGAN CHASE &amp; CO. (XNYS:JPM)</v>
-    <v>5688627</v>
-    <v>9487452</v>
-    <v>1968</v>
-  </rv>
-  <rv s="4">
-    <v>65</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a256cw&amp;q=XNYS%3aV&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a256cw</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>VISA INC. (XNYS:V)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>356.08</v>
-    <v>252.7</v>
-    <v>0.96220000000000006</v>
-    <v>-1.86</v>
-    <v>1.8649999999999999E-3</v>
-    <v>-5.2300000000000003E-3</v>
-    <v>0.66</v>
-    <v>USD</v>
-    <v>Visa Inc. is a global payments technology company. It facilitates global commerce and money movement across more than 200 countries and territories among a global set of consumers, merchants, financial institutions and government entities through technologies. It operates through the Payment Services segment. It provides transaction processing services (primarily authorization, clearing and settlement) to its financial institution and merchant clients through VisaNet, its proprietary advanced transaction processing network. It offers a range of Visa-branded payment products that its clients, including nearly 14,500 financial institutions, use to develop and offer payment solutions or services, including credit, debit, prepaid and cash access programs for individual, business and government account holders. It also provides value-added services to its clients, including issuing solutions, acceptance solutions, risk and identity solutions, open banking solutions and advisory services.</v>
-    <v>31600</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>P.O. Box 8999, SAN FRANCISCO, CA, 94128-8999 US</v>
-    <v>355.42989999999998</v>
-    <v>Software &amp; IT Services</v>
-    <v>Stock</v>
-    <v>45702.997280832809</v>
-    <v>67</v>
-    <v>353.22</v>
-    <v>691195000000</v>
-    <v>VISA INC.</v>
-    <v>VISA INC.</v>
-    <v>354.43</v>
-    <v>35.639699999999998</v>
-    <v>355.63</v>
-    <v>353.77</v>
-    <v>354.47</v>
-    <v>1953577000</v>
-    <v>V</v>
-    <v>VISA INC. (XNYS:V)</v>
-    <v>5720285</v>
-    <v>5846579</v>
-    <v>2007</v>
-  </rv>
-  <rv s="4">
-    <v>68</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1w8ec&amp;q=XNYS%3aJNJ&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a1w8ec</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>JOHNSON &amp; JOHNSON (XNYS:JNJ)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>168.85</v>
-    <v>140.68</v>
-    <v>0.47949999999999998</v>
-    <v>-1.1499999999999999</v>
-    <v>-9.5290000000000001E-4</v>
-    <v>-7.3129999999999992E-3</v>
-    <v>-0.14879999999999999</v>
-    <v>USD</v>
-    <v>Johnson &amp; Johnson, through its subsidiaries, is engaged in the research and development, manufacture, and sale of a range of products in the healthcare field. The Company's primary focus is products related to human health and well-being. It operates through two segments: Innovative Medicine and MedTech. The Innovative Medicine segment is focused on various therapeutic areas, including immunology, infectious diseases, neuroscience, oncology, pulmonary hypertension, and cardiovascular and metabolic diseases. Products in this segment are distributed directly to retailers, wholesalers, distributors, hospitals, and healthcare professionals for prescription use. The MedTech segment includes a broad portfolio of products used in the orthopedic, surgery, interventional solutions, cardiovascular intervention, and vision fields. The MedTech segment also offers a commercially available intravascular lithotripsy (IVL) platform for coronary artery disease (CAD) and peripheral artery disease (PAD).</v>
-    <v>138100</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>One Johnson &amp; Johnson Plaza, NEW BRUNSWICK, NJ, 08933 US</v>
-    <v>157.47</v>
-    <v>Pharmaceuticals</v>
-    <v>Stock</v>
-    <v>45702.997279883595</v>
-    <v>70</v>
-    <v>156.06</v>
-    <v>375949300000</v>
-    <v>JOHNSON &amp; JOHNSON</v>
-    <v>JOHNSON &amp; JOHNSON</v>
-    <v>157.29</v>
-    <v>26.931000000000001</v>
-    <v>157.25</v>
-    <v>156.1</v>
-    <v>156.00120000000001</v>
-    <v>2407617000</v>
-    <v>JNJ</v>
-    <v>JOHNSON &amp; JOHNSON (XNYS:JNJ)</v>
-    <v>6411840</v>
-    <v>9456480</v>
-    <v>1887</v>
-  </rv>
-  <rv s="4">
-    <v>71</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1wljc&amp;q=XNYS%3aKO&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a1wljc</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>73.53</v>
-    <v>57.93</v>
-    <v>0.59750000000000003</v>
-    <v>-0.63</v>
-    <v>-5.8080000000000002E-4</v>
-    <v>-9.0650000000000001E-3</v>
-    <v>-0.04</v>
-    <v>USD</v>
-    <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa, Latin America, North America, Asia Pacific, Global Ventures and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Trademark Coca-Cola; sparkling flavors; water, sports, coffee and tea; juice, value-added dairy and plant-based beverages and emerging beverages. It owns and markets various nonalcoholic sparkling soft drink brands, including Coca-Cola, Diet Coke/Coca-Cola Light, Coca-Cola Zero Sugar, Fanta, Fresca, Schweppes, Sprite and Thums Up. Its water, sports, coffee and tea brands include Aquarius, Ayataka, BODYARMOR, Ciel, Costa, Dasani, dogadan, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Ice Dew, I LOHAS, Powerade and Topo Chico. Its juice, value-added dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply.</v>
-    <v>79100</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
-    <v>70.03</v>
-    <v>Beverages</v>
-    <v>Stock</v>
-    <v>45702.894424536717</v>
-    <v>73</v>
-    <v>68.760000000000005</v>
-    <v>296278800000</v>
-    <v>THE COCA-COLA COMPANY</v>
-    <v>THE COCA-COLA COMPANY</v>
-    <v>69.364999999999995</v>
-    <v>27.985700000000001</v>
-    <v>69.5</v>
-    <v>68.87</v>
-    <v>68.83</v>
-    <v>4302000000</v>
-    <v>KO</v>
-    <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>20779090</v>
-    <v>17062163</v>
-    <v>1919</v>
-  </rv>
-  <rv s="4">
-    <v>74</v>
-  </rv>
-  <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1qe5r&amp;q=XNAS%3aCSCO&amp;form=skydnc</v>
-    <v>Learn more on Bing</v>
-  </rv>
-  <rv s="5">
-    <v>en-US</v>
-    <v>a1qe5r</v>
-    <v>268435456</v>
-    <v>1</v>
-    <v>Powered by Refinitiv</v>
-    <v>7</v>
-    <v>CISCO SYSTEMS, INC. (XNAS:CSCO)</v>
-    <v>8</v>
-    <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>66.5</v>
-    <v>44.5</v>
-    <v>0.78859999999999997</v>
-    <v>1.03</v>
-    <v>1.2330000000000002E-3</v>
-    <v>1.6133999999999999E-2</v>
-    <v>0.08</v>
-    <v>USD</v>
-    <v>Cisco Systems, Inc. designs and sells a range of technologies that power the Internet. The Company is integrating its product portfolios across networking, security, collaboration, applications and cloud. The Company's segments include the Americas; Europe, Middle East, and Africa (EMEA), and Asia Pacific, Japan, and China (APJC). Its Networking product category represents its core networking technologies of switching, routing, wireless, fifth generation (5G), silicon, optics solutions and compute products. Its Security product category consists of its cloud and application security, industrial security, network security, and user and device security offerings. Its Collaboration product category consists of its meetings, collaboration devices, calling, contact center and platform as a service (CPaaS) offering. Its Observability product category consists of its full stack observability offerings.</v>
-    <v>90400</v>
-    <v>Nasdaq Stock Market</v>
-    <v>XNAS</v>
-    <v>XNAS</v>
-    <v>170 West Tasman Dr, SAN JOSE, CA, 95134-1706 US</v>
-    <v>65.069999999999993</v>
-    <v>Communications &amp; Networking</v>
-    <v>Stock</v>
-    <v>45702.917652916403</v>
-    <v>76</v>
-    <v>63.44</v>
-    <v>258361500000</v>
-    <v>CISCO SYSTEMS, INC.</v>
-    <v>CISCO SYSTEMS, INC.</v>
-    <v>63.79</v>
-    <v>28.425599999999999</v>
-    <v>63.84</v>
-    <v>64.87</v>
-    <v>64.95</v>
-    <v>3982758000</v>
-    <v>CSCO</v>
-    <v>CISCO SYSTEMS, INC. (XNAS:CSCO)</v>
-    <v>23693320</v>
-    <v>20316380</v>
-    <v>2021</v>
   </rv>
   <rv s="4">
     <v>77</v>
@@ -3219,27 +3445,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B2:L46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B2:L51">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" dataDxfId="0"/>
-    <tableColumn id="11" xr3:uid="{76FF6564-50D5-406D-BCD3-E022EC02FFDB}" name="Sector" dataDxfId="2">
-      <calculatedColumnFormula>VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Company"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ticker"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Transaction Type" dataDxfId="1">
-      <calculatedColumnFormula>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Transaction Type" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Units"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Entry Price"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transaction Amount"/>
-    <tableColumn id="9" xr3:uid="{616C1E63-255C-4DE8-8D15-3E1FECBBBB19}" name="Transaction Cost" dataDxfId="3">
-      <calculatedColumnFormula>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</calculatedColumnFormula>
+    <tableColumn id="9" xr3:uid="{616C1E63-255C-4DE8-8D15-3E1FECBBBB19}" name="Transaction Cost" dataDxfId="2">
+      <calculatedColumnFormula>Table_1[[#This Row],[Transaction Amount]]*0.002</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{68916593-1081-45E0-8B06-AE64845CAE61}" name="Total Transaction" dataDxfId="4">
+    <tableColumn id="10" xr3:uid="{68916593-1081-45E0-8B06-AE64845CAE61}" name="Total Transaction" dataDxfId="1">
       <calculatedColumnFormula>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Currency"/>
+    <tableColumn id="11" xr3:uid="{67870957-4AE8-4824-8C8B-80EB609A8D3B}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="Transactions-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3442,69 +3664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130EC7B2-2E94-4A2A-A16B-382CD9BF6D66}">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AA1016"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>985158.59</v>
-      </c>
-      <c r="B2" s="5">
-        <f>(1000000+E2)-SUM(Transactions!J39:J44)</f>
-        <v>982996.76211999997</v>
-      </c>
-      <c r="C2" s="6">
-        <v>-13650.98</v>
-      </c>
-      <c r="D2" s="6">
-        <f>B2-A2</f>
-        <v>-2161.8278799999971</v>
-      </c>
-      <c r="E2" s="6">
-        <f>SUM(Dashboard!J8:J989)</f>
-        <v>-16524.259999999958</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y1016"/>
-  <sheetViews>
-    <sheetView showGridLines="0" zoomScale="53" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3513,20 +3677,20 @@
     <col min="2" max="2" width="37.77734375" customWidth="1"/>
     <col min="3" max="3" width="12.21875" customWidth="1"/>
     <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" style="15" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5546875" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="13" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" customWidth="1"/>
+    <col min="15" max="27" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3535,9 +3699,9 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="86"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -3552,15 +3716,34 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="I2" s="14"/>
+      <c r="B2" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -3572,10 +3755,30 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="I3" s="14"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="5" cm="1">
+        <f t="array" aca="1" ref="F3" ca="1">(I3+H3)-SUM(ABS(Transactions!I39:I51))</f>
+        <v>989990.31077238452</v>
+      </c>
+      <c r="G3" s="6">
+        <f ca="1">F3-I3</f>
+        <v>4831.7207723845495</v>
+      </c>
+      <c r="H3" s="5">
+        <f ca="1">SUM(L13:L3841)</f>
+        <v>5865.1547523845775</v>
+      </c>
+      <c r="I3" s="5">
+        <v>985158.59</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -3592,8 +3795,10 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:25" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3602,9 +3807,9 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="86"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3619,26 +3824,30 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="35" t="s">
+    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="56"/>
     </row>
-    <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -3646,1314 +3855,2073 @@
       <c r="D7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="M7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="N7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>9</v>
+      <c r="O7" s="23" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="8" t="s">
+    <row r="8" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="89" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C8" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="C8" ca="1">_FV(B8,"Ticker symbol",TRUE)</f>
+        <v>IBM</v>
+      </c>
+      <c r="D8" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="D8" ca="1">_FV(B8,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="E8" s="59"/>
+      <c r="F8" s="63">
+        <v>782</v>
+      </c>
+      <c r="G8" s="64">
+        <v>255.7</v>
+      </c>
+      <c r="H8" s="85">
+        <f>G8*F8</f>
+        <v>199957.4</v>
+      </c>
+      <c r="I8" s="61" cm="1">
+        <f t="array" aca="1" ref="I8" ca="1">_FV(B8,"Price")</f>
+        <v>261.20999999999998</v>
+      </c>
+      <c r="J8" s="65">
+        <v>252.34</v>
+      </c>
+      <c r="K8" s="65">
+        <f>F8*J8</f>
+        <v>197329.88</v>
+      </c>
+      <c r="L8" s="62">
+        <f>(J8-G8)*F8</f>
+        <v>-2627.5199999999886</v>
+      </c>
+      <c r="M8" s="62" cm="1">
+        <f t="array" aca="1" ref="M8" ca="1">_FV(B8,"52 week high",TRUE)</f>
+        <v>265.72000000000003</v>
+      </c>
+      <c r="N8" s="62" cm="1">
+        <f t="array" aca="1" ref="N8" ca="1">_FV(B8,"52 week low",TRUE)</f>
+        <v>162.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="89" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C9" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">_FV(B9,"Ticker symbol",TRUE)</f>
+        <v>AXP</v>
+      </c>
+      <c r="D9" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">_FV(B9,"Industry")</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="E9" s="59"/>
+      <c r="F9" s="63">
+        <v>315</v>
+      </c>
+      <c r="G9" s="64">
+        <v>317.45</v>
+      </c>
+      <c r="H9" s="85">
+        <f>G9*F9</f>
+        <v>99996.75</v>
+      </c>
+      <c r="I9" s="61" cm="1">
+        <f t="array" aca="1" ref="I9" ca="1">_FV(B9,"Price")</f>
+        <v>311.04000000000002</v>
+      </c>
+      <c r="J9" s="65">
+        <v>316.77</v>
+      </c>
+      <c r="K9" s="65">
+        <f>F9*J9</f>
+        <v>99782.549999999988</v>
+      </c>
+      <c r="L9" s="62">
+        <f>(J9-G9)*F9</f>
+        <v>-214.20000000000215</v>
+      </c>
+      <c r="M9" s="62" cm="1">
+        <f t="array" aca="1" ref="M9" ca="1">_FV(B9,"52 week high",TRUE)</f>
+        <v>326.27499999999998</v>
+      </c>
+      <c r="N9" s="62" cm="1">
+        <f t="array" aca="1" ref="N9" ca="1">_FV(B9,"52 week low",TRUE)</f>
+        <v>208.82429999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="89" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C10" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">_FV(B10,"Ticker symbol",TRUE)</f>
+        <v>DIS</v>
+      </c>
+      <c r="D10" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">_FV(B10,"Industry")</f>
+        <v>Media &amp; Publishing</v>
+      </c>
+      <c r="E10" s="59"/>
+      <c r="F10" s="63">
+        <v>1769</v>
+      </c>
+      <c r="G10" s="64">
+        <v>113.06</v>
+      </c>
+      <c r="H10" s="85">
+        <f>G10*F10</f>
+        <v>200003.14</v>
+      </c>
+      <c r="I10" s="61" cm="1">
+        <f t="array" aca="1" ref="I10" ca="1">_FV(B10,"Price")</f>
+        <v>110.38</v>
+      </c>
+      <c r="J10" s="65">
+        <v>110.86</v>
+      </c>
+      <c r="K10" s="65">
+        <f>F10*J10</f>
+        <v>196111.34</v>
+      </c>
+      <c r="L10" s="62">
+        <f>(J10-G10)*F10</f>
+        <v>-3891.8000000000052</v>
+      </c>
+      <c r="M10" s="62" cm="1">
+        <f t="array" aca="1" ref="M10" ca="1">_FV(B10,"52 week high",TRUE)</f>
+        <v>123.74</v>
+      </c>
+      <c r="N10" s="62" cm="1">
+        <f t="array" aca="1" ref="N10" ca="1">_FV(B10,"52 week low",TRUE)</f>
+        <v>83.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="89" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C11" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">_FV(B11,"Ticker symbol",TRUE)</f>
+        <v>MSFT</v>
+      </c>
+      <c r="D11" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">_FV(B11,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="E11" s="59"/>
+      <c r="F11" s="63">
+        <v>-241</v>
+      </c>
+      <c r="G11" s="64">
+        <v>415.06</v>
+      </c>
+      <c r="H11" s="85">
+        <f>G11*F11</f>
+        <v>-100029.46</v>
+      </c>
+      <c r="I11" s="61" cm="1">
+        <f t="array" aca="1" ref="I11" ca="1">_FV(B11,"Price")</f>
+        <v>408.43</v>
+      </c>
+      <c r="J11" s="65">
+        <v>409.75</v>
+      </c>
+      <c r="K11" s="65">
+        <f>F11*J11</f>
+        <v>-98749.75</v>
+      </c>
+      <c r="L11" s="62">
+        <f>(J11-G11)*F11</f>
+        <v>1279.7100000000005</v>
+      </c>
+      <c r="M11" s="62" cm="1">
+        <f t="array" aca="1" ref="M11" ca="1">_FV(B11,"52 week high",TRUE)</f>
+        <v>468.35</v>
+      </c>
+      <c r="N11" s="62" cm="1">
+        <f t="array" aca="1" ref="N11" ca="1">_FV(B11,"52 week low",TRUE)</f>
+        <v>385.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="89" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C12" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_FV(B12,"Ticker symbol",TRUE)</f>
+        <v>CVX</v>
+      </c>
+      <c r="D12" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">_FV(B12,"Industry")</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="E12" s="59"/>
+      <c r="F12" s="63">
+        <v>-2681</v>
+      </c>
+      <c r="G12" s="64">
+        <v>149.19</v>
+      </c>
+      <c r="H12" s="85">
+        <f>G12*F12</f>
+        <v>-399978.39</v>
+      </c>
+      <c r="I12" s="61" cm="1">
+        <f t="array" aca="1" ref="I12" ca="1">_FV(B12,"Price")</f>
+        <v>155.26499999999999</v>
+      </c>
+      <c r="J12" s="65">
+        <v>152.62</v>
+      </c>
+      <c r="K12" s="65">
+        <f>F12*J12</f>
+        <v>-409174.22000000003</v>
+      </c>
+      <c r="L12" s="62">
+        <f>(J12-G12)*F12</f>
+        <v>-9195.8300000000181</v>
+      </c>
+      <c r="M12" s="62" cm="1">
+        <f t="array" aca="1" ref="M12" ca="1">_FV(B12,"52 week high",TRUE)</f>
+        <v>167.11</v>
+      </c>
+      <c r="N12" s="62" cm="1">
+        <f t="array" aca="1" ref="N12" ca="1">_FV(B12,"52 week low",TRUE)</f>
+        <v>135.3672</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="89" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">_FV(B13,"Ticker symbol",TRUE)</f>
+        <v>AAPL</v>
+      </c>
+      <c r="D13" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">_FV(B13,"Industry")</f>
+        <v>Computers, Phones &amp; Household Electronics</v>
+      </c>
+      <c r="E13" s="59"/>
+      <c r="F13" s="63">
+        <v>-173</v>
+      </c>
+      <c r="G13" s="64">
+        <v>227.63</v>
+      </c>
+      <c r="H13" s="85">
+        <f>F13*G13</f>
+        <v>-39379.99</v>
+      </c>
+      <c r="I13" s="61" cm="1">
+        <f t="array" aca="1" ref="I13" ca="1">_FV(B13,"Price")</f>
+        <v>244.6</v>
+      </c>
+      <c r="J13" s="65" cm="1">
+        <f t="array" aca="1" ref="J13" ca="1">_FV(B13,"Price")</f>
+        <v>244.6</v>
+      </c>
+      <c r="K13" s="65">
+        <f ca="1">F13*J13</f>
+        <v>-42315.799999999996</v>
+      </c>
+      <c r="L13" s="62">
+        <f ca="1">(J13-G13)*F13</f>
+        <v>-2935.81</v>
+      </c>
+      <c r="M13" s="62" cm="1">
+        <f t="array" aca="1" ref="M13" ca="1">_FV(B13,"52 week high",TRUE)</f>
+        <v>260.10000000000002</v>
+      </c>
+      <c r="N13" s="62" cm="1">
+        <f t="array" aca="1" ref="N13" ca="1">_FV(B13,"52 week low",TRUE)</f>
+        <v>164.07499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="58"/>
+      <c r="B14" s="80" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C14" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">_FV(B14,"Ticker symbol",TRUE)</f>
+        <v>CVX</v>
+      </c>
+      <c r="D14" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">_FV(B14,"Industry")</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="63">
+        <v>-259</v>
+      </c>
+      <c r="G14" s="64">
+        <v>152.62</v>
+      </c>
+      <c r="H14" s="85">
+        <f>F14*G14</f>
+        <v>-39528.58</v>
+      </c>
+      <c r="I14" s="61" cm="1">
+        <f t="array" aca="1" ref="I14" ca="1">_FV(B14,"Price")</f>
+        <v>155.26499999999999</v>
+      </c>
+      <c r="J14" s="65" cm="1">
+        <f t="array" aca="1" ref="J14" ca="1">_FV(B14,"Price")</f>
+        <v>155.26499999999999</v>
+      </c>
+      <c r="K14" s="65">
+        <f ca="1">F14*J14</f>
+        <v>-40213.634999999995</v>
+      </c>
+      <c r="L14" s="62">
+        <f ca="1">(J14-G14)*F14</f>
+        <v>-685.05499999999529</v>
+      </c>
+      <c r="M14" s="62" cm="1">
+        <f t="array" aca="1" ref="M14" ca="1">_FV(B14,"52 week high",TRUE)</f>
+        <v>167.11</v>
+      </c>
+      <c r="N14" s="62" cm="1">
+        <f t="array" aca="1" ref="N14" ca="1">_FV(B14,"52 week low",TRUE)</f>
+        <v>135.3672</v>
+      </c>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="58"/>
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="58"/>
+    </row>
+    <row r="15" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58"/>
+      <c r="B15" s="80" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C15" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">_FV(B15,"Ticker symbol",TRUE)</f>
+        <v>PG</v>
+      </c>
+      <c r="D15" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">_FV(B15,"Industry")</f>
+        <v>Personal &amp; Household Products &amp; Services</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="63">
+        <v>235</v>
+      </c>
+      <c r="G15" s="64">
+        <v>167.97</v>
+      </c>
+      <c r="H15" s="85">
+        <f>F15*G15</f>
+        <v>39472.949999999997</v>
+      </c>
+      <c r="I15" s="61" cm="1">
+        <f t="array" aca="1" ref="I15" ca="1">_FV(B15,"Price")</f>
+        <v>162.9</v>
+      </c>
+      <c r="J15" s="65" cm="1">
+        <f t="array" aca="1" ref="J15" ca="1">_FV(B15,"Price")</f>
+        <v>162.9</v>
+      </c>
+      <c r="K15" s="65">
+        <f ca="1">F15*J15</f>
+        <v>38281.5</v>
+      </c>
+      <c r="L15" s="62">
+        <f ca="1">(J15-G15)*F15</f>
+        <v>-1191.4499999999985</v>
+      </c>
+      <c r="M15" s="62" cm="1">
+        <f t="array" aca="1" ref="M15" ca="1">_FV(B15,"52 week high",TRUE)</f>
+        <v>180.43</v>
+      </c>
+      <c r="N15" s="62" cm="1">
+        <f t="array" aca="1" ref="N15" ca="1">_FV(B15,"52 week low",TRUE)</f>
+        <v>153.52000000000001</v>
+      </c>
+      <c r="O15" s="58"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="58"/>
+      <c r="Z15" s="58"/>
+      <c r="AA15" s="58"/>
+    </row>
+    <row r="16" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58"/>
+      <c r="B16" s="80" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C16" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">_FV(B16,"Ticker symbol",TRUE)</f>
+        <v>AXP</v>
+      </c>
+      <c r="D16" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">_FV(B16,"Industry")</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="63">
+        <v>125</v>
+      </c>
+      <c r="G16" s="64">
+        <v>316.77</v>
+      </c>
+      <c r="H16" s="85">
+        <f>F16*G16</f>
+        <v>39596.25</v>
+      </c>
+      <c r="I16" s="61" cm="1">
+        <f t="array" aca="1" ref="I16" ca="1">_FV(B16,"Price")</f>
+        <v>311.04000000000002</v>
+      </c>
+      <c r="J16" s="65" cm="1">
+        <f t="array" aca="1" ref="J16" ca="1">_FV(B16,"Price")</f>
+        <v>311.04000000000002</v>
+      </c>
+      <c r="K16" s="65">
+        <f ca="1">F16*J16</f>
+        <v>38880</v>
+      </c>
+      <c r="L16" s="62">
+        <f ca="1">(J16-G16)*F16</f>
+        <v>-716.24999999999523</v>
+      </c>
+      <c r="M16" s="62" cm="1">
+        <f t="array" aca="1" ref="M16" ca="1">_FV(B16,"52 week high",TRUE)</f>
+        <v>326.27499999999998</v>
+      </c>
+      <c r="N16" s="62" cm="1">
+        <f t="array" aca="1" ref="N16" ca="1">_FV(B16,"52 week low",TRUE)</f>
+        <v>208.82429999999999</v>
+      </c>
+      <c r="O16" s="58"/>
+      <c r="P16" s="58"/>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="58"/>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+    </row>
+    <row r="17" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="89" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">_FV(B17,"Ticker symbol",TRUE)</f>
+        <v>SHW</v>
+      </c>
+      <c r="D17" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">_FV(B17,"Industry")</f>
+        <v>Chemicals</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="63">
+        <v>110</v>
+      </c>
+      <c r="G17" s="64">
+        <v>360.57</v>
+      </c>
+      <c r="H17" s="60">
+        <f>F17*G17</f>
+        <v>39662.699999999997</v>
+      </c>
+      <c r="I17" s="61" cm="1">
+        <f t="array" aca="1" ref="I17" ca="1">_FV(B17,"Price")</f>
+        <v>356.86</v>
+      </c>
+      <c r="J17" s="65" cm="1">
+        <f t="array" aca="1" ref="J17" ca="1">_FV(B17,"Price")</f>
+        <v>356.86</v>
+      </c>
+      <c r="K17" s="65">
+        <f ca="1">F17*J17</f>
+        <v>39254.6</v>
+      </c>
+      <c r="L17" s="62">
+        <f ca="1">(J17-G17)*F17</f>
+        <v>-408.09999999999775</v>
+      </c>
+      <c r="M17" s="62" cm="1">
+        <f t="array" aca="1" ref="M17" ca="1">_FV(B17,"52 week high",TRUE)</f>
+        <v>400.42</v>
+      </c>
+      <c r="N17" s="62" cm="1">
+        <f t="array" aca="1" ref="N17" ca="1">_FV(B17,"52 week low",TRUE)</f>
+        <v>282.08999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="58"/>
+      <c r="B18" s="80" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C18" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">_FV(B18,"Ticker symbol",TRUE)</f>
+        <v>TRV</v>
+      </c>
+      <c r="D18" s="59" t="str" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">_FV(B18,"Industry")</f>
+        <v>Insurance</v>
+      </c>
+      <c r="E18" s="59"/>
+      <c r="F18" s="63">
+        <v>161</v>
+      </c>
+      <c r="G18" s="64">
+        <v>245.19</v>
+      </c>
+      <c r="H18" s="60">
+        <f>F18*G18</f>
+        <v>39475.589999999997</v>
+      </c>
+      <c r="I18" s="61" cm="1">
+        <f t="array" aca="1" ref="I18" ca="1">_FV(B18,"Price")</f>
+        <v>238.31</v>
+      </c>
+      <c r="J18" s="65" cm="1">
+        <f t="array" aca="1" ref="J18" ca="1">_FV(B18,"Price")</f>
+        <v>238.31</v>
+      </c>
+      <c r="K18" s="65">
+        <f ca="1">F18*J18</f>
+        <v>38367.910000000003</v>
+      </c>
+      <c r="L18" s="62">
+        <f ca="1">(J18-G18)*F18</f>
+        <v>-1107.6799999999994</v>
+      </c>
+      <c r="M18" s="62" cm="1">
+        <f t="array" aca="1" ref="M18" ca="1">_FV(B18,"52 week high",TRUE)</f>
+        <v>269.55500000000001</v>
+      </c>
+      <c r="N18" s="62" cm="1">
+        <f t="array" aca="1" ref="N18" ca="1">_FV(B18,"52 week low",TRUE)</f>
+        <v>200.21</v>
+      </c>
+      <c r="O18" s="58"/>
+      <c r="P18" s="58"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="58"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="58"/>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+    </row>
+    <row r="19" spans="1:27" s="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="23">
-        <v>1000</v>
-      </c>
-      <c r="G8" s="13">
-        <f>F8*E8</f>
-        <v>1000000</v>
-      </c>
-      <c r="H8" s="22">
-        <v>1002.57</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="9">
-        <f>(H8-F8)*E8</f>
-        <v>2570.00000000005</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="30"/>
+      <c r="C19" s="94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="96">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="H19" s="97">
+        <v>687077.42</v>
+      </c>
+      <c r="I19" s="98"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99">
+        <f>(1+G19/52)*H19</f>
+        <v>687635.00975238462</v>
+      </c>
+      <c r="L19" s="100">
+        <f>K19-H19</f>
+        <v>557.58975238457788</v>
+      </c>
+      <c r="M19" s="100" t="s">
+        <v>22</v>
+      </c>
+      <c r="N19" s="100" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="41" t="e" vm="1">
+    <row r="20" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="83" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="C9" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">_FV(B9,"Ticker symbol",TRUE)</f>
-        <v>IBM</v>
-      </c>
-      <c r="D9" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">_FV(B9,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="E9" s="43">
-        <v>782</v>
-      </c>
-      <c r="F9" s="44">
-        <v>255.7</v>
-      </c>
-      <c r="G9" s="45">
-        <f>F9*E9</f>
-        <v>199957.4</v>
-      </c>
-      <c r="H9" s="46" cm="1">
-        <f t="array" aca="1" ref="H9" ca="1">_FV(B9,"Price")</f>
-        <v>261.20999999999998</v>
-      </c>
-      <c r="I9" s="33">
-        <v>252.34</v>
-      </c>
-      <c r="J9" s="34">
-        <f>(I9-F9)*E9</f>
-        <v>-2627.5199999999886</v>
-      </c>
-      <c r="K9" s="34" cm="1">
-        <f t="array" aca="1" ref="K9" ca="1">_FV(B9,"52 week high",TRUE)</f>
-        <v>265.72000000000003</v>
-      </c>
-      <c r="L9" s="34" cm="1">
-        <f t="array" aca="1" ref="L9" ca="1">_FV(B9,"52 week low",TRUE)</f>
-        <v>162.62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">_FV(B10,"Ticker symbol",TRUE)</f>
-        <v>AXP</v>
-      </c>
-      <c r="D10" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">_FV(B10,"Industry")</f>
-        <v>Banking Services</v>
-      </c>
-      <c r="E10" s="43">
-        <v>315</v>
-      </c>
-      <c r="F10" s="44">
-        <v>317.45</v>
-      </c>
-      <c r="G10" s="45">
-        <f>F10*E10</f>
-        <v>99996.75</v>
-      </c>
-      <c r="H10" s="46" cm="1">
-        <f t="array" aca="1" ref="H10" ca="1">_FV(B10,"Price")</f>
-        <v>311.04000000000002</v>
-      </c>
-      <c r="I10" s="33">
-        <v>316.77</v>
-      </c>
-      <c r="J10" s="34">
-        <f>(I10-F10)*E10</f>
-        <v>-214.20000000000215</v>
-      </c>
-      <c r="K10" s="34" cm="1">
-        <f t="array" aca="1" ref="K10" ca="1">_FV(B10,"52 week high",TRUE)</f>
-        <v>326.27499999999998</v>
-      </c>
-      <c r="L10" s="34" cm="1">
-        <f t="array" aca="1" ref="L10" ca="1">_FV(B10,"52 week low",TRUE)</f>
-        <v>208.82429999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="47" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">_FV(B11,"Ticker symbol",TRUE)</f>
-        <v>DIS</v>
-      </c>
-      <c r="D11" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">_FV(B11,"Industry")</f>
-        <v>Media &amp; Publishing</v>
-      </c>
-      <c r="E11" s="43">
-        <v>1769</v>
-      </c>
-      <c r="F11" s="44">
-        <v>113.06</v>
-      </c>
-      <c r="G11" s="45">
-        <f>F11*E11</f>
-        <v>200003.14</v>
-      </c>
-      <c r="H11" s="46" cm="1">
-        <f t="array" aca="1" ref="H11" ca="1">_FV(B11,"Price")</f>
-        <v>110.38</v>
-      </c>
-      <c r="I11" s="33">
-        <v>110.86</v>
-      </c>
-      <c r="J11" s="34">
-        <f>(I11-F11)*E11</f>
-        <v>-3891.8000000000052</v>
-      </c>
-      <c r="K11" s="34" cm="1">
-        <f t="array" aca="1" ref="K11" ca="1">_FV(B11,"52 week high",TRUE)</f>
-        <v>123.74</v>
-      </c>
-      <c r="L11" s="34" cm="1">
-        <f t="array" aca="1" ref="L11" ca="1">_FV(B11,"52 week low",TRUE)</f>
-        <v>83.91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">_FV(B12,"Ticker symbol",TRUE)</f>
-        <v>MSFT</v>
-      </c>
-      <c r="D12" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">_FV(B12,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="E12" s="43">
-        <v>-241</v>
-      </c>
-      <c r="F12" s="44">
-        <v>415.06</v>
-      </c>
-      <c r="G12" s="45">
-        <f>F12*E12</f>
-        <v>-100029.46</v>
-      </c>
-      <c r="H12" s="46" cm="1">
-        <f t="array" aca="1" ref="H12" ca="1">_FV(B12,"Price")</f>
-        <v>408.43</v>
-      </c>
-      <c r="I12" s="33">
-        <v>409.75</v>
-      </c>
-      <c r="J12" s="34">
-        <f>(I12-F12)*E12</f>
-        <v>1279.7100000000005</v>
-      </c>
-      <c r="K12" s="34" cm="1">
-        <f t="array" aca="1" ref="K12" ca="1">_FV(B12,"52 week high",TRUE)</f>
-        <v>468.35</v>
-      </c>
-      <c r="L12" s="34" cm="1">
-        <f t="array" aca="1" ref="L12" ca="1">_FV(B12,"52 week low",TRUE)</f>
-        <v>385.58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="47" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="C13" ca="1">_FV(B13,"Ticker symbol",TRUE)</f>
-        <v>CVX</v>
-      </c>
-      <c r="D13" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">_FV(B13,"Industry")</f>
-        <v>Oil &amp; Gas</v>
-      </c>
-      <c r="E13" s="43">
-        <v>-2681</v>
-      </c>
-      <c r="F13" s="44">
-        <v>149.19</v>
-      </c>
-      <c r="G13" s="45">
-        <f>F13*E13</f>
-        <v>-399978.39</v>
-      </c>
-      <c r="H13" s="46" cm="1">
-        <f t="array" aca="1" ref="H13" ca="1">_FV(B13,"Price")</f>
-        <v>155.26499999999999</v>
-      </c>
-      <c r="I13" s="33">
-        <v>152.62</v>
-      </c>
-      <c r="J13" s="34">
-        <f>(I13-F13)*E13</f>
-        <v>-9195.8300000000181</v>
-      </c>
-      <c r="K13" s="34" cm="1">
-        <f t="array" aca="1" ref="K13" ca="1">_FV(B13,"52 week high",TRUE)</f>
-        <v>167.11</v>
-      </c>
-      <c r="L13" s="34" cm="1">
-        <f t="array" aca="1" ref="L13" ca="1">_FV(B13,"52 week low",TRUE)</f>
-        <v>135.3672</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="C14" ca="1">_FV(B14,"Ticker symbol",TRUE)</f>
-        <v>AAPL</v>
-      </c>
-      <c r="D14" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">_FV(B14,"Industry")</f>
-        <v>Computers, Phones &amp; Household Electronics</v>
-      </c>
-      <c r="E14" s="40">
-        <v>-173</v>
-      </c>
-      <c r="F14" s="44">
-        <v>227.63</v>
-      </c>
-      <c r="G14" s="45">
-        <f>E14*F14</f>
-        <v>-39379.99</v>
-      </c>
-      <c r="H14" s="46" cm="1">
-        <f t="array" aca="1" ref="H14" ca="1">_FV(B14,"Price")</f>
-        <v>244.6</v>
-      </c>
-      <c r="I14" s="33">
-        <v>244.6</v>
-      </c>
-      <c r="J14" s="34">
-        <f>(I14-F14)*E14</f>
-        <v>-2935.81</v>
-      </c>
-      <c r="K14" s="34" cm="1">
-        <f t="array" aca="1" ref="K14" ca="1">_FV(B14,"52 week high",TRUE)</f>
-        <v>260.10000000000002</v>
-      </c>
-      <c r="L14" s="34" cm="1">
-        <f t="array" aca="1" ref="L14" ca="1">_FV(B14,"52 week low",TRUE)</f>
-        <v>164.07499999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="48" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="C15" ca="1">_FV(B15,"Ticker symbol",TRUE)</f>
-        <v>CVX</v>
-      </c>
-      <c r="D15" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">_FV(B15,"Industry")</f>
-        <v>Oil &amp; Gas</v>
-      </c>
-      <c r="E15" s="40">
-        <v>-259</v>
-      </c>
-      <c r="F15" s="44">
-        <v>152.62</v>
-      </c>
-      <c r="G15" s="45">
-        <f>E15*F15</f>
-        <v>-39528.58</v>
-      </c>
-      <c r="H15" s="46" cm="1">
-        <f t="array" aca="1" ref="H15" ca="1">_FV(B15,"Price")</f>
-        <v>155.26499999999999</v>
-      </c>
-      <c r="I15" s="33">
-        <v>155.34</v>
-      </c>
-      <c r="J15" s="34">
-        <f>(I15-F15)*E15</f>
-        <v>-704.47999999999968</v>
-      </c>
-      <c r="K15" s="34" cm="1">
-        <f t="array" aca="1" ref="K15" ca="1">_FV(B15,"52 week high",TRUE)</f>
-        <v>167.11</v>
-      </c>
-      <c r="L15" s="34" cm="1">
-        <f t="array" aca="1" ref="L15" ca="1">_FV(B15,"52 week low",TRUE)</f>
-        <v>135.3672</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="48" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="C16" ca="1">_FV(B16,"Ticker symbol",TRUE)</f>
-        <v>PG</v>
-      </c>
-      <c r="D16" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">_FV(B16,"Industry")</f>
-        <v>Personal &amp; Household Products &amp; Services</v>
-      </c>
-      <c r="E16" s="40">
-        <v>235</v>
-      </c>
-      <c r="F16" s="44">
-        <v>167.97</v>
-      </c>
-      <c r="G16" s="45">
-        <f>E16*F16</f>
-        <v>39472.949999999997</v>
-      </c>
-      <c r="H16" s="46" cm="1">
-        <f t="array" aca="1" ref="H16" ca="1">_FV(B16,"Price")</f>
-        <v>162.9</v>
-      </c>
-      <c r="I16" s="33">
-        <v>162.9</v>
-      </c>
-      <c r="J16" s="34">
-        <f>(I16-F16)*E16</f>
-        <v>-1191.4499999999985</v>
-      </c>
-      <c r="K16" s="34" cm="1">
-        <f t="array" aca="1" ref="K16" ca="1">_FV(B16,"52 week high",TRUE)</f>
-        <v>180.43</v>
-      </c>
-      <c r="L16" s="34" cm="1">
-        <f t="array" aca="1" ref="L16" ca="1">_FV(B16,"52 week low",TRUE)</f>
-        <v>153.52000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="49" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="C17" ca="1">_FV(B17,"Ticker symbol",TRUE)</f>
-        <v>MCD</v>
-      </c>
-      <c r="D17" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">_FV(B17,"Industry")</f>
-        <v>Hotels &amp; Entertainment Services</v>
-      </c>
-      <c r="E17" s="40">
-        <v>134</v>
-      </c>
-      <c r="F17" s="44">
-        <v>294.3</v>
-      </c>
-      <c r="G17" s="45">
-        <f>E17*F17</f>
-        <v>39436.200000000004</v>
-      </c>
-      <c r="H17" s="46" cm="1">
-        <f t="array" aca="1" ref="H17" ca="1">_FV(B17,"Price")</f>
-        <v>308.38</v>
-      </c>
-      <c r="I17" s="33">
-        <v>308.55</v>
-      </c>
-      <c r="J17" s="34">
-        <f>(I17-F17)*E17</f>
-        <v>1909.5</v>
-      </c>
-      <c r="K17" s="34" cm="1">
-        <f t="array" aca="1" ref="K17" ca="1">_FV(B17,"52 week high",TRUE)</f>
-        <v>317.89999999999998</v>
-      </c>
-      <c r="L17" s="34" cm="1">
-        <f t="array" aca="1" ref="L17" ca="1">_FV(B17,"52 week low",TRUE)</f>
-        <v>243.53</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="49" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C18" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="C18" ca="1">_FV(B18,"Ticker symbol",TRUE)</f>
-        <v>SHW</v>
-      </c>
-      <c r="D18" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">_FV(B18,"Industry")</f>
-        <v>Chemicals</v>
-      </c>
-      <c r="E18" s="40">
-        <v>110</v>
-      </c>
-      <c r="F18" s="44">
-        <v>360.57</v>
-      </c>
-      <c r="G18" s="45">
-        <f>E18*F18</f>
-        <v>39662.699999999997</v>
-      </c>
-      <c r="H18" s="46" cm="1">
-        <f t="array" aca="1" ref="H18" ca="1">_FV(B18,"Price")</f>
-        <v>356.86</v>
-      </c>
-      <c r="I18" s="33">
-        <v>356.8</v>
-      </c>
-      <c r="J18" s="34">
-        <f>(I18-F18)*E18</f>
-        <v>-414.699999999998</v>
-      </c>
-      <c r="K18" s="34" cm="1">
-        <f t="array" aca="1" ref="K18" ca="1">_FV(B18,"52 week high",TRUE)</f>
-        <v>400.42</v>
-      </c>
-      <c r="L18" s="34" cm="1">
-        <f t="array" aca="1" ref="L18" ca="1">_FV(B18,"52 week low",TRUE)</f>
-        <v>282.08999999999997</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="48" t="e" vm="10">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="C19" ca="1">_FV(B19,"Ticker symbol",TRUE)</f>
-        <v>TRV</v>
-      </c>
-      <c r="D19" s="42" t="str" cm="1">
-        <f t="array" aca="1" ref="D19" ca="1">_FV(B19,"Industry")</f>
-        <v>Insurance</v>
-      </c>
-      <c r="E19" s="40">
-        <v>161</v>
-      </c>
-      <c r="F19" s="44">
-        <v>245.19</v>
-      </c>
-      <c r="G19" s="45">
-        <f>E19*F19</f>
-        <v>39475.589999999997</v>
-      </c>
-      <c r="H19" s="46" cm="1">
-        <f t="array" aca="1" ref="H19" ca="1">_FV(B19,"Price")</f>
-        <v>238.31</v>
-      </c>
-      <c r="I19" s="33">
-        <v>238.31</v>
-      </c>
-      <c r="J19" s="34">
-        <f>(I19-F19)*E19</f>
-        <v>-1107.6799999999994</v>
-      </c>
-      <c r="K19" s="34" cm="1">
-        <f t="array" aca="1" ref="K19" ca="1">_FV(B19,"52 week high",TRUE)</f>
-        <v>269.55500000000001</v>
-      </c>
-      <c r="L19" s="34" cm="1">
-        <f t="array" aca="1" ref="L19" ca="1">_FV(B19,"52 week low",TRUE)</f>
-        <v>200.21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" s="8" t="str" cm="1">
+      <c r="C20" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">_FV(B20,"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="D20" s="8" t="str" cm="1">
+      <c r="D20" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">_FV(B20,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="67"/>
+      <c r="F20" s="66">
         <v>-96</v>
       </c>
-      <c r="F20" s="24">
+      <c r="G20" s="68">
         <v>409.75</v>
       </c>
-      <c r="G20" s="13">
-        <f>E20*F20</f>
+      <c r="H20" s="69">
+        <f>F20*G20</f>
         <v>-39336</v>
       </c>
-      <c r="H20" s="22" cm="1">
-        <f t="array" aca="1" ref="H20" ca="1">_FV(B20,"Price")</f>
+      <c r="I20" s="68" cm="1">
+        <f t="array" aca="1" ref="I20" ca="1">_FV(B20,"Price")</f>
         <v>408.43</v>
       </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9" cm="1">
-        <f t="array" aca="1" ref="K20" ca="1">_FV(B20,"52 week high",TRUE)</f>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70">
+        <f ca="1">IF(ISBLANK(J20),F20*I20,F20*J20)</f>
+        <v>-39209.279999999999</v>
+      </c>
+      <c r="L20" s="71">
+        <f ca="1">K20-H20</f>
+        <v>126.72000000000116</v>
+      </c>
+      <c r="M20" s="71" cm="1">
+        <f t="array" aca="1" ref="M20" ca="1">_FV(B20,"52 week high",TRUE)</f>
         <v>468.35</v>
       </c>
-      <c r="L20" s="9" cm="1">
-        <f t="array" aca="1" ref="L20" ca="1">_FV(B20,"52 week low",TRUE)</f>
+      <c r="N20" s="71" cm="1">
+        <f t="array" aca="1" ref="N20" ca="1">_FV(B20,"52 week low",TRUE)</f>
         <v>385.58</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25" t="e" vm="11">
+    <row r="21" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="83" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="C21" s="8" t="str" cm="1">
+      <c r="C21" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">_FV(B21,"Ticker symbol",TRUE)</f>
         <v>UNH</v>
       </c>
-      <c r="D21" s="8" t="str" cm="1">
+      <c r="D21" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">_FV(B21,"Industry")</f>
         <v>Healthcare Providers &amp; Services</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="67"/>
+      <c r="F21" s="66">
         <v>-75</v>
       </c>
-      <c r="F21" s="24">
+      <c r="G21" s="68">
         <v>527.03</v>
       </c>
-      <c r="G21" s="13">
-        <f>E21*F21</f>
+      <c r="H21" s="69">
+        <f>F21*G21</f>
         <v>-39527.25</v>
       </c>
-      <c r="H21" s="22" cm="1">
-        <f t="array" aca="1" ref="H21" ca="1">_FV(B21,"Price")</f>
+      <c r="I21" s="68" cm="1">
+        <f t="array" aca="1" ref="I21" ca="1">_FV(B21,"Price")</f>
         <v>523.35</v>
       </c>
-      <c r="I21" s="16"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9" cm="1">
-        <f t="array" aca="1" ref="K21" ca="1">_FV(B21,"52 week high",TRUE)</f>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70">
+        <f ca="1">IF(ISBLANK(J21),F21*I21,F21*J21)</f>
+        <v>-39251.25</v>
+      </c>
+      <c r="L21" s="71">
+        <f ca="1">K21-H21</f>
+        <v>276</v>
+      </c>
+      <c r="M21" s="71" cm="1">
+        <f t="array" aca="1" ref="M21" ca="1">_FV(B21,"52 week high",TRUE)</f>
         <v>630.73</v>
       </c>
-      <c r="L21" s="9" cm="1">
-        <f t="array" aca="1" ref="L21" ca="1">_FV(B21,"52 week low",TRUE)</f>
+      <c r="N21" s="71" cm="1">
+        <f t="array" aca="1" ref="N21" ca="1">_FV(B21,"52 week low",TRUE)</f>
         <v>436.38</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="25" t="e" vm="12">
+    <row r="22" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="66"/>
+      <c r="B22" s="83" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="C22" s="8" t="str" cm="1">
+      <c r="C22" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">_FV(B22,"Ticker symbol",TRUE)</f>
         <v>CRM</v>
       </c>
-      <c r="D22" s="8" t="str" cm="1">
+      <c r="D22" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">_FV(B22,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="67"/>
+      <c r="F22" s="66">
         <v>-121</v>
       </c>
-      <c r="F22" s="24">
+      <c r="G22" s="68">
         <v>325.83</v>
       </c>
-      <c r="G22" s="13">
-        <f>E22*F22</f>
+      <c r="H22" s="69">
+        <f>F22*G22</f>
         <v>-39425.43</v>
       </c>
-      <c r="H22" s="22" cm="1">
-        <f t="array" aca="1" ref="H22" ca="1">_FV(B22,"Price")</f>
+      <c r="I22" s="68" cm="1">
+        <f t="array" aca="1" ref="I22" ca="1">_FV(B22,"Price")</f>
         <v>326.54000000000002</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9" cm="1">
-        <f t="array" aca="1" ref="K22" ca="1">_FV(B22,"52 week high",TRUE)</f>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70">
+        <f ca="1">IF(ISBLANK(J22),F22*I22,F22*J22)</f>
+        <v>-39511.340000000004</v>
+      </c>
+      <c r="L22" s="71">
+        <f ca="1">K22-H22</f>
+        <v>-85.910000000003492</v>
+      </c>
+      <c r="M22" s="71" cm="1">
+        <f t="array" aca="1" ref="M22" ca="1">_FV(B22,"52 week high",TRUE)</f>
         <v>369</v>
       </c>
-      <c r="L22" s="9" cm="1">
-        <f t="array" aca="1" ref="L22" ca="1">_FV(B22,"52 week low",TRUE)</f>
+      <c r="N22" s="71" cm="1">
+        <f t="array" aca="1" ref="N22" ca="1">_FV(B22,"52 week low",TRUE)</f>
         <v>212</v>
       </c>
+      <c r="O22" s="66"/>
+      <c r="P22" s="66"/>
+      <c r="Q22" s="66"/>
+      <c r="R22" s="66"/>
+      <c r="S22" s="66"/>
+      <c r="T22" s="66"/>
+      <c r="U22" s="66"/>
+      <c r="V22" s="66"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="66"/>
     </row>
-    <row r="23" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="25" t="e" vm="13">
+    <row r="23" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="66"/>
+      <c r="B23" s="83" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="C23" s="8" t="str" cm="1">
+      <c r="C23" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">_FV(B23,"Ticker symbol",TRUE)</f>
         <v>MRK</v>
       </c>
-      <c r="D23" s="8" t="str" cm="1">
+      <c r="D23" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">_FV(B23,"Industry")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="67"/>
+      <c r="F23" s="66">
         <v>-452</v>
       </c>
-      <c r="F23" s="24">
+      <c r="G23" s="68">
         <v>87.28</v>
       </c>
-      <c r="G23" s="13">
-        <f>E23*F23</f>
+      <c r="H23" s="69">
+        <f>F23*G23</f>
         <v>-39450.559999999998</v>
       </c>
-      <c r="H23" s="22" cm="1">
-        <f t="array" aca="1" ref="H23" ca="1">_FV(B23,"Price")</f>
+      <c r="I23" s="68" cm="1">
+        <f t="array" aca="1" ref="I23" ca="1">_FV(B23,"Price")</f>
         <v>83</v>
       </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9" cm="1">
-        <f t="array" aca="1" ref="K23" ca="1">_FV(B23,"52 week high",TRUE)</f>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70">
+        <f ca="1">IF(ISBLANK(J23),F23*I23,F23*J23)</f>
+        <v>-37516</v>
+      </c>
+      <c r="L23" s="71">
+        <f ca="1">K23-H23</f>
+        <v>1934.5599999999977</v>
+      </c>
+      <c r="M23" s="71" cm="1">
+        <f t="array" aca="1" ref="M23" ca="1">_FV(B23,"52 week high",TRUE)</f>
         <v>134.63</v>
       </c>
-      <c r="L23" s="9" cm="1">
-        <f t="array" aca="1" ref="L23" ca="1">_FV(B23,"52 week low",TRUE)</f>
+      <c r="N23" s="71" cm="1">
+        <f t="array" aca="1" ref="N23" ca="1">_FV(B23,"52 week low",TRUE)</f>
         <v>82.093900000000005</v>
       </c>
+      <c r="O23" s="66"/>
+      <c r="P23" s="66"/>
+      <c r="Q23" s="66"/>
+      <c r="R23" s="66"/>
+      <c r="S23" s="66"/>
+      <c r="T23" s="66"/>
+      <c r="U23" s="66"/>
+      <c r="V23" s="66"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="66"/>
     </row>
-    <row r="24" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="25" t="e" vm="14">
+    <row r="24" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="66"/>
+      <c r="B24" s="83" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="C24" s="8" t="str" cm="1">
+      <c r="C24" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">_FV(B24,"Ticker symbol",TRUE)</f>
         <v>CAT</v>
       </c>
-      <c r="D24" s="8" t="str" cm="1">
+      <c r="D24" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">_FV(B24,"Industry")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="67"/>
+      <c r="F24" s="66">
         <v>-109</v>
       </c>
-      <c r="F24" s="24">
+      <c r="G24" s="68">
         <v>363.88</v>
       </c>
-      <c r="G24" s="13">
-        <f>E24*F24</f>
+      <c r="H24" s="69">
+        <f>F24*G24</f>
         <v>-39662.92</v>
       </c>
-      <c r="H24" s="22" cm="1">
-        <f t="array" aca="1" ref="H24" ca="1">_FV(B24,"Price")</f>
+      <c r="I24" s="68" cm="1">
+        <f t="array" aca="1" ref="I24" ca="1">_FV(B24,"Price")</f>
         <v>353.35</v>
       </c>
-      <c r="I24" s="16"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9" cm="1">
-        <f t="array" aca="1" ref="K24" ca="1">_FV(B24,"52 week high",TRUE)</f>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70">
+        <f ca="1">IF(ISBLANK(J24),F24*I24,F24*J24)</f>
+        <v>-38515.15</v>
+      </c>
+      <c r="L24" s="71">
+        <f ca="1">K24-H24</f>
+        <v>1147.7699999999968</v>
+      </c>
+      <c r="M24" s="71" cm="1">
+        <f t="array" aca="1" ref="M24" ca="1">_FV(B24,"52 week high",TRUE)</f>
         <v>418.5</v>
       </c>
-      <c r="L24" s="9" cm="1">
-        <f t="array" aca="1" ref="L24" ca="1">_FV(B24,"52 week low",TRUE)</f>
+      <c r="N24" s="71" cm="1">
+        <f t="array" aca="1" ref="N24" ca="1">_FV(B24,"52 week low",TRUE)</f>
         <v>307.05</v>
       </c>
+      <c r="O24" s="66"/>
+      <c r="P24" s="66"/>
+      <c r="Q24" s="66"/>
+      <c r="R24" s="66"/>
+      <c r="S24" s="66"/>
+      <c r="T24" s="66"/>
+      <c r="U24" s="66"/>
+      <c r="V24" s="66"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
     </row>
-    <row r="25" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="25" t="e" vm="15">
+    <row r="25" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="66"/>
+      <c r="B25" s="82" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="C25" s="8" t="str" cm="1">
+      <c r="C25" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">_FV(B25,"Ticker symbol",TRUE)</f>
         <v>HON</v>
       </c>
-      <c r="D25" s="8" t="str" cm="1">
+      <c r="D25" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">_FV(B25,"Industry")</f>
         <v>Consumer Goods Conglomerates</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="67"/>
+      <c r="F25" s="66">
         <v>-192</v>
       </c>
-      <c r="F25" s="24">
+      <c r="G25" s="68">
         <v>205.52</v>
       </c>
-      <c r="G25" s="13">
-        <f>E25*F25</f>
+      <c r="H25" s="69">
+        <f>F25*G25</f>
         <v>-39459.840000000004</v>
       </c>
-      <c r="H25" s="22" cm="1">
-        <f t="array" aca="1" ref="H25" ca="1">_FV(B25,"Price")</f>
+      <c r="I25" s="68" cm="1">
+        <f t="array" aca="1" ref="I25" ca="1">_FV(B25,"Price")</f>
         <v>202.75</v>
       </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9" cm="1">
-        <f t="array" aca="1" ref="K25" ca="1">_FV(B25,"52 week high",TRUE)</f>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70">
+        <f ca="1">IF(ISBLANK(J25),F25*I25,F25*J25)</f>
+        <v>-38928</v>
+      </c>
+      <c r="L25" s="71">
+        <f ca="1">K25-H25</f>
+        <v>531.84000000000378</v>
+      </c>
+      <c r="M25" s="71" cm="1">
+        <f t="array" aca="1" ref="M25" ca="1">_FV(B25,"52 week high",TRUE)</f>
         <v>242.77</v>
       </c>
-      <c r="L25" s="9" cm="1">
-        <f t="array" aca="1" ref="L25" ca="1">_FV(B25,"52 week low",TRUE)</f>
+      <c r="N25" s="71" cm="1">
+        <f t="array" aca="1" ref="N25" ca="1">_FV(B25,"52 week low",TRUE)</f>
         <v>189.75</v>
       </c>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="66"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
     </row>
-    <row r="26" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25" t="e" vm="16">
+    <row r="26" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="66"/>
+      <c r="B26" s="82" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="8" t="str" cm="1">
+      <c r="C26" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">_FV(B26,"Ticker symbol",TRUE)</f>
         <v>NKE</v>
       </c>
-      <c r="D26" s="8" t="str" cm="1">
+      <c r="D26" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">_FV(B26,"Industry")</f>
         <v>Textiles &amp; Apparel</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="67"/>
+      <c r="F26" s="66">
         <v>-575</v>
       </c>
-      <c r="F26" s="24">
+      <c r="G26" s="68">
         <v>68.680000000000007</v>
       </c>
-      <c r="G26" s="13">
-        <f>E26*F26</f>
+      <c r="H26" s="69">
+        <f>F26*G26</f>
         <v>-39491.000000000007</v>
       </c>
-      <c r="H26" s="22" cm="1">
-        <f t="array" aca="1" ref="H26" ca="1">_FV(B26,"Price")</f>
+      <c r="I26" s="68" cm="1">
+        <f t="array" aca="1" ref="I26" ca="1">_FV(B26,"Price")</f>
         <v>73.040000000000006</v>
       </c>
-      <c r="I26" s="16"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9" cm="1">
-        <f t="array" aca="1" ref="K26" ca="1">_FV(B26,"52 week high",TRUE)</f>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70">
+        <f ca="1">IF(ISBLANK(J26),F26*I26,F26*J26)</f>
+        <v>-41998</v>
+      </c>
+      <c r="L26" s="71">
+        <f ca="1">K26-H26</f>
+        <v>-2506.9999999999927</v>
+      </c>
+      <c r="M26" s="71" cm="1">
+        <f t="array" aca="1" ref="M26" ca="1">_FV(B26,"52 week high",TRUE)</f>
         <v>107.34</v>
       </c>
-      <c r="L26" s="9" cm="1">
-        <f t="array" aca="1" ref="L26" ca="1">_FV(B26,"52 week low",TRUE)</f>
+      <c r="N26" s="71" cm="1">
+        <f t="array" aca="1" ref="N26" ca="1">_FV(B26,"52 week low",TRUE)</f>
         <v>68.62</v>
       </c>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
     </row>
-    <row r="27" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="25" t="e" vm="17">
+    <row r="27" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="66"/>
+      <c r="B27" s="83" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="C27" s="8" t="str" cm="1">
+      <c r="C27" s="67" t="str" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">_FV(B27,"Ticker symbol",TRUE)</f>
+        <v>PG</v>
+      </c>
+      <c r="D27" s="67" t="str" cm="1">
+        <f t="array" aca="1" ref="D27" ca="1">_FV(B27,"Industry")</f>
+        <v>Personal &amp; Household Products &amp; Services</v>
+      </c>
+      <c r="E27" s="67"/>
+      <c r="F27" s="66">
+        <v>-245</v>
+      </c>
+      <c r="G27" s="68">
+        <v>162.9</v>
+      </c>
+      <c r="H27" s="69">
+        <f>F27*G27</f>
+        <v>-39910.5</v>
+      </c>
+      <c r="I27" s="68" cm="1">
+        <f t="array" aca="1" ref="I27" ca="1">_FV(B27,"Price")</f>
+        <v>162.9</v>
+      </c>
+      <c r="J27" s="70" cm="1">
+        <f t="array" aca="1" ref="J27" ca="1">_FV(B27,"Price")</f>
+        <v>162.9</v>
+      </c>
+      <c r="K27" s="70">
+        <f ca="1">IF(ISBLANK(J27),F27*I27,F27*J27)</f>
+        <v>-39910.5</v>
+      </c>
+      <c r="L27" s="71">
+        <f ca="1">(J27-G27)*F27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="71" cm="1">
+        <f t="array" aca="1" ref="M27" ca="1">_FV(B27,"52 week high",TRUE)</f>
+        <v>180.43</v>
+      </c>
+      <c r="N27" s="71" cm="1">
+        <f t="array" aca="1" ref="N27" ca="1">_FV(B27,"52 week low",TRUE)</f>
+        <v>153.52000000000001</v>
+      </c>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+    </row>
+    <row r="28" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="66"/>
+      <c r="B28" s="83" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" s="67" t="str" cm="1">
+        <f t="array" aca="1" ref="C28" ca="1">_FV(B28,"Ticker symbol",TRUE)</f>
+        <v>SHW</v>
+      </c>
+      <c r="D28" s="67" t="str" cm="1">
+        <f t="array" aca="1" ref="D28" ca="1">_FV(B28,"Industry")</f>
+        <v>Chemicals</v>
+      </c>
+      <c r="E28" s="67"/>
+      <c r="F28" s="66">
+        <v>-112</v>
+      </c>
+      <c r="G28" s="68">
+        <v>356.86</v>
+      </c>
+      <c r="H28" s="69">
+        <f>F28*G28</f>
+        <v>-39968.32</v>
+      </c>
+      <c r="I28" s="68" cm="1">
+        <f t="array" aca="1" ref="I28" ca="1">_FV(B28,"Price")</f>
+        <v>356.86</v>
+      </c>
+      <c r="J28" s="70" cm="1">
+        <f t="array" aca="1" ref="J28" ca="1">_FV(B28,"Price")</f>
+        <v>356.86</v>
+      </c>
+      <c r="K28" s="70">
+        <f ca="1">IF(ISBLANK(J28),F28*I28,F28*J28)</f>
+        <v>-39968.32</v>
+      </c>
+      <c r="L28" s="71">
+        <f ca="1">(J28-G28)*F28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="71" cm="1">
+        <f t="array" aca="1" ref="M28" ca="1">_FV(B28,"52 week high",TRUE)</f>
+        <v>400.42</v>
+      </c>
+      <c r="N28" s="71" cm="1">
+        <f t="array" aca="1" ref="N28" ca="1">_FV(B28,"52 week low",TRUE)</f>
+        <v>282.08999999999997</v>
+      </c>
+      <c r="O28" s="66"/>
+      <c r="P28" s="66"/>
+      <c r="Q28" s="66"/>
+      <c r="R28" s="66"/>
+      <c r="S28" s="66"/>
+      <c r="T28" s="66"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+    </row>
+    <row r="29" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="66"/>
+      <c r="B29" s="83" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" s="67" t="str" cm="1">
+        <f t="array" aca="1" ref="C29" ca="1">_FV(B29,"Ticker symbol",TRUE)</f>
+        <v>TRV</v>
+      </c>
+      <c r="D29" s="67" t="str" cm="1">
+        <f t="array" aca="1" ref="D29" ca="1">_FV(B29,"Industry")</f>
+        <v>Insurance</v>
+      </c>
+      <c r="E29" s="67"/>
+      <c r="F29" s="66">
+        <v>-167</v>
+      </c>
+      <c r="G29" s="68">
+        <v>238.31</v>
+      </c>
+      <c r="H29" s="69">
+        <f>F29*G29</f>
+        <v>-39797.769999999997</v>
+      </c>
+      <c r="I29" s="68" cm="1">
+        <f t="array" aca="1" ref="I29" ca="1">_FV(B29,"Price")</f>
+        <v>238.31</v>
+      </c>
+      <c r="J29" s="70" cm="1">
+        <f t="array" aca="1" ref="J29" ca="1">_FV(B29,"Price")</f>
+        <v>238.31</v>
+      </c>
+      <c r="K29" s="70">
+        <f ca="1">IF(ISBLANK(J29),F29*I29,F29*J29)</f>
+        <v>-39797.769999999997</v>
+      </c>
+      <c r="L29" s="71">
+        <f ca="1">(J29-G29)*F29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="71" cm="1">
+        <f t="array" aca="1" ref="M29" ca="1">_FV(B29,"52 week high",TRUE)</f>
+        <v>269.55500000000001</v>
+      </c>
+      <c r="N29" s="71" cm="1">
+        <f t="array" aca="1" ref="N29" ca="1">_FV(B29,"52 week low",TRUE)</f>
+        <v>200.21</v>
+      </c>
+      <c r="O29" s="66"/>
+      <c r="P29" s="66"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="66"/>
+      <c r="S29" s="66"/>
+      <c r="T29" s="66"/>
+      <c r="U29" s="66"/>
+      <c r="V29" s="66"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+    </row>
+    <row r="30" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="72" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C30" ca="1">_FV(B30,"Ticker symbol",TRUE)</f>
         <v>WMT</v>
       </c>
-      <c r="D27" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D27" ca="1">_FV(B27,"Industry")</f>
+      <c r="D30" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D30" ca="1">_FV(B30,"Industry")</f>
         <v>Food &amp; Drug Retailing</v>
       </c>
-      <c r="E27">
+      <c r="E30" s="73"/>
+      <c r="F30" s="74">
         <v>390</v>
       </c>
-      <c r="F27" s="24">
+      <c r="G30" s="75">
         <v>101.15</v>
       </c>
-      <c r="G27" s="13">
-        <f>E27*F27</f>
+      <c r="H30" s="76">
+        <f>F30*G30</f>
         <v>39448.5</v>
       </c>
-      <c r="H27" s="22" cm="1">
-        <f t="array" aca="1" ref="H27" ca="1">_FV(B27,"Price")</f>
+      <c r="I30" s="75" cm="1">
+        <f t="array" aca="1" ref="I30" ca="1">_FV(B30,"Price")</f>
         <v>104.02</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9" cm="1">
-        <f t="array" aca="1" ref="K27" ca="1">_FV(B27,"52 week high",TRUE)</f>
+      <c r="J30" s="77" cm="1">
+        <f t="array" aca="1" ref="J30" ca="1">_FV(B30,"Price")</f>
+        <v>104.02</v>
+      </c>
+      <c r="K30" s="77">
+        <f ca="1">IF(ISBLANK(J30),F30*I30,F30*J30)</f>
+        <v>40567.799999999996</v>
+      </c>
+      <c r="L30" s="78">
+        <f ca="1">(J30-G30)*F30</f>
+        <v>1119.2999999999963</v>
+      </c>
+      <c r="M30" s="78" cm="1">
+        <f t="array" aca="1" ref="M30" ca="1">_FV(B30,"52 week high",TRUE)</f>
         <v>105.3</v>
       </c>
-      <c r="L27" s="9" cm="1">
-        <f t="array" aca="1" ref="L27" ca="1">_FV(B27,"52 week low",TRUE)</f>
+      <c r="N30" s="78" cm="1">
+        <f t="array" aca="1" ref="N30" ca="1">_FV(B30,"52 week low",TRUE)</f>
         <v>55.846600000000002</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="25" t="e" vm="18">
+    <row r="31" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="74"/>
+      <c r="B31" s="81" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="C28" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C28" ca="1">_FV(B28,"Ticker symbol",TRUE)</f>
+      <c r="C31" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C31" ca="1">_FV(B31,"Ticker symbol",TRUE)</f>
         <v>JPM</v>
       </c>
-      <c r="D28" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">_FV(B28,"Industry")</f>
+      <c r="D31" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D31" ca="1">_FV(B31,"Industry")</f>
         <v>Banking Services</v>
       </c>
-      <c r="E28">
+      <c r="E31" s="73"/>
+      <c r="F31" s="74">
         <v>143</v>
       </c>
-      <c r="F28" s="24">
+      <c r="G31" s="75">
         <v>275.8</v>
       </c>
-      <c r="G28" s="13">
-        <f>E28*F28</f>
+      <c r="H31" s="76">
+        <f>F31*G31</f>
         <v>39439.4</v>
       </c>
-      <c r="H28" s="22" cm="1">
-        <f t="array" aca="1" ref="H28" ca="1">_FV(B28,"Price")</f>
+      <c r="I31" s="75" cm="1">
+        <f t="array" aca="1" ref="I31" ca="1">_FV(B31,"Price")</f>
         <v>276.58999999999997</v>
       </c>
-      <c r="I28" s="16"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9" cm="1">
-        <f t="array" aca="1" ref="K28" ca="1">_FV(B28,"52 week high",TRUE)</f>
+      <c r="J31" s="77" cm="1">
+        <f t="array" aca="1" ref="J31" ca="1">_FV(B31,"Price")</f>
+        <v>276.58999999999997</v>
+      </c>
+      <c r="K31" s="77">
+        <f ca="1">IF(ISBLANK(J31),F31*I31,F31*J31)</f>
+        <v>39552.369999999995</v>
+      </c>
+      <c r="L31" s="78">
+        <f ca="1">(J31-G31)*F31</f>
+        <v>112.9699999999948</v>
+      </c>
+      <c r="M31" s="78" cm="1">
+        <f t="array" aca="1" ref="M31" ca="1">_FV(B31,"52 week high",TRUE)</f>
         <v>279.23340000000002</v>
       </c>
-      <c r="L28" s="9" cm="1">
-        <f t="array" aca="1" ref="L28" ca="1">_FV(B28,"52 week low",TRUE)</f>
+      <c r="N31" s="78" cm="1">
+        <f t="array" aca="1" ref="N31" ca="1">_FV(B31,"52 week low",TRUE)</f>
         <v>174.42</v>
       </c>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="74"/>
+      <c r="T31" s="74"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="74"/>
+      <c r="X31" s="74"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="74"/>
+      <c r="AA31" s="74"/>
     </row>
-    <row r="29" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="25" t="e" vm="19">
+    <row r="32" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="72" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="C29" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C29" ca="1">_FV(B29,"Ticker symbol",TRUE)</f>
+      <c r="C32" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C32" ca="1">_FV(B32,"Ticker symbol",TRUE)</f>
         <v>V</v>
       </c>
-      <c r="D29" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D29" ca="1">_FV(B29,"Industry")</f>
+      <c r="D32" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D32" ca="1">_FV(B32,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="E29">
+      <c r="E32" s="73"/>
+      <c r="F32" s="74">
         <v>113</v>
       </c>
-      <c r="F29" s="24">
+      <c r="G32" s="75">
         <v>348.02</v>
       </c>
-      <c r="G29" s="13">
-        <f>E29*F29</f>
+      <c r="H32" s="76">
+        <f>F32*G32</f>
         <v>39326.259999999995</v>
       </c>
-      <c r="H29" s="22" cm="1">
-        <f t="array" aca="1" ref="H29" ca="1">_FV(B29,"Price")</f>
+      <c r="I32" s="75" cm="1">
+        <f t="array" aca="1" ref="I32" ca="1">_FV(B32,"Price")</f>
         <v>353.77</v>
       </c>
-      <c r="I29" s="16"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9" cm="1">
-        <f t="array" aca="1" ref="K29" ca="1">_FV(B29,"52 week high",TRUE)</f>
+      <c r="J32" s="77" cm="1">
+        <f t="array" aca="1" ref="J32" ca="1">_FV(B32,"Price")</f>
+        <v>353.77</v>
+      </c>
+      <c r="K32" s="77">
+        <f ca="1">IF(ISBLANK(J32),F32*I32,F32*J32)</f>
+        <v>39976.009999999995</v>
+      </c>
+      <c r="L32" s="78">
+        <f ca="1">(J32-G32)*F32</f>
+        <v>649.75</v>
+      </c>
+      <c r="M32" s="78" cm="1">
+        <f t="array" aca="1" ref="M32" ca="1">_FV(B32,"52 week high",TRUE)</f>
         <v>356.08</v>
       </c>
-      <c r="L29" s="9" cm="1">
-        <f t="array" aca="1" ref="L29" ca="1">_FV(B29,"52 week low",TRUE)</f>
+      <c r="N32" s="78" cm="1">
+        <f t="array" aca="1" ref="N32" ca="1">_FV(B32,"52 week low",TRUE)</f>
         <v>252.7</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="25" t="e" vm="20">
+    <row r="33" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="72" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="C30" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C30" ca="1">_FV(B30,"Ticker symbol",TRUE)</f>
+      <c r="C33" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C33" ca="1">_FV(B33,"Ticker symbol",TRUE)</f>
         <v>JNJ</v>
       </c>
-      <c r="D30" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">_FV(B30,"Industry")</f>
+      <c r="D33" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D33" ca="1">_FV(B33,"Industry")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="E30">
+      <c r="E33" s="73"/>
+      <c r="F33" s="74">
         <v>258</v>
       </c>
-      <c r="F30" s="24">
+      <c r="G33" s="75">
         <v>153.12</v>
       </c>
-      <c r="G30" s="13">
-        <f>E30*F30</f>
+      <c r="H33" s="76">
+        <f>F33*G33</f>
         <v>39504.959999999999</v>
       </c>
-      <c r="H30" s="22" cm="1">
-        <f t="array" aca="1" ref="H30" ca="1">_FV(B30,"Price")</f>
+      <c r="I33" s="75" cm="1">
+        <f t="array" aca="1" ref="I33" ca="1">_FV(B33,"Price")</f>
         <v>156.1</v>
       </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9" cm="1">
-        <f t="array" aca="1" ref="K30" ca="1">_FV(B30,"52 week high",TRUE)</f>
+      <c r="J33" s="77" cm="1">
+        <f t="array" aca="1" ref="J33" ca="1">_FV(B33,"Price")</f>
+        <v>156.1</v>
+      </c>
+      <c r="K33" s="77">
+        <f ca="1">IF(ISBLANK(J33),F33*I33,F33*J33)</f>
+        <v>40273.799999999996</v>
+      </c>
+      <c r="L33" s="78">
+        <f ca="1">(J33-G33)*F33</f>
+        <v>768.83999999999742</v>
+      </c>
+      <c r="M33" s="78" cm="1">
+        <f t="array" aca="1" ref="M33" ca="1">_FV(B33,"52 week high",TRUE)</f>
         <v>168.85</v>
       </c>
-      <c r="L30" s="9" cm="1">
-        <f t="array" aca="1" ref="L30" ca="1">_FV(B30,"52 week low",TRUE)</f>
+      <c r="N33" s="78" cm="1">
+        <f t="array" aca="1" ref="N33" ca="1">_FV(B33,"52 week low",TRUE)</f>
         <v>140.68</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="25" t="e" vm="21">
+    <row r="34" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="91" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="C31" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C31" ca="1">_FV(B31,"Ticker symbol",TRUE)</f>
+      <c r="C34" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C34" ca="1">_FV(B34,"Ticker symbol",TRUE)</f>
         <v>KO</v>
       </c>
-      <c r="D31" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">_FV(B31,"Industry")</f>
+      <c r="D34" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D34" ca="1">_FV(B34,"Industry")</f>
         <v>Beverages</v>
       </c>
-      <c r="E31">
+      <c r="E34" s="73"/>
+      <c r="F34" s="74">
         <v>618</v>
       </c>
-      <c r="F31" s="24">
+      <c r="G34" s="75">
         <v>63.84</v>
       </c>
-      <c r="G31" s="13">
-        <f>E31*F31</f>
+      <c r="H34" s="76">
+        <f>F34*G34</f>
         <v>39453.120000000003</v>
       </c>
-      <c r="H31" s="22" cm="1">
-        <f t="array" aca="1" ref="H31" ca="1">_FV(B31,"Price")</f>
+      <c r="I34" s="75" cm="1">
+        <f t="array" aca="1" ref="I34" ca="1">_FV(B34,"Price")</f>
         <v>68.87</v>
       </c>
-      <c r="I31" s="16"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9" cm="1">
-        <f t="array" aca="1" ref="K31" ca="1">_FV(B31,"52 week high",TRUE)</f>
+      <c r="J34" s="77" cm="1">
+        <f t="array" aca="1" ref="J34" ca="1">_FV(B34,"Price")</f>
+        <v>68.87</v>
+      </c>
+      <c r="K34" s="77">
+        <f ca="1">IF(ISBLANK(J34),F34*I34,F34*J34)</f>
+        <v>42561.66</v>
+      </c>
+      <c r="L34" s="78">
+        <f ca="1">(J34-G34)*F34</f>
+        <v>3108.5400000000009</v>
+      </c>
+      <c r="M34" s="78" cm="1">
+        <f t="array" aca="1" ref="M34" ca="1">_FV(B34,"52 week high",TRUE)</f>
         <v>73.53</v>
       </c>
-      <c r="L31" s="9" cm="1">
-        <f t="array" aca="1" ref="L31" ca="1">_FV(B31,"52 week low",TRUE)</f>
+      <c r="N34" s="78" cm="1">
+        <f t="array" aca="1" ref="N34" ca="1">_FV(B34,"52 week low",TRUE)</f>
         <v>57.93</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25" t="e" vm="22">
+    <row r="35" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="74"/>
+      <c r="B35" s="81" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="C32" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C32" ca="1">_FV(B32,"Ticker symbol",TRUE)</f>
+      <c r="C35" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C35" ca="1">_FV(B35,"Ticker symbol",TRUE)</f>
         <v>CSCO</v>
       </c>
-      <c r="D32" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">_FV(B32,"Industry")</f>
+      <c r="D35" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D35" ca="1">_FV(B35,"Industry")</f>
         <v>Communications &amp; Networking</v>
       </c>
-      <c r="E32">
+      <c r="E35" s="73"/>
+      <c r="F35" s="74">
         <v>634</v>
       </c>
-      <c r="F32" s="24">
+      <c r="G35" s="75">
         <v>62.27</v>
       </c>
-      <c r="G32" s="13">
-        <f>E32*F32</f>
+      <c r="H35" s="76">
+        <f>F35*G35</f>
         <v>39479.18</v>
       </c>
-      <c r="H32" s="22" cm="1">
-        <f t="array" aca="1" ref="H32" ca="1">_FV(B32,"Price")</f>
+      <c r="I35" s="75" cm="1">
+        <f t="array" aca="1" ref="I35" ca="1">_FV(B35,"Price")</f>
         <v>64.87</v>
       </c>
-      <c r="I32" s="16"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9" cm="1">
-        <f t="array" aca="1" ref="K32" ca="1">_FV(B32,"52 week high",TRUE)</f>
+      <c r="J35" s="77" cm="1">
+        <f t="array" aca="1" ref="J35" ca="1">_FV(B35,"Price")</f>
+        <v>64.87</v>
+      </c>
+      <c r="K35" s="77">
+        <f ca="1">IF(ISBLANK(J35),F35*I35,F35*J35)</f>
+        <v>41127.58</v>
+      </c>
+      <c r="L35" s="78">
+        <f ca="1">(J35-G35)*F35</f>
+        <v>1648.400000000001</v>
+      </c>
+      <c r="M35" s="78" cm="1">
+        <f t="array" aca="1" ref="M35" ca="1">_FV(B35,"52 week high",TRUE)</f>
         <v>66.5</v>
       </c>
-      <c r="L32" s="9" cm="1">
-        <f t="array" aca="1" ref="L32" ca="1">_FV(B32,"52 week low",TRUE)</f>
+      <c r="N35" s="78" cm="1">
+        <f t="array" aca="1" ref="N35" ca="1">_FV(B35,"52 week low",TRUE)</f>
         <v>44.5</v>
       </c>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="74"/>
+      <c r="T35" s="74"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="74"/>
+      <c r="X35" s="74"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="74"/>
+      <c r="AA35" s="74"/>
     </row>
-    <row r="33" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="25" t="e" vm="1">
+    <row r="36" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="72" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C33" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C33" ca="1">_FV(B33,"Ticker symbol",TRUE)</f>
+      <c r="C36" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C36" ca="1">_FV(B36,"Ticker symbol",TRUE)</f>
         <v>IBM</v>
       </c>
-      <c r="D33" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D33" ca="1">_FV(B33,"Industry")</f>
+      <c r="D36" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D36" ca="1">_FV(B36,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="E33">
+      <c r="E36" s="73"/>
+      <c r="F36" s="74">
         <v>156</v>
       </c>
-      <c r="F33" s="24">
+      <c r="G36" s="75">
         <v>252.34</v>
       </c>
-      <c r="G33" s="13">
-        <f>E33*F33</f>
+      <c r="H36" s="76">
+        <f>F36*G36</f>
         <v>39365.040000000001</v>
       </c>
-      <c r="H33" s="22" cm="1">
-        <f t="array" aca="1" ref="H33" ca="1">_FV(B33,"Price")</f>
+      <c r="I36" s="75" cm="1">
+        <f t="array" aca="1" ref="I36" ca="1">_FV(B36,"Price")</f>
         <v>261.20999999999998</v>
       </c>
-      <c r="I33" s="16"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9" cm="1">
-        <f t="array" aca="1" ref="K33" ca="1">_FV(B33,"52 week high",TRUE)</f>
+      <c r="J36" s="77" cm="1">
+        <f t="array" aca="1" ref="J36" ca="1">_FV(B36,"Price")</f>
+        <v>261.20999999999998</v>
+      </c>
+      <c r="K36" s="77">
+        <f ca="1">IF(ISBLANK(J36),F36*I36,F36*J36)</f>
+        <v>40748.759999999995</v>
+      </c>
+      <c r="L36" s="78">
+        <f ca="1">(J36-G36)*F36</f>
+        <v>1383.7199999999962</v>
+      </c>
+      <c r="M36" s="78" cm="1">
+        <f t="array" aca="1" ref="M36" ca="1">_FV(B36,"52 week high",TRUE)</f>
         <v>265.72000000000003</v>
       </c>
-      <c r="L33" s="9" cm="1">
-        <f t="array" aca="1" ref="L33" ca="1">_FV(B33,"52 week low",TRUE)</f>
+      <c r="N36" s="78" cm="1">
+        <f t="array" aca="1" ref="N36" ca="1">_FV(B36,"52 week low",TRUE)</f>
         <v>162.62</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="25" t="e" vm="2">
+    <row r="37" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="74"/>
+      <c r="B37" s="81" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
-      <c r="C34" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C34" ca="1">_FV(B34,"Ticker symbol",TRUE)</f>
-        <v>AXP</v>
-      </c>
-      <c r="D34" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D34" ca="1">_FV(B34,"Industry")</f>
-        <v>Banking Services</v>
-      </c>
-      <c r="E34">
-        <v>125</v>
-      </c>
-      <c r="F34" s="24">
-        <v>316.77</v>
-      </c>
-      <c r="G34" s="13">
-        <f>E34*F34</f>
-        <v>39596.25</v>
-      </c>
-      <c r="H34" s="22" cm="1">
-        <f t="array" aca="1" ref="H34" ca="1">_FV(B34,"Price")</f>
-        <v>311.04000000000002</v>
-      </c>
-      <c r="I34" s="16"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9" cm="1">
-        <f t="array" aca="1" ref="K34" ca="1">_FV(B34,"52 week high",TRUE)</f>
-        <v>326.27499999999998</v>
-      </c>
-      <c r="L34" s="9" cm="1">
-        <f t="array" aca="1" ref="L34" ca="1">_FV(B34,"52 week low",TRUE)</f>
-        <v>208.82429999999999</v>
-      </c>
+      <c r="C37" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">_FV(B37,"Ticker symbol",TRUE)</f>
+        <v>MCD</v>
+      </c>
+      <c r="D37" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">_FV(B37,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="E37" s="73"/>
+      <c r="F37" s="74">
+        <v>134</v>
+      </c>
+      <c r="G37" s="75">
+        <v>294.3</v>
+      </c>
+      <c r="H37" s="76">
+        <f>F37*G37</f>
+        <v>39436.200000000004</v>
+      </c>
+      <c r="I37" s="75" cm="1">
+        <f t="array" aca="1" ref="I37" ca="1">_FV(B37,"Price")</f>
+        <v>308.38</v>
+      </c>
+      <c r="J37" s="77" cm="1">
+        <f t="array" aca="1" ref="J37" ca="1">_FV(B37,"Price")</f>
+        <v>308.38</v>
+      </c>
+      <c r="K37" s="77">
+        <f ca="1">IF(ISBLANK(J37),F37*I37,F37*J37)</f>
+        <v>41322.92</v>
+      </c>
+      <c r="L37" s="78">
+        <f ca="1">(J37-G37)*F37</f>
+        <v>1886.719999999998</v>
+      </c>
+      <c r="M37" s="78" cm="1">
+        <f t="array" aca="1" ref="M37" ca="1">_FV(B37,"52 week high",TRUE)</f>
+        <v>317.89999999999998</v>
+      </c>
+      <c r="N37" s="78" cm="1">
+        <f t="array" aca="1" ref="N37" ca="1">_FV(B37,"52 week low",TRUE)</f>
+        <v>243.53</v>
+      </c>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="74"/>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="74"/>
     </row>
-    <row r="35" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="25" t="e" vm="23">
+    <row r="38" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="81" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
-      <c r="C35" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C35" ca="1">_FV(B35,"Ticker symbol",TRUE)</f>
+      <c r="C38" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C38" ca="1">_FV(B38,"Ticker symbol",TRUE)</f>
         <v>GS</v>
       </c>
-      <c r="D35" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D35" ca="1">_FV(B35,"Industry")</f>
+      <c r="D38" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D38" ca="1">_FV(B38,"Industry")</f>
         <v>Investment Banking &amp; Investment Services</v>
       </c>
-      <c r="E35">
+      <c r="E38" s="73"/>
+      <c r="F38" s="74">
         <v>60</v>
       </c>
-      <c r="F35" s="24">
+      <c r="G38" s="75">
         <v>655.9</v>
       </c>
-      <c r="G35" s="13">
-        <f>E35*F35</f>
+      <c r="H38" s="76">
+        <f>F38*G38</f>
         <v>39354</v>
       </c>
-      <c r="H35" s="22" cm="1">
-        <f t="array" aca="1" ref="H35" ca="1">_FV(B35,"Price")</f>
+      <c r="I38" s="75" cm="1">
+        <f t="array" aca="1" ref="I38" ca="1">_FV(B38,"Price")</f>
         <v>660.25</v>
       </c>
-      <c r="I35" s="16"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9" cm="1">
-        <f t="array" aca="1" ref="K35" ca="1">_FV(B35,"52 week high",TRUE)</f>
+      <c r="J38" s="77" cm="1">
+        <f t="array" aca="1" ref="J38" ca="1">_FV(B38,"Price")</f>
+        <v>660.25</v>
+      </c>
+      <c r="K38" s="77">
+        <f ca="1">IF(ISBLANK(J38),F38*I38,F38*J38)</f>
+        <v>39615</v>
+      </c>
+      <c r="L38" s="78">
+        <f ca="1">(J38-G38)*F38</f>
+        <v>261.00000000000136</v>
+      </c>
+      <c r="M38" s="78" cm="1">
+        <f t="array" aca="1" ref="M38" ca="1">_FV(B38,"52 week high",TRUE)</f>
         <v>663.87</v>
       </c>
-      <c r="L35" s="9" cm="1">
-        <f t="array" aca="1" ref="L35" ca="1">_FV(B35,"52 week low",TRUE)</f>
+      <c r="N38" s="78" cm="1">
+        <f t="array" aca="1" ref="N38" ca="1">_FV(B38,"52 week low",TRUE)</f>
         <v>375.77499999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="25" t="e" vm="24">
+    <row r="39" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="81" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
-      <c r="C36" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C36" ca="1">_FV(B36,"Ticker symbol",TRUE)</f>
+      <c r="C39" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C39" ca="1">_FV(B39,"Ticker symbol",TRUE)</f>
         <v>AMGN</v>
       </c>
-      <c r="D36" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D36" ca="1">_FV(B36,"Industry")</f>
+      <c r="D39" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D39" ca="1">_FV(B39,"Industry")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="E36">
+      <c r="E39" s="73"/>
+      <c r="F39" s="74">
         <v>135</v>
       </c>
-      <c r="F36" s="24">
+      <c r="G39" s="75">
         <v>293.54000000000002</v>
       </c>
-      <c r="G36" s="13">
-        <f>E36*F36</f>
+      <c r="H39" s="76">
+        <f>F39*G39</f>
         <v>39627.9</v>
       </c>
-      <c r="H36" s="22" cm="1">
-        <f t="array" aca="1" ref="H36" ca="1">_FV(B36,"Price")</f>
+      <c r="I39" s="75" cm="1">
+        <f t="array" aca="1" ref="I39" ca="1">_FV(B39,"Price")</f>
         <v>291.16000000000003</v>
       </c>
-      <c r="I36" s="16"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9" cm="1">
-        <f t="array" aca="1" ref="K36" ca="1">_FV(B36,"52 week high",TRUE)</f>
+      <c r="J39" s="77" cm="1">
+        <f t="array" aca="1" ref="J39" ca="1">_FV(B39,"Price")</f>
+        <v>291.16000000000003</v>
+      </c>
+      <c r="K39" s="77">
+        <f ca="1">IF(ISBLANK(J39),F39*I39,F39*J39)</f>
+        <v>39306.600000000006</v>
+      </c>
+      <c r="L39" s="78">
+        <f ca="1">(J39-G39)*F39</f>
+        <v>-321.29999999999939</v>
+      </c>
+      <c r="M39" s="78" cm="1">
+        <f t="array" aca="1" ref="M39" ca="1">_FV(B39,"52 week high",TRUE)</f>
         <v>346.85</v>
       </c>
-      <c r="L36" s="9" cm="1">
-        <f t="array" aca="1" ref="L36" ca="1">_FV(B36,"52 week low",TRUE)</f>
+      <c r="N39" s="78" cm="1">
+        <f t="array" aca="1" ref="N39" ca="1">_FV(B39,"52 week low",TRUE)</f>
         <v>253.3</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="25" t="e" vm="25">
+    <row r="40" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="91" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
-      <c r="C37" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C37" ca="1">_FV(B37,"Ticker symbol",TRUE)</f>
+      <c r="C40" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C40" ca="1">_FV(B40,"Ticker symbol",TRUE)</f>
         <v>MMM</v>
       </c>
-      <c r="D37" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D37" ca="1">_FV(B37,"Industry")</f>
+      <c r="D40" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D40" ca="1">_FV(B40,"Industry")</f>
         <v>Consumer Goods Conglomerates</v>
       </c>
-      <c r="E37">
+      <c r="E40" s="73"/>
+      <c r="F40" s="74">
         <v>263</v>
       </c>
-      <c r="F37" s="24">
+      <c r="G40" s="75">
         <v>149.87</v>
       </c>
-      <c r="G37" s="13">
-        <f>E37*F37</f>
+      <c r="H40" s="76">
+        <f>F40*G40</f>
         <v>39415.81</v>
       </c>
-      <c r="H37" s="22" cm="1">
-        <f t="array" aca="1" ref="H37" ca="1">_FV(B37,"Price")</f>
+      <c r="I40" s="75" cm="1">
+        <f t="array" aca="1" ref="I40" ca="1">_FV(B40,"Price")</f>
         <v>148.62</v>
       </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9" cm="1">
-        <f t="array" aca="1" ref="K37" ca="1">_FV(B37,"52 week high",TRUE)</f>
+      <c r="J40" s="77" cm="1">
+        <f t="array" aca="1" ref="J40" ca="1">_FV(B40,"Price")</f>
+        <v>148.62</v>
+      </c>
+      <c r="K40" s="77">
+        <f ca="1">IF(ISBLANK(J40),F40*I40,F40*J40)</f>
+        <v>39087.06</v>
+      </c>
+      <c r="L40" s="78">
+        <f ca="1">(J40-G40)*F40</f>
+        <v>-328.75</v>
+      </c>
+      <c r="M40" s="78" cm="1">
+        <f t="array" aca="1" ref="M40" ca="1">_FV(B40,"52 week high",TRUE)</f>
         <v>155</v>
       </c>
-      <c r="L37" s="9" cm="1">
-        <f t="array" aca="1" ref="L37" ca="1">_FV(B37,"52 week low",TRUE)</f>
+      <c r="N40" s="78" cm="1">
+        <f t="array" aca="1" ref="N40" ca="1">_FV(B40,"52 week low",TRUE)</f>
         <v>75.645099999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19" t="e" vm="26">
+    <row r="41" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="79" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
-      <c r="C38" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C38" ca="1">_FV(B38,"Ticker symbol",TRUE)</f>
+      <c r="C41" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">_FV(B41,"Ticker symbol",TRUE)</f>
         <v>BA</v>
       </c>
-      <c r="D38" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D38" ca="1">_FV(B38,"Industry")</f>
+      <c r="D41" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D41" ca="1">_FV(B41,"Industry")</f>
         <v>Aerospace &amp; Defense</v>
       </c>
-      <c r="E38">
+      <c r="F41" s="74">
         <v>218</v>
       </c>
-      <c r="F38" s="24">
+      <c r="G41" s="75">
         <v>181.49</v>
       </c>
-      <c r="G38" s="13">
-        <f>E38*F38</f>
+      <c r="H41" s="76">
+        <f>F41*G41</f>
         <v>39564.82</v>
       </c>
-      <c r="H38" s="22" cm="1">
-        <f t="array" aca="1" ref="H38" ca="1">_FV(B38,"Price")</f>
+      <c r="I41" s="75" cm="1">
+        <f t="array" aca="1" ref="I41" ca="1">_FV(B41,"Price")</f>
         <v>184.42</v>
       </c>
-      <c r="K38" s="9" cm="1">
-        <f t="array" aca="1" ref="K38" ca="1">_FV(B38,"52 week high",TRUE)</f>
+      <c r="J41" s="77" cm="1">
+        <f t="array" aca="1" ref="J41" ca="1">_FV(B41,"Price")</f>
+        <v>184.42</v>
+      </c>
+      <c r="K41" s="77">
+        <f ca="1">IF(ISBLANK(J41),F41*I41,F41*J41)</f>
+        <v>40203.56</v>
+      </c>
+      <c r="L41" s="78">
+        <f ca="1">(J41-G41)*F41</f>
+        <v>638.73999999999523</v>
+      </c>
+      <c r="M41" s="78" cm="1">
+        <f t="array" aca="1" ref="M41" ca="1">_FV(B41,"52 week high",TRUE)</f>
         <v>208.1</v>
       </c>
-      <c r="L38" s="9" cm="1">
-        <f t="array" aca="1" ref="L38" ca="1">_FV(B38,"52 week low",TRUE)</f>
+      <c r="N41" s="78" cm="1">
+        <f t="array" aca="1" ref="N41" ca="1">_FV(B41,"52 week low",TRUE)</f>
         <v>137.03</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="32" t="e" vm="27">
+    <row r="42" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="87" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="C39" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C39" ca="1">_FV(B39,"Ticker symbol",TRUE)</f>
+      <c r="C42" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">_FV(B42,"Ticker symbol",TRUE)</f>
+        <v>AAPL</v>
+      </c>
+      <c r="D42" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D42" ca="1">_FV(B42,"Industry")</f>
+        <v>Computers, Phones &amp; Household Electronics</v>
+      </c>
+      <c r="F42" s="57">
+        <v>163</v>
+      </c>
+      <c r="G42" s="88">
+        <v>244.6</v>
+      </c>
+      <c r="H42" s="76">
+        <f>F42*G42</f>
+        <v>39869.799999999996</v>
+      </c>
+      <c r="I42" s="75" cm="1">
+        <f t="array" aca="1" ref="I42" ca="1">_FV(B42,"Price")</f>
+        <v>244.6</v>
+      </c>
+      <c r="J42" s="77" cm="1">
+        <f t="array" aca="1" ref="J42" ca="1">_FV(B42,"Price")</f>
+        <v>244.6</v>
+      </c>
+      <c r="K42" s="77">
+        <f ca="1">IF(ISBLANK(J42),F42*I42,F42*J42)</f>
+        <v>39869.799999999996</v>
+      </c>
+      <c r="L42" s="78">
+        <f ca="1">(J42-G42)*F42</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="78" cm="1">
+        <f t="array" aca="1" ref="M42" ca="1">_FV(B42,"52 week high",TRUE)</f>
+        <v>260.10000000000002</v>
+      </c>
+      <c r="N42" s="78" cm="1">
+        <f t="array" aca="1" ref="N42" ca="1">_FV(B42,"52 week low",TRUE)</f>
+        <v>164.07499999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="74"/>
+      <c r="B43" s="90" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">_FV(B43,"Ticker symbol",TRUE)</f>
+        <v>CVX</v>
+      </c>
+      <c r="D43" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D43" ca="1">_FV(B43,"Industry")</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="E43" s="74"/>
+      <c r="F43" s="57">
+        <v>257</v>
+      </c>
+      <c r="G43" s="88">
+        <v>155.26499999999999</v>
+      </c>
+      <c r="H43" s="76">
+        <f>F43*G43</f>
+        <v>39903.104999999996</v>
+      </c>
+      <c r="I43" s="75" cm="1">
+        <f t="array" aca="1" ref="I43" ca="1">_FV(B43,"Price")</f>
+        <v>155.26499999999999</v>
+      </c>
+      <c r="J43" s="77" cm="1">
+        <f t="array" aca="1" ref="J43" ca="1">_FV(B43,"Price")</f>
+        <v>155.26499999999999</v>
+      </c>
+      <c r="K43" s="77">
+        <f ca="1">IF(ISBLANK(J43),F43*I43,F43*J43)</f>
+        <v>39903.104999999996</v>
+      </c>
+      <c r="L43" s="78">
+        <f ca="1">(J43-G43)*F43</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="78" cm="1">
+        <f t="array" aca="1" ref="M43" ca="1">_FV(B43,"52 week high",TRUE)</f>
+        <v>167.11</v>
+      </c>
+      <c r="N43" s="78" cm="1">
+        <f t="array" aca="1" ref="N43" ca="1">_FV(B43,"52 week low",TRUE)</f>
+        <v>135.3672</v>
+      </c>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="74"/>
+      <c r="T43" s="74"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="74"/>
+      <c r="W43" s="74"/>
+      <c r="X43" s="74"/>
+      <c r="Y43" s="74"/>
+      <c r="Z43" s="74"/>
+      <c r="AA43" s="74"/>
+    </row>
+    <row r="44" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="74"/>
+      <c r="B44" s="87" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C44" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C44" ca="1">_FV(B44,"Ticker symbol",TRUE)</f>
         <v>VZ</v>
       </c>
-      <c r="D39" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D39" ca="1">_FV(B39,"Industry")</f>
+      <c r="D44" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D44" ca="1">_FV(B44,"Industry")</f>
         <v>Telecommunications Services</v>
       </c>
-      <c r="E39">
-        <v>-975</v>
-      </c>
-      <c r="F39" s="24">
+      <c r="E44" s="74"/>
+      <c r="F44" s="57">
+        <v>975</v>
+      </c>
+      <c r="G44" s="88">
         <v>40.99</v>
       </c>
-      <c r="G39" s="13">
-        <f>E39*F39</f>
-        <v>-39965.25</v>
-      </c>
-      <c r="H39" s="22" cm="1">
-        <f t="array" aca="1" ref="H39" ca="1">_FV(B39,"Price")</f>
+      <c r="H44" s="76">
+        <f>F44*G44</f>
+        <v>39965.25</v>
+      </c>
+      <c r="I44" s="75" cm="1">
+        <f t="array" aca="1" ref="I44" ca="1">_FV(B44,"Price")</f>
         <v>40.99</v>
       </c>
-      <c r="K39" s="9" cm="1">
-        <f t="array" aca="1" ref="K39" ca="1">_FV(B39,"52 week high",TRUE)</f>
+      <c r="J44" s="77" cm="1">
+        <f t="array" aca="1" ref="J44" ca="1">_FV(B44,"Price")</f>
+        <v>40.99</v>
+      </c>
+      <c r="K44" s="77">
+        <f ca="1">IF(ISBLANK(J44),F44*I44,F44*J44)</f>
+        <v>39965.25</v>
+      </c>
+      <c r="L44" s="78">
+        <f ca="1">(J44-G44)*F44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="78" cm="1">
+        <f t="array" aca="1" ref="M44" ca="1">_FV(B44,"52 week high",TRUE)</f>
         <v>45.36</v>
       </c>
-      <c r="L39" s="9" cm="1">
-        <f t="array" aca="1" ref="L39" ca="1">_FV(B39,"52 week low",TRUE)</f>
+      <c r="N44" s="78" cm="1">
+        <f t="array" aca="1" ref="N44" ca="1">_FV(B44,"52 week low",TRUE)</f>
         <v>37.585000000000001</v>
       </c>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="74"/>
+      <c r="T44" s="74"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="74"/>
+      <c r="X44" s="74"/>
+      <c r="Y44" s="74"/>
+      <c r="Z44" s="74"/>
+      <c r="AA44" s="74"/>
     </row>
-    <row r="40" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="32" t="e" vm="28">
+    <row r="45" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="74"/>
+      <c r="B45" s="87" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
-      <c r="C40" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="C40" ca="1">_FV(B40,"Ticker symbol",TRUE)</f>
+      <c r="C45" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="C45" ca="1">_FV(B45,"Ticker symbol",TRUE)</f>
         <v>NVDA</v>
       </c>
-      <c r="D40" s="8" t="str" cm="1">
-        <f t="array" aca="1" ref="D40" ca="1">_FV(B40,"Industry")</f>
+      <c r="D45" s="73" t="str" cm="1">
+        <f t="array" aca="1" ref="D45" ca="1">_FV(B45,"Industry")</f>
         <v>Semiconductors &amp; Semiconductor Equipment</v>
       </c>
-      <c r="E40">
+      <c r="E45" s="74"/>
+      <c r="F45" s="57">
         <v>288</v>
       </c>
-      <c r="F40" s="24">
+      <c r="G45" s="88">
         <v>138.85</v>
       </c>
-      <c r="G40" s="13">
-        <f>E40*F40</f>
+      <c r="H45" s="76">
+        <f>F45*G45</f>
         <v>39988.799999999996</v>
       </c>
-      <c r="H40" s="22" cm="1">
-        <f t="array" aca="1" ref="H40" ca="1">_FV(B40,"Price")</f>
+      <c r="I45" s="75" cm="1">
+        <f t="array" aca="1" ref="I45" ca="1">_FV(B45,"Price")</f>
         <v>138.85</v>
       </c>
-      <c r="K40" s="9" cm="1">
-        <f t="array" aca="1" ref="K40" ca="1">_FV(B40,"52 week high",TRUE)</f>
+      <c r="J45" s="77" cm="1">
+        <f t="array" aca="1" ref="J45" ca="1">_FV(B45,"Price")</f>
+        <v>138.85</v>
+      </c>
+      <c r="K45" s="77">
+        <f ca="1">IF(ISBLANK(J45),F45*I45,F45*J45)</f>
+        <v>39988.799999999996</v>
+      </c>
+      <c r="L45" s="78">
+        <f ca="1">(J45-G45)*F45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="78" cm="1">
+        <f t="array" aca="1" ref="M45" ca="1">_FV(B45,"52 week high",TRUE)</f>
         <v>153.13</v>
       </c>
-      <c r="L40" s="9" cm="1">
-        <f t="array" aca="1" ref="L40" ca="1">_FV(B40,"52 week low",TRUE)</f>
+      <c r="N45" s="78" cm="1">
+        <f t="array" aca="1" ref="N45" ca="1">_FV(B45,"52 week low",TRUE)</f>
         <v>66.248000000000005</v>
       </c>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="74"/>
+      <c r="T45" s="74"/>
+      <c r="U45" s="74"/>
+      <c r="V45" s="74"/>
+      <c r="W45" s="74"/>
+      <c r="X45" s="74"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="74"/>
+      <c r="AA45" s="74"/>
     </row>
-    <row r="41" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="19"/>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E45" s="15"/>
-    </row>
-    <row r="46" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5922,1893 +6890,1860 @@
     <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B6:L6"/>
+  <autoFilter ref="A7:AA38" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:AA45">
+      <sortCondition sortBy="cellColor" ref="H7:H38" dxfId="0"/>
+    </sortState>
+  </autoFilter>
+  <mergeCells count="2">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B6:N6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B1:L998"/>
+  <dimension ref="A1:L996"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="39.5546875" customWidth="1"/>
-    <col min="5" max="5" width="8.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="27" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.5546875" customWidth="1"/>
-    <col min="9" max="11" width="25.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.44140625" customWidth="1"/>
-    <col min="13" max="26" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" customWidth="1"/>
+    <col min="8" max="10" width="25.109375" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="25" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>13</v>
+      <c r="L2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="11" t="str">
-        <f>VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>U.S. Treasury</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="17">
         <v>1000</v>
       </c>
-      <c r="H3" s="29">
+      <c r="G3" s="22">
         <v>1000</v>
       </c>
-      <c r="I3" s="12">
-        <f>Transactions!$H3*Transactions!$G3</f>
+      <c r="H3" s="10">
+        <f>Transactions!$G3*Transactions!$F3</f>
         <v>1000000</v>
       </c>
-      <c r="J3" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>2000</v>
-      </c>
-      <c r="K3" s="12">
+      <c r="I3" s="10">
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>998000</v>
-      </c>
-      <c r="L3" s="1" t="s">
+        <v>1000000</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="D4" s="1" t="e" vm="1">
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f t="array" aca="1" ref="E4" ca="1">_FV(Transactions!$D4,"Ticker symbol",TRUE)</f>
+      <c r="D4" s="1" t="str">
+        <f t="array" aca="1" ref="D4" ca="1">_FV(Transactions!$C4,"Ticker symbol",TRUE)</f>
         <v>IBM</v>
       </c>
-      <c r="F4" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="E4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="17">
         <v>782</v>
       </c>
-      <c r="H4" s="29">
+      <c r="G4" s="22">
         <v>255.7</v>
       </c>
-      <c r="I4" s="12">
-        <f>Transactions!$H4*Transactions!$G4</f>
+      <c r="H4" s="10">
+        <f>Transactions!$G4*Transactions!$F4</f>
         <v>199957.4</v>
       </c>
-      <c r="J4" s="26">
+      <c r="I4" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>399.91480000000001</v>
       </c>
-      <c r="K4" s="12">
+      <c r="J4" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>199557.4852</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Banking Services</v>
-      </c>
-      <c r="D5" s="1" t="e" vm="2">
+      <c r="B5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f t="array" aca="1" ref="E5" ca="1">_FV(Transactions!$D5,"Ticker symbol",TRUE)</f>
+      <c r="D5" s="1" t="str">
+        <f t="array" aca="1" ref="D5" ca="1">_FV(Transactions!$C5,"Ticker symbol",TRUE)</f>
         <v>AXP</v>
       </c>
-      <c r="F5" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="E5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="17">
         <v>315</v>
       </c>
-      <c r="H5" s="29">
+      <c r="G5" s="22">
         <v>317.45</v>
       </c>
-      <c r="I5" s="12">
-        <f>Transactions!$H5*Transactions!$G5</f>
+      <c r="H5" s="10">
+        <f>Transactions!$G5*Transactions!$F5</f>
         <v>99996.75</v>
       </c>
-      <c r="J5" s="26">
+      <c r="I5" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>199.99350000000001</v>
       </c>
-      <c r="K5" s="12">
+      <c r="J5" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>99796.756500000003</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Media &amp; Publishing</v>
-      </c>
-      <c r="D6" s="1" t="e" vm="3">
+      <c r="B6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="E6" s="1" t="str">
-        <f t="array" aca="1" ref="E6" ca="1">_FV(Transactions!$D6,"Ticker symbol",TRUE)</f>
+      <c r="D6" s="1" t="str">
+        <f t="array" aca="1" ref="D6" ca="1">_FV(Transactions!$C6,"Ticker symbol",TRUE)</f>
         <v>DIS</v>
       </c>
-      <c r="F6" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G6" s="20">
+      <c r="E6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="17">
         <v>1769</v>
       </c>
-      <c r="H6" s="29">
+      <c r="G6" s="22">
         <v>113.06</v>
       </c>
-      <c r="I6" s="12">
-        <f>Transactions!$H6*Transactions!$G6</f>
+      <c r="H6" s="10">
+        <f>Transactions!$G6*Transactions!$F6</f>
         <v>200003.14</v>
       </c>
-      <c r="J6" s="26">
+      <c r="I6" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>400.00628000000006</v>
       </c>
-      <c r="K6" s="12">
+      <c r="J6" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>199603.13372000001</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D7" s="1" t="str">
+        <f t="array" aca="1" ref="D7" ca="1">_FV(Transactions!$C7,"Ticker symbol",TRUE)</f>
+        <v>MSFT</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="D7" s="1" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="array" aca="1" ref="E7" ca="1">_FV(Transactions!$D7,"Ticker symbol",TRUE)</f>
-        <v>MSFT</v>
-      </c>
-      <c r="F7" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G7" s="20">
+      <c r="F7" s="17">
         <v>-241</v>
       </c>
-      <c r="H7" s="29">
+      <c r="G7" s="22">
         <v>415.06</v>
       </c>
-      <c r="I7" s="12">
-        <f>Transactions!$H7*Transactions!$G7</f>
+      <c r="H7" s="10">
+        <f>Transactions!$G7*Transactions!$F7</f>
         <v>-100029.46</v>
       </c>
-      <c r="J7" s="26">
+      <c r="I7" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>200.05892000000003</v>
       </c>
-      <c r="K7" s="12">
+      <c r="J7" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-100229.51892</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D8" s="1" t="str">
+        <f t="array" aca="1" ref="D8" ca="1">_FV(Transactions!$C8,"Ticker symbol",TRUE)</f>
+        <v>CVX</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Oil &amp; Gas</v>
-      </c>
-      <c r="D8" s="1" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="array" aca="1" ref="E8" ca="1">_FV(Transactions!$D8,"Ticker symbol",TRUE)</f>
-        <v>CVX</v>
-      </c>
-      <c r="F8" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G8" s="20">
+      <c r="F8" s="17">
         <v>-2681</v>
       </c>
-      <c r="H8" s="29">
+      <c r="G8" s="22">
         <v>149.19</v>
       </c>
-      <c r="I8" s="12">
-        <f>Transactions!$H8*Transactions!$G8</f>
+      <c r="H8" s="10">
+        <f>Transactions!$G8*Transactions!$F8</f>
         <v>-399978.39</v>
       </c>
-      <c r="J8" s="26">
+      <c r="I8" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>799.95678000000009</v>
       </c>
-      <c r="K8" s="12">
+      <c r="J8" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-400778.34678000002</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C9" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="D9" s="1" t="e" vm="1">
+      <c r="B9" s="9">
+        <v>45840</v>
+      </c>
+      <c r="C9" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="E9" s="1" t="str">
-        <f t="array" aca="1" ref="E9" ca="1">_FV(Transactions!$D9,"Ticker symbol",TRUE)</f>
+      <c r="D9" s="1" t="str">
+        <f t="array" aca="1" ref="D9" ca="1">_FV(Transactions!$C9,"Ticker symbol",TRUE)</f>
         <v>IBM</v>
       </c>
-      <c r="F9" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G9" s="20">
+      <c r="E9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="17">
         <v>-782</v>
       </c>
-      <c r="H9" s="29">
+      <c r="G9" s="22">
         <v>252.34</v>
       </c>
-      <c r="I9" s="12">
-        <f>Transactions!$H9*Transactions!$G9</f>
+      <c r="H9" s="10">
+        <f>Transactions!$G9*Transactions!$F9</f>
         <v>-197329.88</v>
       </c>
-      <c r="J9" s="26">
+      <c r="I9" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>394.65976000000001</v>
       </c>
-      <c r="K9" s="12">
+      <c r="J9" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-197724.53976000001</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C10" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Banking Services</v>
-      </c>
-      <c r="D10" s="1" t="e" vm="2">
+      <c r="B10" s="9">
+        <v>45840</v>
+      </c>
+      <c r="C10" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="E10" s="1" t="str">
-        <f t="array" aca="1" ref="E10" ca="1">_FV(Transactions!$D10,"Ticker symbol",TRUE)</f>
+      <c r="D10" s="1" t="str">
+        <f t="array" aca="1" ref="D10" ca="1">_FV(Transactions!$C10,"Ticker symbol",TRUE)</f>
         <v>AXP</v>
       </c>
-      <c r="F10" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G10" s="20">
+      <c r="E10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="17">
         <v>315</v>
       </c>
-      <c r="H10" s="29">
+      <c r="G10" s="22">
         <v>316.77</v>
       </c>
-      <c r="I10" s="12">
-        <f>Transactions!$H10*Transactions!$G10</f>
+      <c r="H10" s="10">
+        <f>Transactions!$G10*Transactions!$F10</f>
         <v>99782.549999999988</v>
       </c>
-      <c r="J10" s="26">
+      <c r="I10" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>199.56509999999997</v>
       </c>
-      <c r="K10" s="12">
+      <c r="J10" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>99582.984899999981</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C11" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Media &amp; Publishing</v>
-      </c>
-      <c r="D11" s="1" t="e" vm="3">
+      <c r="B11" s="9">
+        <v>45840</v>
+      </c>
+      <c r="C11" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="E11" s="1" t="str">
-        <f t="array" aca="1" ref="E11" ca="1">_FV(Transactions!$D11,"Ticker symbol",TRUE)</f>
+      <c r="D11" s="1" t="str">
+        <f t="array" aca="1" ref="D11" ca="1">_FV(Transactions!$C11,"Ticker symbol",TRUE)</f>
         <v>DIS</v>
       </c>
-      <c r="F11" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G11" s="20">
+      <c r="E11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="17">
         <v>1769</v>
       </c>
-      <c r="H11" s="29">
+      <c r="G11" s="22">
         <v>110.86</v>
       </c>
-      <c r="I11" s="12">
-        <f>Transactions!$H11*Transactions!$G11</f>
+      <c r="H11" s="10">
+        <f>Transactions!$G11*Transactions!$F11</f>
         <v>196111.34</v>
       </c>
-      <c r="J11" s="26">
+      <c r="I11" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>392.22268000000003</v>
       </c>
-      <c r="K11" s="12">
+      <c r="J11" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>195719.11731999999</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="K11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C12" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="D12" s="1" t="e" vm="4">
+      <c r="B12" s="9">
+        <v>45840</v>
+      </c>
+      <c r="C12" s="1" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="E12" s="1" t="str">
-        <f t="array" aca="1" ref="E12" ca="1">_FV(Transactions!$D12,"Ticker symbol",TRUE)</f>
+      <c r="D12" s="1" t="str">
+        <f t="array" aca="1" ref="D12" ca="1">_FV(Transactions!$C12,"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="F12" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G12" s="20">
+      <c r="E12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="17">
         <v>-241</v>
       </c>
-      <c r="H12" s="29">
+      <c r="G12" s="22">
         <v>409.75</v>
       </c>
-      <c r="I12" s="12">
-        <f>Transactions!$H12*Transactions!$G12</f>
+      <c r="H12" s="10">
+        <f>Transactions!$G12*Transactions!$F12</f>
         <v>-98749.75</v>
       </c>
-      <c r="J12" s="26">
+      <c r="I12" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>197.49950000000001</v>
       </c>
-      <c r="K12" s="12">
+      <c r="J12" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-98947.249500000005</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C13" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Oil &amp; Gas</v>
-      </c>
-      <c r="D13" s="1" t="e" vm="5">
+      <c r="B13" s="9">
+        <v>45840</v>
+      </c>
+      <c r="C13" s="1" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="E13" s="1" t="str">
-        <f t="array" aca="1" ref="E13" ca="1">_FV(Transactions!$D13,"Ticker symbol",TRUE)</f>
+      <c r="D13" s="1" t="str">
+        <f t="array" aca="1" ref="D13" ca="1">_FV(Transactions!$C13,"Ticker symbol",TRUE)</f>
         <v>CVX</v>
       </c>
-      <c r="F13" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G13" s="20">
+      <c r="E13" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="17">
         <v>-2681</v>
       </c>
-      <c r="H13" s="29">
+      <c r="G13" s="22">
         <v>152.62</v>
       </c>
-      <c r="I13" s="12">
-        <f>Transactions!$H13*Transactions!$G13</f>
+      <c r="H13" s="10">
+        <f>Transactions!$G13*Transactions!$F13</f>
         <v>-409174.22000000003</v>
       </c>
-      <c r="J13" s="26">
+      <c r="I13" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>818.3484400000001</v>
       </c>
-      <c r="K13" s="12">
+      <c r="J13" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-409992.56844</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C14" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Computers, Phones &amp; Household Electronics</v>
-      </c>
-      <c r="D14" s="25" t="e" vm="6">
+    <row r="14" spans="2:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C14" s="32" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="E14" s="1" t="str">
-        <f t="array" aca="1" ref="E14" ca="1">_FV(Transactions!$D14,"Ticker symbol",TRUE)</f>
+      <c r="D14" s="33" t="str">
+        <f t="array" aca="1" ref="D14" ca="1">_FV(Transactions!$C14,"Ticker symbol",TRUE)</f>
         <v>AAPL</v>
       </c>
-      <c r="F14" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G14">
+      <c r="E14" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="33">
         <v>-173</v>
       </c>
-      <c r="H14" s="28">
+      <c r="G14" s="35">
         <v>227.63</v>
       </c>
-      <c r="I14" s="12">
-        <f>Transactions!$H14*Transactions!$G14</f>
+      <c r="H14" s="36">
+        <f>Transactions!$G14*Transactions!$F14</f>
         <v>-39379.99</v>
       </c>
-      <c r="J14" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>78.759979999999999</v>
-      </c>
-      <c r="K14" s="12">
+      <c r="I14" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-78.759979999999999</v>
+      </c>
+      <c r="J14" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-39458.749980000001</v>
-      </c>
-      <c r="L14" s="1" t="s">
+        <v>-39301.230019999995</v>
+      </c>
+      <c r="K14" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C15" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="D15" s="25" t="e" vm="4">
+    <row r="15" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C15" s="26" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="E15" s="1" t="str">
-        <f t="array" aca="1" ref="E15" ca="1">_FV(Transactions!$D15,"Ticker symbol",TRUE)</f>
+      <c r="D15" s="27" t="str">
+        <f t="array" aca="1" ref="D15" ca="1">_FV(Transactions!$C15,"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="F15" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G15">
+      <c r="E15" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="27">
         <v>-96</v>
       </c>
-      <c r="H15" s="28">
+      <c r="G15" s="29">
         <v>409.75</v>
       </c>
-      <c r="I15" s="12">
-        <f>Transactions!$H15*Transactions!$G15</f>
+      <c r="H15" s="30">
+        <f>Transactions!$G15*Transactions!$F15</f>
         <v>-39336</v>
       </c>
-      <c r="J15" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>78.671999999999997</v>
-      </c>
-      <c r="K15" s="12">
+      <c r="I15" s="30">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-78.671999999999997</v>
+      </c>
+      <c r="J15" s="30">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-39414.671999999999</v>
-      </c>
-      <c r="L15" s="1" t="s">
+        <v>-39257.328000000001</v>
+      </c>
+      <c r="K15" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C16" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Healthcare Providers &amp; Services</v>
-      </c>
-      <c r="D16" s="25" t="e" vm="11">
+    <row r="16" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C16" s="26" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="E16" s="1" t="str">
-        <f t="array" aca="1" ref="E16" ca="1">_FV(Transactions!$D16,"Ticker symbol",TRUE)</f>
+      <c r="D16" s="27" t="str">
+        <f t="array" aca="1" ref="D16" ca="1">_FV(Transactions!$C16,"Ticker symbol",TRUE)</f>
         <v>UNH</v>
       </c>
-      <c r="F16" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G16">
+      <c r="E16" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="27">
         <v>-75</v>
       </c>
-      <c r="H16" s="28">
+      <c r="G16" s="29">
         <v>527.03</v>
       </c>
-      <c r="I16" s="12">
-        <f>Transactions!$H16*Transactions!$G16</f>
+      <c r="H16" s="30">
+        <f>Transactions!$G16*Transactions!$F16</f>
         <v>-39527.25</v>
       </c>
-      <c r="J16" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>79.054500000000004</v>
-      </c>
-      <c r="K16" s="12">
+      <c r="I16" s="30">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-79.054500000000004</v>
+      </c>
+      <c r="J16" s="30">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-39606.304499999998</v>
-      </c>
-      <c r="L16" s="1" t="s">
+        <v>-39448.195500000002</v>
+      </c>
+      <c r="K16" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C17" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="D17" s="25" t="e" vm="12">
+    <row r="17" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C17" s="26" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="E17" s="1" t="str">
-        <f t="array" aca="1" ref="E17" ca="1">_FV(Transactions!$D17,"Ticker symbol",TRUE)</f>
+      <c r="D17" s="27" t="str">
+        <f t="array" aca="1" ref="D17" ca="1">_FV(Transactions!$C17,"Ticker symbol",TRUE)</f>
         <v>CRM</v>
       </c>
-      <c r="F17" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G17">
+      <c r="E17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="27">
         <v>-121</v>
       </c>
-      <c r="H17" s="28">
+      <c r="G17" s="29">
         <v>325.83</v>
       </c>
-      <c r="I17" s="12">
-        <f>Transactions!$H17*Transactions!$G17</f>
+      <c r="H17" s="30">
+        <f>Transactions!$G17*Transactions!$F17</f>
         <v>-39425.43</v>
       </c>
-      <c r="J17" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>78.850859999999997</v>
-      </c>
-      <c r="K17" s="12">
+      <c r="I17" s="30">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-78.850859999999997</v>
+      </c>
+      <c r="J17" s="30">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-39504.280859999999</v>
-      </c>
-      <c r="L17" s="1" t="s">
+        <v>-39346.579140000002</v>
+      </c>
+      <c r="K17" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C18" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Oil &amp; Gas</v>
-      </c>
-      <c r="D18" s="25" t="e" vm="5">
+    <row r="18" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C18" s="32" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="E18" s="1" t="str">
-        <f t="array" aca="1" ref="E18" ca="1">_FV(Transactions!$D18,"Ticker symbol",TRUE)</f>
+      <c r="D18" s="33" t="str">
+        <f t="array" aca="1" ref="D18" ca="1">_FV(Transactions!$C18,"Ticker symbol",TRUE)</f>
         <v>CVX</v>
       </c>
-      <c r="F18" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G18">
+      <c r="E18" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="33">
         <v>-259</v>
       </c>
-      <c r="H18" s="28">
+      <c r="G18" s="35">
         <v>152.62</v>
       </c>
-      <c r="I18" s="12">
-        <f>Transactions!$H18*Transactions!$G18</f>
+      <c r="H18" s="36">
+        <f>Transactions!$G18*Transactions!$F18</f>
         <v>-39528.58</v>
       </c>
-      <c r="J18" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>79.05716000000001</v>
-      </c>
-      <c r="K18" s="12">
+      <c r="I18" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-79.05716000000001</v>
+      </c>
+      <c r="J18" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-39607.637159999998</v>
-      </c>
-      <c r="L18" s="1" t="s">
+        <v>-39449.522840000005</v>
+      </c>
+      <c r="K18" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C19" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Pharmaceuticals</v>
-      </c>
-      <c r="D19" s="25" t="e" vm="13">
+    <row r="19" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C19" s="26" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="E19" s="1" t="str">
-        <f t="array" aca="1" ref="E19" ca="1">_FV(Transactions!$D19,"Ticker symbol",TRUE)</f>
+      <c r="D19" s="27" t="str">
+        <f t="array" aca="1" ref="D19" ca="1">_FV(Transactions!$C19,"Ticker symbol",TRUE)</f>
         <v>MRK</v>
       </c>
-      <c r="F19" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G19">
+      <c r="E19" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="27">
         <v>-452</v>
       </c>
-      <c r="H19" s="28">
+      <c r="G19" s="29">
         <v>87.28</v>
       </c>
-      <c r="I19" s="12">
-        <f>Transactions!$H19*Transactions!$G19</f>
+      <c r="H19" s="30">
+        <f>Transactions!$G19*Transactions!$F19</f>
         <v>-39450.559999999998</v>
       </c>
-      <c r="J19" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>78.901119999999992</v>
-      </c>
-      <c r="K19" s="12">
+      <c r="I19" s="30">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-78.901119999999992</v>
+      </c>
+      <c r="J19" s="30">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-39529.46112</v>
-      </c>
-      <c r="L19" s="1" t="s">
+        <v>-39371.658879999995</v>
+      </c>
+      <c r="K19" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C20" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Machinery, Equipment &amp; Components</v>
-      </c>
-      <c r="D20" s="25" t="e" vm="14">
+    <row r="20" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C20" s="26" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="E20" s="1" t="str">
-        <f t="array" aca="1" ref="E20" ca="1">_FV(Transactions!$D20,"Ticker symbol",TRUE)</f>
+      <c r="D20" s="27" t="str">
+        <f t="array" aca="1" ref="D20" ca="1">_FV(Transactions!$C20,"Ticker symbol",TRUE)</f>
         <v>CAT</v>
       </c>
-      <c r="F20" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G20">
+      <c r="E20" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="27">
         <v>-109</v>
       </c>
-      <c r="H20" s="28">
+      <c r="G20" s="29">
         <v>363.88</v>
       </c>
-      <c r="I20" s="12">
-        <f>Transactions!$H20*Transactions!$G20</f>
+      <c r="H20" s="30">
+        <f>Transactions!$G20*Transactions!$F20</f>
         <v>-39662.92</v>
       </c>
-      <c r="J20" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>79.325839999999999</v>
-      </c>
-      <c r="K20" s="12">
+      <c r="I20" s="30">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-79.325839999999999</v>
+      </c>
+      <c r="J20" s="30">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-39742.245839999996</v>
-      </c>
-      <c r="L20" s="1" t="s">
+        <v>-39583.594160000001</v>
+      </c>
+      <c r="K20" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C21" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Consumer Goods Conglomerates</v>
-      </c>
-      <c r="D21" s="25" t="e" vm="15">
+    <row r="21" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C21" s="26" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="E21" s="1" t="str">
-        <f t="array" aca="1" ref="E21" ca="1">_FV(Transactions!$D21,"Ticker symbol",TRUE)</f>
+      <c r="D21" s="27" t="str">
+        <f t="array" aca="1" ref="D21" ca="1">_FV(Transactions!$C21,"Ticker symbol",TRUE)</f>
         <v>HON</v>
       </c>
-      <c r="F21" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G21">
+      <c r="E21" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="27">
         <v>-192</v>
       </c>
-      <c r="H21" s="28">
+      <c r="G21" s="29">
         <v>205.52</v>
       </c>
-      <c r="I21" s="12">
-        <f>Transactions!$H21*Transactions!$G21</f>
+      <c r="H21" s="30">
+        <f>Transactions!$G21*Transactions!$F21</f>
         <v>-39459.840000000004</v>
       </c>
-      <c r="J21" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>78.919680000000014</v>
-      </c>
-      <c r="K21" s="12">
+      <c r="I21" s="30">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-78.919680000000014</v>
+      </c>
+      <c r="J21" s="30">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-39538.759680000003</v>
-      </c>
-      <c r="L21" s="1" t="s">
+        <v>-39380.920320000005</v>
+      </c>
+      <c r="K21" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C22" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Textiles &amp; Apparel</v>
-      </c>
-      <c r="D22" s="25" t="e" vm="16">
+    <row r="22" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C22" s="26" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="E22" s="1" t="str">
-        <f t="array" aca="1" ref="E22" ca="1">_FV(Transactions!$D22,"Ticker symbol",TRUE)</f>
+      <c r="D22" s="27" t="str">
+        <f t="array" aca="1" ref="D22" ca="1">_FV(Transactions!$C22,"Ticker symbol",TRUE)</f>
         <v>NKE</v>
       </c>
-      <c r="F22" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G22">
+      <c r="E22" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F22" s="27">
         <v>-575</v>
       </c>
-      <c r="H22" s="28">
+      <c r="G22" s="29">
         <v>68.680000000000007</v>
       </c>
-      <c r="I22" s="12">
-        <f>Transactions!$H22*Transactions!$G22</f>
+      <c r="H22" s="30">
+        <f>Transactions!$G22*Transactions!$F22</f>
         <v>-39491.000000000007</v>
       </c>
-      <c r="J22" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>78.982000000000014</v>
-      </c>
-      <c r="K22" s="12">
+      <c r="I22" s="30">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-78.982000000000014</v>
+      </c>
+      <c r="J22" s="30">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-39569.982000000011</v>
-      </c>
-      <c r="L22" s="1" t="s">
+        <v>-39412.018000000004</v>
+      </c>
+      <c r="K22" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C23" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Food &amp; Drug Retailing</v>
-      </c>
-      <c r="D23" s="25" t="e" vm="17">
+    <row r="23" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C23" s="32" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="E23" s="1" t="str">
-        <f t="array" aca="1" ref="E23" ca="1">_FV(Transactions!$D23,"Ticker symbol",TRUE)</f>
+      <c r="D23" s="33" t="str">
+        <f t="array" aca="1" ref="D23" ca="1">_FV(Transactions!$C23,"Ticker symbol",TRUE)</f>
         <v>WMT</v>
       </c>
-      <c r="F23" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G23">
+      <c r="E23" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="33">
         <v>390</v>
       </c>
-      <c r="H23" s="28">
+      <c r="G23" s="35">
         <v>101.15</v>
       </c>
-      <c r="I23" s="12">
-        <f>Transactions!$H23*Transactions!$G23</f>
+      <c r="H23" s="36">
+        <f>Transactions!$G23*Transactions!$F23</f>
         <v>39448.5</v>
       </c>
-      <c r="J23" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I23" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.897000000000006</v>
       </c>
-      <c r="K23" s="12">
+      <c r="J23" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39369.603000000003</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="K23" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C24" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Banking Services</v>
-      </c>
-      <c r="D24" s="25" t="e" vm="18">
+    <row r="24" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C24" s="32" t="e" vm="17">
         <v>#VALUE!</v>
       </c>
-      <c r="E24" s="1" t="str">
-        <f t="array" aca="1" ref="E24" ca="1">_FV(Transactions!$D24,"Ticker symbol",TRUE)</f>
+      <c r="D24" s="33" t="str">
+        <f t="array" aca="1" ref="D24" ca="1">_FV(Transactions!$C24,"Ticker symbol",TRUE)</f>
         <v>JPM</v>
       </c>
-      <c r="F24" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G24">
+      <c r="E24" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="33">
         <v>143</v>
       </c>
-      <c r="H24" s="28">
+      <c r="G24" s="35">
         <v>275.8</v>
       </c>
-      <c r="I24" s="12">
-        <f>Transactions!$H24*Transactions!$G24</f>
+      <c r="H24" s="36">
+        <f>Transactions!$G24*Transactions!$F24</f>
         <v>39439.4</v>
       </c>
-      <c r="J24" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I24" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.878799999999998</v>
       </c>
-      <c r="K24" s="12">
+      <c r="J24" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39360.521200000003</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="K24" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C25" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="D25" s="25" t="e" vm="19">
+    <row r="25" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C25" s="32" t="e" vm="18">
         <v>#VALUE!</v>
       </c>
-      <c r="E25" s="1" t="str">
-        <f t="array" aca="1" ref="E25" ca="1">_FV(Transactions!$D25,"Ticker symbol",TRUE)</f>
+      <c r="D25" s="33" t="str">
+        <f t="array" aca="1" ref="D25" ca="1">_FV(Transactions!$C25,"Ticker symbol",TRUE)</f>
         <v>V</v>
       </c>
-      <c r="F25" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G25">
+      <c r="E25" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="33">
         <v>113</v>
       </c>
-      <c r="H25" s="28">
+      <c r="G25" s="35">
         <v>348.02</v>
       </c>
-      <c r="I25" s="12">
-        <f>Transactions!$H25*Transactions!$G25</f>
+      <c r="H25" s="36">
+        <f>Transactions!$G25*Transactions!$F25</f>
         <v>39326.259999999995</v>
       </c>
-      <c r="J25" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I25" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.652519999999996</v>
       </c>
-      <c r="K25" s="12">
+      <c r="J25" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39247.607479999991</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="K25" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C26" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Personal &amp; Household Products &amp; Services</v>
-      </c>
-      <c r="D26" s="25" t="e" vm="7">
+    <row r="26" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C26" s="26" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="E26" s="1" t="str">
-        <f t="array" aca="1" ref="E26" ca="1">_FV(Transactions!$D26,"Ticker symbol",TRUE)</f>
+      <c r="D26" s="27" t="str">
+        <f t="array" aca="1" ref="D26" ca="1">_FV(Transactions!$C26,"Ticker symbol",TRUE)</f>
         <v>PG</v>
       </c>
-      <c r="F26" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G26">
+      <c r="E26" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="27">
         <v>235</v>
       </c>
-      <c r="H26" s="28">
+      <c r="G26" s="29">
         <v>167.97</v>
       </c>
-      <c r="I26" s="12">
-        <f>Transactions!$H26*Transactions!$G26</f>
+      <c r="H26" s="30">
+        <f>Transactions!$G26*Transactions!$F26</f>
         <v>39472.949999999997</v>
       </c>
-      <c r="J26" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I26" s="30">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.945899999999995</v>
       </c>
-      <c r="K26" s="12">
+      <c r="J26" s="30">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39394.004099999998</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="K26" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C27" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Pharmaceuticals</v>
-      </c>
-      <c r="D27" s="25" t="e" vm="20">
+    <row r="27" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C27" s="32" t="e" vm="19">
         <v>#VALUE!</v>
       </c>
-      <c r="E27" s="1" t="str">
-        <f t="array" aca="1" ref="E27" ca="1">_FV(Transactions!$D27,"Ticker symbol",TRUE)</f>
+      <c r="D27" s="33" t="str">
+        <f t="array" aca="1" ref="D27" ca="1">_FV(Transactions!$C27,"Ticker symbol",TRUE)</f>
         <v>JNJ</v>
       </c>
-      <c r="F27" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G27">
+      <c r="E27" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="33">
         <v>258</v>
       </c>
-      <c r="H27" s="28">
+      <c r="G27" s="35">
         <v>153.12</v>
       </c>
-      <c r="I27" s="12">
-        <f>Transactions!$H27*Transactions!$G27</f>
+      <c r="H27" s="36">
+        <f>Transactions!$G27*Transactions!$F27</f>
         <v>39504.959999999999</v>
       </c>
-      <c r="J27" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I27" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.009919999999994</v>
       </c>
-      <c r="K27" s="12">
+      <c r="J27" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39425.950080000002</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="K27" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C28" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Beverages</v>
-      </c>
-      <c r="D28" s="25" t="e" vm="21">
+    <row r="28" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C28" s="32" t="e" vm="20">
         <v>#VALUE!</v>
       </c>
-      <c r="E28" s="1" t="str">
-        <f t="array" aca="1" ref="E28" ca="1">_FV(Transactions!$D28,"Ticker symbol",TRUE)</f>
+      <c r="D28" s="33" t="str">
+        <f t="array" aca="1" ref="D28" ca="1">_FV(Transactions!$C28,"Ticker symbol",TRUE)</f>
         <v>KO</v>
       </c>
-      <c r="F28" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G28">
+      <c r="E28" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" s="33">
         <v>618</v>
       </c>
-      <c r="H28" s="28">
+      <c r="G28" s="35">
         <v>63.84</v>
       </c>
-      <c r="I28" s="12">
-        <f>Transactions!$H28*Transactions!$G28</f>
+      <c r="H28" s="36">
+        <f>Transactions!$G28*Transactions!$F28</f>
         <v>39453.120000000003</v>
       </c>
-      <c r="J28" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I28" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.906240000000011</v>
       </c>
-      <c r="K28" s="12">
+      <c r="J28" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39374.213760000006</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="K28" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C29" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Communications &amp; Networking</v>
-      </c>
-      <c r="D29" s="25" t="e" vm="22">
+    <row r="29" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C29" s="32" t="e" vm="21">
         <v>#VALUE!</v>
       </c>
-      <c r="E29" s="1" t="str">
-        <f t="array" aca="1" ref="E29" ca="1">_FV(Transactions!$D29,"Ticker symbol",TRUE)</f>
+      <c r="D29" s="33" t="str">
+        <f t="array" aca="1" ref="D29" ca="1">_FV(Transactions!$C29,"Ticker symbol",TRUE)</f>
         <v>CSCO</v>
       </c>
-      <c r="F29" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G29">
+      <c r="E29" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="33">
         <v>634</v>
       </c>
-      <c r="H29" s="28">
+      <c r="G29" s="35">
         <v>62.27</v>
       </c>
-      <c r="I29" s="12">
-        <f>Transactions!$H29*Transactions!$G29</f>
+      <c r="H29" s="36">
+        <f>Transactions!$G29*Transactions!$F29</f>
         <v>39479.18</v>
       </c>
-      <c r="J29" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I29" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.958359999999999</v>
       </c>
-      <c r="K29" s="12">
+      <c r="J29" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39400.221640000003</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="K29" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C30" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="D30" s="25" t="e" vm="1">
+    <row r="30" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C30" s="32" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="E30" s="1" t="str">
-        <f t="array" aca="1" ref="E30" ca="1">_FV(Transactions!$D30,"Ticker symbol",TRUE)</f>
+      <c r="D30" s="33" t="str">
+        <f t="array" aca="1" ref="D30" ca="1">_FV(Transactions!$C30,"Ticker symbol",TRUE)</f>
         <v>IBM</v>
       </c>
-      <c r="F30" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G30">
+      <c r="E30" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="33">
         <v>156</v>
       </c>
-      <c r="H30" s="28">
+      <c r="G30" s="35">
         <v>252.34</v>
       </c>
-      <c r="I30" s="12">
-        <f>Transactions!$H30*Transactions!$G30</f>
+      <c r="H30" s="36">
+        <f>Transactions!$G30*Transactions!$F30</f>
         <v>39365.040000000001</v>
       </c>
-      <c r="J30" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I30" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.730080000000001</v>
       </c>
-      <c r="K30" s="12">
+      <c r="J30" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39286.30992</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="K30" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C31" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Banking Services</v>
-      </c>
-      <c r="D31" s="25" t="e" vm="2">
+    <row r="31" spans="2:11" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="42">
+        <v>45840</v>
+      </c>
+      <c r="C31" s="43" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="E31" s="1" t="str">
-        <f t="array" aca="1" ref="E31" ca="1">_FV(Transactions!$D31,"Ticker symbol",TRUE)</f>
+      <c r="D31" s="44" t="str">
+        <f t="array" aca="1" ref="D31" ca="1">_FV(Transactions!$C31,"Ticker symbol",TRUE)</f>
         <v>AXP</v>
       </c>
-      <c r="F31" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G31">
+      <c r="E31" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="44">
         <v>125</v>
       </c>
-      <c r="H31" s="28">
+      <c r="G31" s="46">
         <v>316.77</v>
       </c>
-      <c r="I31" s="12">
-        <f>Transactions!$H31*Transactions!$G31</f>
+      <c r="H31" s="47">
+        <f>Transactions!$G31*Transactions!$F31</f>
         <v>39596.25</v>
       </c>
-      <c r="J31" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I31" s="47">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.192499999999995</v>
       </c>
-      <c r="K31" s="12">
+      <c r="J31" s="47">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39517.057500000003</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="K31" s="44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C32" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Hotels &amp; Entertainment Services</v>
-      </c>
-      <c r="D32" s="25" t="e" vm="8">
+    <row r="32" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C32" s="32" t="e" vm="22">
         <v>#VALUE!</v>
       </c>
-      <c r="E32" s="1" t="str">
-        <f t="array" aca="1" ref="E32" ca="1">_FV(Transactions!$D32,"Ticker symbol",TRUE)</f>
+      <c r="D32" s="33" t="str">
+        <f t="array" aca="1" ref="D32" ca="1">_FV(Transactions!$C32,"Ticker symbol",TRUE)</f>
         <v>MCD</v>
       </c>
-      <c r="F32" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G32">
+      <c r="E32" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="33">
         <v>134</v>
       </c>
-      <c r="H32" s="28">
+      <c r="G32" s="35">
         <v>294.3</v>
       </c>
-      <c r="I32" s="12">
-        <f>Transactions!$H32*Transactions!$G32</f>
+      <c r="H32" s="36">
+        <f>Transactions!$G32*Transactions!$F32</f>
         <v>39436.200000000004</v>
       </c>
-      <c r="J32" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I32" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.872400000000013</v>
       </c>
-      <c r="K32" s="12">
+      <c r="J32" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39357.327600000004</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="K32" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C33" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Investment Banking &amp; Investment Services</v>
-      </c>
-      <c r="D33" s="25" t="e" vm="23">
+    <row r="33" spans="1:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C33" s="32" t="e" vm="23">
         <v>#VALUE!</v>
       </c>
-      <c r="E33" s="1" t="str">
-        <f t="array" aca="1" ref="E33" ca="1">_FV(Transactions!$D33,"Ticker symbol",TRUE)</f>
+      <c r="D33" s="33" t="str">
+        <f t="array" aca="1" ref="D33" ca="1">_FV(Transactions!$C33,"Ticker symbol",TRUE)</f>
         <v>GS</v>
       </c>
-      <c r="F33" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G33">
+      <c r="E33" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="33">
         <v>60</v>
       </c>
-      <c r="H33" s="28">
+      <c r="G33" s="35">
         <v>655.9</v>
       </c>
-      <c r="I33" s="12">
-        <f>Transactions!$H33*Transactions!$G33</f>
+      <c r="H33" s="36">
+        <f>Transactions!$G33*Transactions!$F33</f>
         <v>39354</v>
       </c>
-      <c r="J33" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I33" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.707999999999998</v>
       </c>
-      <c r="K33" s="12">
+      <c r="J33" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39275.292000000001</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="K33" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C34" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Pharmaceuticals</v>
-      </c>
-      <c r="D34" s="25" t="e" vm="24">
+    <row r="34" spans="1:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C34" s="32" t="e" vm="24">
         <v>#VALUE!</v>
       </c>
-      <c r="E34" s="1" t="str">
-        <f t="array" aca="1" ref="E34" ca="1">_FV(Transactions!$D34,"Ticker symbol",TRUE)</f>
+      <c r="D34" s="33" t="str">
+        <f t="array" aca="1" ref="D34" ca="1">_FV(Transactions!$C34,"Ticker symbol",TRUE)</f>
         <v>AMGN</v>
       </c>
-      <c r="F34" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G34">
+      <c r="E34" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="33">
         <v>135</v>
       </c>
-      <c r="H34" s="28">
+      <c r="G34" s="35">
         <v>293.54000000000002</v>
       </c>
-      <c r="I34" s="12">
-        <f>Transactions!$H34*Transactions!$G34</f>
+      <c r="H34" s="36">
+        <f>Transactions!$G34*Transactions!$F34</f>
         <v>39627.9</v>
       </c>
-      <c r="J34" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I34" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.255800000000008</v>
       </c>
-      <c r="K34" s="12">
+      <c r="J34" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39548.644200000002</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="K34" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C35" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Chemicals</v>
-      </c>
-      <c r="D35" s="25" t="e" vm="9">
+    <row r="35" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C35" s="26" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="E35" s="1" t="str">
-        <f t="array" aca="1" ref="E35" ca="1">_FV(Transactions!$D35,"Ticker symbol",TRUE)</f>
+      <c r="D35" s="27" t="str">
+        <f t="array" aca="1" ref="D35" ca="1">_FV(Transactions!$C35,"Ticker symbol",TRUE)</f>
         <v>SHW</v>
       </c>
-      <c r="F35" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G35">
+      <c r="E35" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="27">
         <v>110</v>
       </c>
-      <c r="H35" s="28">
+      <c r="G35" s="29">
         <v>360.57</v>
       </c>
-      <c r="I35" s="12">
-        <f>Transactions!$H35*Transactions!$G35</f>
+      <c r="H35" s="30">
+        <f>Transactions!$G35*Transactions!$F35</f>
         <v>39662.699999999997</v>
       </c>
-      <c r="J35" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I35" s="30">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.325400000000002</v>
       </c>
-      <c r="K35" s="12">
+      <c r="J35" s="30">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39583.374599999996</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="K35" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C36" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Consumer Goods Conglomerates</v>
-      </c>
-      <c r="D36" s="25" t="e" vm="25">
+    <row r="36" spans="1:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C36" s="32" t="e" vm="25">
         <v>#VALUE!</v>
       </c>
-      <c r="E36" s="1" t="str">
-        <f t="array" aca="1" ref="E36" ca="1">_FV(Transactions!$D36,"Ticker symbol",TRUE)</f>
+      <c r="D36" s="33" t="str">
+        <f t="array" aca="1" ref="D36" ca="1">_FV(Transactions!$C36,"Ticker symbol",TRUE)</f>
         <v>MMM</v>
       </c>
-      <c r="F36" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G36">
+      <c r="E36" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="33">
         <v>263</v>
       </c>
-      <c r="H36" s="28">
+      <c r="G36" s="35">
         <v>149.87</v>
       </c>
-      <c r="I36" s="12">
-        <f>Transactions!$H36*Transactions!$G36</f>
+      <c r="H36" s="36">
+        <f>Transactions!$G36*Transactions!$F36</f>
         <v>39415.81</v>
       </c>
-      <c r="J36" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I36" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.831620000000001</v>
       </c>
-      <c r="K36" s="12">
+      <c r="J36" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39336.97838</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="K36" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C37" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Insurance</v>
-      </c>
-      <c r="D37" s="25" t="e" vm="10">
+    <row r="37" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C37" s="26" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="E37" s="1" t="str">
-        <f t="array" aca="1" ref="E37" ca="1">_FV(Transactions!$D37,"Ticker symbol",TRUE)</f>
+      <c r="D37" s="27" t="str">
+        <f t="array" aca="1" ref="D37" ca="1">_FV(Transactions!$C37,"Ticker symbol",TRUE)</f>
         <v>TRV</v>
       </c>
-      <c r="F37" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G37">
+      <c r="E37" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" s="27">
         <v>161</v>
       </c>
-      <c r="H37" s="28">
+      <c r="G37" s="29">
         <v>245.19</v>
       </c>
-      <c r="I37" s="12">
-        <f>Transactions!$H37*Transactions!$G37</f>
+      <c r="H37" s="30">
+        <f>Transactions!$G37*Transactions!$F37</f>
         <v>39475.589999999997</v>
       </c>
-      <c r="J37" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I37" s="30">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.951179999999994</v>
       </c>
-      <c r="K37" s="12">
+      <c r="J37" s="30">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39396.63882</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="K37" s="27" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11">
-        <v>45695</v>
-      </c>
-      <c r="C38" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Aerospace &amp; Defense</v>
-      </c>
-      <c r="D38" s="19" t="e" vm="26">
+    <row r="38" spans="1:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C38" s="33" t="e" vm="26">
         <v>#VALUE!</v>
       </c>
-      <c r="E38" s="1" t="str">
-        <f t="array" aca="1" ref="E38" ca="1">_FV(Transactions!$D38,"Ticker symbol",TRUE)</f>
+      <c r="D38" s="33" t="str">
+        <f t="array" aca="1" ref="D38" ca="1">_FV(Transactions!$C38,"Ticker symbol",TRUE)</f>
         <v>BA</v>
       </c>
-      <c r="F38" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G38">
+      <c r="E38" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="33">
         <v>218</v>
       </c>
-      <c r="H38" s="28">
+      <c r="G38" s="35">
         <v>181.49</v>
       </c>
-      <c r="I38" s="12">
-        <f>Transactions!$H38*Transactions!$G38</f>
+      <c r="H38" s="36">
+        <f>Transactions!$G38*Transactions!$F38</f>
         <v>39564.82</v>
       </c>
-      <c r="J38" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I38" s="36">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.129639999999995</v>
       </c>
-      <c r="K38" s="12">
+      <c r="J38" s="36">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39485.690360000001</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="K38" s="33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Oil &amp; Gas</v>
-      </c>
-      <c r="D39" s="25" t="e" vm="5">
+    <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="24" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="E39" s="1" t="str">
-        <f t="array" aca="1" ref="E39" ca="1">_FV(Transactions!$D39,"Ticker symbol",TRUE)</f>
-        <v>CVX</v>
-      </c>
-      <c r="F39" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G39">
-        <v>259</v>
-      </c>
-      <c r="H39" s="28">
-        <v>154.16999999999999</v>
-      </c>
-      <c r="I39" s="12">
-        <f>Transactions!$H39*Transactions!$G39</f>
-        <v>39930.03</v>
-      </c>
-      <c r="J39" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>79.860060000000004</v>
-      </c>
-      <c r="K39" s="12">
-        <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>39850.16994</v>
-      </c>
-      <c r="L39" s="32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Computers, Phones &amp; Household Electronics</v>
-      </c>
-      <c r="D40" s="25" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f t="array" aca="1" ref="E40" ca="1">_FV(Transactions!$D40,"Ticker symbol",TRUE)</f>
+      <c r="D39" s="1" t="str">
+        <f t="array" aca="1" ref="D39" ca="1">_FV(Transactions!$C39,"Ticker symbol",TRUE)</f>
         <v>AAPL</v>
       </c>
-      <c r="F40" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G40">
+      <c r="E39" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39">
         <v>173</v>
       </c>
-      <c r="H40" s="28">
+      <c r="G39" s="21">
         <v>244.6</v>
       </c>
-      <c r="I40" s="12">
-        <f>Transactions!$H40*Transactions!$G40</f>
+      <c r="H39" s="10">
+        <f>Transactions!$G39*Transactions!$F39</f>
         <v>42315.799999999996</v>
       </c>
-      <c r="J40" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I39" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>84.631599999999992</v>
       </c>
-      <c r="K40" s="12">
+      <c r="J39" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>42231.168399999995</v>
       </c>
-      <c r="L40" s="32" t="s">
+      <c r="K39" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L39" s="11"/>
     </row>
-    <row r="41" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Hotels &amp; Entertainment Services</v>
-      </c>
-      <c r="D41" s="25" t="e" vm="8">
+    <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="40" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="E41" s="1" t="str">
-        <f t="array" aca="1" ref="E41" ca="1">_FV(Transactions!$D41,"Ticker symbol",TRUE)</f>
-        <v>MCD</v>
-      </c>
-      <c r="F41" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G41">
-        <v>-134</v>
-      </c>
-      <c r="H41" s="28">
-        <v>308.55</v>
-      </c>
-      <c r="I41" s="12">
-        <f>Transactions!$H41*ABS(Transactions!$G41)</f>
-        <v>41345.700000000004</v>
-      </c>
-      <c r="J41" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>82.691400000000016</v>
-      </c>
-      <c r="K41" s="12">
+      <c r="D40" s="1" t="str">
+        <f t="array" aca="1" ref="D40" ca="1">_FV(Transactions!$C40,"Ticker symbol",TRUE)</f>
+        <v>CVX</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40">
+        <v>259</v>
+      </c>
+      <c r="G40" s="21">
+        <v>155.26499999999999</v>
+      </c>
+      <c r="H40" s="10">
+        <f>Transactions!$G40*Transactions!$F40</f>
+        <v>40213.634999999995</v>
+      </c>
+      <c r="I40" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>80.427269999999993</v>
+      </c>
+      <c r="J40" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>41263.008600000001</v>
-      </c>
-      <c r="L41" s="1" t="s">
+        <v>40133.207729999995</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="L40" s="11"/>
     </row>
-    <row r="42" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Personal &amp; Household Products &amp; Services</v>
-      </c>
-      <c r="D42" s="25" t="e" vm="7">
+    <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="40" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="E42" s="1" t="str">
-        <f t="array" aca="1" ref="E42" ca="1">_FV(Transactions!$D42,"Ticker symbol",TRUE)</f>
+      <c r="D41" s="1" t="str">
+        <f t="array" aca="1" ref="D41" ca="1">_FV(Transactions!$C41,"Ticker symbol",TRUE)</f>
         <v>PG</v>
       </c>
-      <c r="F42" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G42">
+      <c r="E41" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41">
         <v>-235</v>
       </c>
-      <c r="H42" s="33">
+      <c r="G41" s="21">
         <v>162.9</v>
       </c>
-      <c r="I42" s="12">
-        <f>Transactions!$H42*Transactions!$G42</f>
+      <c r="H41" s="10">
+        <f>Transactions!$G41*Transactions!$F41</f>
         <v>-38281.5</v>
       </c>
-      <c r="J42" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>76.563000000000002</v>
-      </c>
-      <c r="K42" s="12">
+      <c r="I41" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-76.563000000000002</v>
+      </c>
+      <c r="J41" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-38358.063000000002</v>
-      </c>
-      <c r="L42" s="1" t="s">
+        <v>-38204.936999999998</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Chemicals</v>
-      </c>
-      <c r="D43" s="25" t="e" vm="9">
+    <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="40" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="E43" s="1" t="str">
-        <f t="array" aca="1" ref="E43" ca="1">_FV(Transactions!$D43,"Ticker symbol",TRUE)</f>
+      <c r="D42" s="1" t="str">
+        <f t="array" aca="1" ref="D42" ca="1">_FV(Transactions!$C42,"Ticker symbol",TRUE)</f>
         <v>SHW</v>
       </c>
-      <c r="F43" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G43">
+      <c r="E42" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42">
         <v>-110</v>
       </c>
-      <c r="H43" s="33">
-        <v>356.8</v>
-      </c>
-      <c r="I43" s="12">
-        <f>Transactions!$H43*Transactions!$G43</f>
-        <v>-39248</v>
-      </c>
-      <c r="J43" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>78.495999999999995</v>
-      </c>
-      <c r="K43" s="12">
+      <c r="G42" s="21">
+        <v>356.86</v>
+      </c>
+      <c r="H42" s="10">
+        <f>Transactions!$G42*Transactions!$F42</f>
+        <v>-39254.6</v>
+      </c>
+      <c r="I42" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-78.509199999999993</v>
+      </c>
+      <c r="J42" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-39326.495999999999</v>
-      </c>
-      <c r="L43" s="1" t="s">
+        <v>-39176.090799999998</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Insurance</v>
-      </c>
-      <c r="D44" s="25" t="e" vm="10">
+    <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="40" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="E44" s="1" t="str">
-        <f t="array" aca="1" ref="E44" ca="1">_FV(Transactions!$D44,"Ticker symbol",TRUE)</f>
+      <c r="D43" s="1" t="str">
+        <f t="array" aca="1" ref="D43" ca="1">_FV(Transactions!$C43,"Ticker symbol",TRUE)</f>
         <v>TRV</v>
       </c>
-      <c r="F44" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G44">
+      <c r="E43" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43">
         <v>-161</v>
       </c>
-      <c r="H44" s="33">
+      <c r="G43" s="21">
         <v>238.31</v>
       </c>
-      <c r="I44" s="12">
-        <f>Transactions!$H44*Transactions!$G44</f>
+      <c r="H43" s="10">
+        <f>Transactions!$G43*Transactions!$F43</f>
         <v>-38367.910000000003</v>
       </c>
-      <c r="J44" s="26">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
-        <v>76.735820000000004</v>
-      </c>
-      <c r="K44" s="12">
+      <c r="I43" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-76.735820000000004</v>
+      </c>
+      <c r="J43" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-38444.645820000005</v>
-      </c>
-      <c r="L44" s="1" t="s">
+        <v>-38291.174180000002</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Telecommunications Services</v>
-      </c>
-      <c r="D45" s="39" t="e" vm="27">
+    <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="40" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="E45" s="1" t="str">
-        <f t="array" aca="1" ref="E45" ca="1">_FV(Transactions!$D45,"Ticker symbol",TRUE)</f>
+      <c r="D44" s="1" t="str">
+        <f t="array" aca="1" ref="D44" ca="1">_FV(Transactions!$C44,"Ticker symbol",TRUE)</f>
+        <v>AXP</v>
+      </c>
+      <c r="E44" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44">
+        <v>-125</v>
+      </c>
+      <c r="G44" s="21">
+        <v>311.04000000000002</v>
+      </c>
+      <c r="H44" s="10">
+        <f>Transactions!$G44*Transactions!$F44</f>
+        <v>-38880</v>
+      </c>
+      <c r="I44" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-77.760000000000005</v>
+      </c>
+      <c r="J44" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
+        <v>-38802.239999999998</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="84" t="s">
+        <v>37</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="40" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="array" aca="1" ref="D45" ca="1">_FV(Transactions!$C45,"Ticker symbol",TRUE)</f>
+        <v>AAPL</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <v>163</v>
+      </c>
+      <c r="G45" s="21">
+        <v>244.6</v>
+      </c>
+      <c r="H45" s="10">
+        <f>Transactions!$G45*Transactions!$F45</f>
+        <v>39869.799999999996</v>
+      </c>
+      <c r="I45" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>79.739599999999996</v>
+      </c>
+      <c r="J45" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
+        <v>39790.060399999995</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="43" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D46" s="44" t="str">
+        <f t="array" aca="1" ref="D46" ca="1">_FV(Transactions!$C46,"Ticker symbol",TRUE)</f>
+        <v>CVX</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46">
+        <v>257</v>
+      </c>
+      <c r="G46" s="21">
+        <v>155.26499999999999</v>
+      </c>
+      <c r="H46" s="10">
+        <f>Transactions!$G46*Transactions!$F46</f>
+        <v>39903.104999999996</v>
+      </c>
+      <c r="I46" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>79.806209999999993</v>
+      </c>
+      <c r="J46" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
+        <v>39823.298789999993</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="40" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="array" aca="1" ref="D47" ca="1">_FV(Transactions!$C47,"Ticker symbol",TRUE)</f>
         <v>VZ</v>
       </c>
-      <c r="F45" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>SELL</v>
-      </c>
-      <c r="G45">
-        <v>-975</v>
-      </c>
-      <c r="H45" s="33">
+      <c r="E47" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47">
+        <v>975</v>
+      </c>
+      <c r="G47" s="21">
         <v>40.99</v>
       </c>
-      <c r="I45" s="12">
-        <f>Transactions!$H45*Transactions!$G45</f>
-        <v>-39965.25</v>
-      </c>
-      <c r="J45" s="12">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="H47" s="10">
+        <f>Transactions!$G47*Transactions!$F47</f>
+        <v>39965.25</v>
+      </c>
+      <c r="I47" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.930499999999995</v>
       </c>
-      <c r="K45" s="12">
+      <c r="J47" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
-        <v>-40045.180500000002</v>
-      </c>
-      <c r="L45" s="1" t="s">
+        <v>39885.319499999998</v>
+      </c>
+      <c r="K47" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" s="11" t="str">
-        <f ca="1">VLOOKUP(Table_1[[#This Row],[Ticker]],Dashboard!$C$8:$D$626,2,FALSE)</f>
-        <v>Semiconductors &amp; Semiconductor Equipment</v>
-      </c>
-      <c r="D46" s="39" t="e" vm="28">
+    <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="40" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
-      <c r="E46" s="1" t="str">
-        <f t="array" aca="1" ref="E46" ca="1">_FV(Transactions!$D46,"Ticker symbol",TRUE)</f>
+      <c r="D48" s="1" t="str">
+        <f t="array" aca="1" ref="D48" ca="1">_FV(Transactions!$C48,"Ticker symbol",TRUE)</f>
         <v>NVDA</v>
       </c>
-      <c r="F46" s="31" t="str">
-        <f>IF(Table_1[[#This Row],[Units]]&gt;0,"BUY","SELL")</f>
-        <v>BUY</v>
-      </c>
-      <c r="G46">
+      <c r="E48" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48">
         <v>288</v>
       </c>
-      <c r="H46" s="33">
+      <c r="G48" s="21">
         <v>138.85</v>
       </c>
-      <c r="I46" s="12">
-        <f>Transactions!$H46*Transactions!$G46</f>
+      <c r="H48" s="10">
+        <f>Transactions!$G48*Transactions!$F48</f>
         <v>39988.799999999996</v>
       </c>
-      <c r="J46" s="12">
-        <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
+      <c r="I48" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.977599999999995</v>
       </c>
-      <c r="K46" s="12">
+      <c r="J48" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39908.822399999997</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="K48" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="40" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="array" aca="1" ref="D49" ca="1">_FV(Transactions!$C49,"Ticker symbol",TRUE)</f>
+        <v>PG</v>
+      </c>
+      <c r="E49" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49">
+        <v>-245</v>
+      </c>
+      <c r="G49" s="21">
+        <v>162.9</v>
+      </c>
+      <c r="H49" s="10">
+        <f>Transactions!$G49*Transactions!$F49</f>
+        <v>-39910.5</v>
+      </c>
+      <c r="I49" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-79.820999999999998</v>
+      </c>
+      <c r="J49" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
+        <v>-39830.678999999996</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="40" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="array" aca="1" ref="D50" ca="1">_FV(Transactions!$C50,"Ticker symbol",TRUE)</f>
+        <v>SHW</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50">
+        <v>-112</v>
+      </c>
+      <c r="G50" s="21">
+        <v>356.86</v>
+      </c>
+      <c r="H50" s="10">
+        <f>Transactions!$G50*Transactions!$F50</f>
+        <v>-39968.32</v>
+      </c>
+      <c r="I50" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-79.936639999999997</v>
+      </c>
+      <c r="J50" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
+        <v>-39888.38336</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="40" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="array" aca="1" ref="D51" ca="1">_FV(Transactions!$C51,"Ticker symbol",TRUE)</f>
+        <v>TRV</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51">
+        <v>-167</v>
+      </c>
+      <c r="G51" s="21">
+        <v>238.31</v>
+      </c>
+      <c r="H51" s="10">
+        <f>Transactions!$G51*Transactions!$F51</f>
+        <v>-39797.769999999997</v>
+      </c>
+      <c r="I51" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
+        <v>-79.59554</v>
+      </c>
+      <c r="J51" s="10">
+        <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
+        <v>-39718.174459999995</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8741,36 +9676,17 @@
     <row r="994" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="997" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="998" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a73d4695-d219-4a5e-88c5-c92faa0f5b0b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D24EC77B650C3C4BA5360C2D45487E5E" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bbc4646843794ed6a31b64234e2278ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a73d4695-d219-4a5e-88c5-c92faa0f5b0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bb8df8608df37a83850cc81ab1d3b74" ns3:_="">
     <xsd:import namespace="a73d4695-d219-4a5e-88c5-c92faa0f5b0b"/>
@@ -8926,31 +9842,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7653B62B-EB76-4755-ACB4-CCA01354AC3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a73d4695-d219-4a5e-88c5-c92faa0f5b0b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABB6279-A2CA-457A-889C-AF974474C132}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="a73d4695-d219-4a5e-88c5-c92faa0f5b0b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9660CD80-D69B-4B05-92F2-D1CF45FAFA67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8966,4 +9875,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABB6279-A2CA-457A-889C-AF974474C132}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="a73d4695-d219-4a5e-88c5-c92faa0f5b0b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7653B62B-EB76-4755-ACB4-CCA01354AC3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Group-6 Portfolio Dashboard_Week4_14022025.xlsx
+++ b/Group-6 Portfolio Dashboard_Week4_14022025.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maanoj_ToBeTransferred\Dev\PyCharm\Algo\FinMod_MVO\FinMod_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DAAC5C6-A4D6-4F84-AEE2-758798F90849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7261FD-D591-466C-A84A-6A2AEAC5A530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
-    <sheet name="Transactions" sheetId="3" r:id="rId2"/>
+    <sheet name="Portfolio_Summary" sheetId="5" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="2" r:id="rId2"/>
+    <sheet name="Transactions" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dashboard!$A$7:$AA$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Dashboard!$A$7:$V$37</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -342,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="37">
   <si>
     <t>Current Holdings</t>
   </si>
@@ -360,6 +361,9 @@
   </si>
   <si>
     <t>Current Price</t>
+  </si>
+  <si>
+    <t>Market Value</t>
   </si>
   <si>
     <t>Gain (Loss)</t>
@@ -419,40 +423,16 @@
     <t>U.S. Treasury</t>
   </si>
   <si>
-    <t>Portfolio Tracker</t>
-  </si>
-  <si>
-    <t>Portfolio Value</t>
-  </si>
-  <si>
-    <t>$Weekly Change</t>
-  </si>
-  <si>
     <t>Entry Price</t>
   </si>
   <si>
     <t>Exit Price</t>
   </si>
   <si>
-    <t xml:space="preserve">                SELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-  </si>
-  <si>
     <t>14/2/2025</t>
   </si>
   <si>
-    <t>Column1</t>
-  </si>
-  <si>
     <t>14/2/2026</t>
-  </si>
-  <si>
-    <t>Entry Market Value</t>
-  </si>
-  <si>
-    <t>Current Market Value</t>
   </si>
   <si>
     <t>a</t>
@@ -461,7 +441,19 @@
     <t>Prev Week Portfolio Value</t>
   </si>
   <si>
-    <t>This Week Gain/Loss</t>
+    <t>This Week Profit</t>
+  </si>
+  <si>
+    <t>$Portfolio Value Change</t>
+  </si>
+  <si>
+    <t>Current Week Portfolio Value</t>
+  </si>
+  <si>
+    <t>Sector</t>
+  </si>
+  <si>
+    <t>Prev Week Profit/Loss</t>
   </si>
 </sst>
 </file>
@@ -482,6 +474,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -576,13 +575,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -615,7 +607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -656,6 +648,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD9E2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -762,208 +760,230 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="7" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="7" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="8" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="7" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="167" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="7" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="7" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="14" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{91011D9D-2B1C-4491-831E-F4ADB4C172F7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AD68657A-CA6D-4BC3-871E-5746345F45AC}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{8FDFECBD-7FD7-4B18-B32E-EF2A27CD0B60}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE699"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1009,7 +1029,12 @@
       <numFmt numFmtId="11" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFE699"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1038,9 +1063,9 @@
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Transactions-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1058,45 +1083,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="533400" cy="533400"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image2.png" descr="Bar graph with upward trend with solid fill">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr preferRelativeResize="0"/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3448,20 +3434,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="B2:L51">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date"/>
+    <tableColumn id="12" xr3:uid="{93591377-A093-4BE4-A6CE-B0A087E9DEE3}" name="Sector" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Company"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ticker"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Transaction Type" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Transaction Type" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Units"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Entry Price"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Transaction Amount"/>
-    <tableColumn id="9" xr3:uid="{616C1E63-255C-4DE8-8D15-3E1FECBBBB19}" name="Transaction Cost" dataDxfId="2">
+    <tableColumn id="9" xr3:uid="{616C1E63-255C-4DE8-8D15-3E1FECBBBB19}" name="Transaction Cost" dataDxfId="5">
       <calculatedColumnFormula>Table_1[[#This Row],[Transaction Amount]]*0.002</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{68916593-1081-45E0-8B06-AE64845CAE61}" name="Total Transaction" dataDxfId="1">
+    <tableColumn id="10" xr3:uid="{68916593-1081-45E0-8B06-AE64845CAE61}" name="Total Transaction" dataDxfId="4">
       <calculatedColumnFormula>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Currency"/>
-    <tableColumn id="11" xr3:uid="{67870957-4AE8-4824-8C8B-80EB609A8D3B}" name="Column1"/>
   </tableColumns>
   <tableStyleInfo name="Transactions-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3664,11 +3652,76 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCC68F3-4670-4212-8896-E53A68AC05E8}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>985158.59</v>
+      </c>
+      <c r="B2" s="5" cm="1">
+        <f t="array" aca="1" ref="B2" ca="1">A2+D2-SUM(ABS(Transactions!J39:J51))</f>
+        <v>989990.31077238452</v>
+      </c>
+      <c r="C2" s="6">
+        <f ca="1">B2-A2</f>
+        <v>4831.7207723845495</v>
+      </c>
+      <c r="D2" s="5">
+        <f ca="1">SUM(Dashboard!J14:J44)+Dashboard!J8</f>
+        <v>5865.1547523845666</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-12869.64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AA1016"/>
+  <dimension ref="A1:V1015"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3682,15 +3735,13 @@
     <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.5546875" customWidth="1"/>
     <col min="9" max="9" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="27" width="8.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.44140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="22" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3700,8 +3751,8 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="86"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -3713,37 +3764,22 @@
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
       <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
     </row>
-    <row r="2" spans="1:27" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="4"/>
+      <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -3752,33 +3788,17 @@
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="5" cm="1">
-        <f t="array" aca="1" ref="F3" ca="1">(I3+H3)-SUM(ABS(Transactions!I39:I51))</f>
-        <v>989990.31077238452</v>
-      </c>
-      <c r="G3" s="6">
-        <f ca="1">F3-I3</f>
-        <v>4831.7207723845495</v>
-      </c>
-      <c r="H3" s="5">
-        <f ca="1">SUM(L13:L3841)</f>
-        <v>5865.1547523845775</v>
-      </c>
-      <c r="I3" s="5">
-        <v>985158.59</v>
-      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -3792,13 +3812,8 @@
       <c r="T3" s="2"/>
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="1:27" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3808,8 +3823,8 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="86"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -3821,2107 +3836,1730 @@
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="54" t="s">
+    <row r="5" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="56"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="75"/>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="65" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="65" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="56" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>31</v>
+      <c r="D8" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="58"/>
+      <c r="F8" s="59">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="G8" s="60">
+        <v>687077.42</v>
+      </c>
+      <c r="I8" s="61"/>
+      <c r="J8" s="62">
+        <f>(1+F8/52)*G8-G8</f>
+        <v>557.58975238457788</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>23</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89" t="e" vm="1">
+    <row r="9" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="76" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="C8" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="C8" ca="1">_FV(B8,"Ticker symbol",TRUE)</f>
+      <c r="C9" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C9" ca="1">_FV(B9,"Ticker symbol",TRUE)</f>
         <v>IBM</v>
       </c>
-      <c r="D8" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="D8" ca="1">_FV(B8,"Industry")</f>
+      <c r="D9" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="D9" ca="1">_FV(B9,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="63">
+      <c r="E9" s="77">
         <v>782</v>
       </c>
-      <c r="G8" s="64">
+      <c r="F9" s="78">
         <v>255.7</v>
       </c>
-      <c r="H8" s="85">
-        <f>G8*F8</f>
+      <c r="G9" s="38">
+        <f t="shared" ref="G9:G13" si="0">F9*E9</f>
         <v>199957.4</v>
       </c>
-      <c r="I8" s="61" cm="1">
-        <f t="array" aca="1" ref="I8" ca="1">_FV(B8,"Price")</f>
+      <c r="H9" s="39" cm="1">
+        <f t="array" aca="1" ref="H9" ca="1">_FV(B9,"Price")</f>
         <v>261.20999999999998</v>
       </c>
-      <c r="J8" s="65">
+      <c r="I9" s="41">
         <v>252.34</v>
       </c>
-      <c r="K8" s="65">
-        <f>F8*J8</f>
-        <v>197329.88</v>
-      </c>
-      <c r="L8" s="62">
-        <f>(J8-G8)*F8</f>
+      <c r="J9" s="40">
+        <f>(I9-F9)*E9</f>
         <v>-2627.5199999999886</v>
       </c>
-      <c r="M8" s="62" cm="1">
-        <f t="array" aca="1" ref="M8" ca="1">_FV(B8,"52 week high",TRUE)</f>
+      <c r="K9" s="40" cm="1">
+        <f t="array" aca="1" ref="K9" ca="1">_FV(B9,"52 week high",TRUE)</f>
         <v>265.72000000000003</v>
       </c>
-      <c r="N8" s="62" cm="1">
-        <f t="array" aca="1" ref="N8" ca="1">_FV(B8,"52 week low",TRUE)</f>
+      <c r="L9" s="40" cm="1">
+        <f t="array" aca="1" ref="L9" ca="1">_FV(B9,"52 week low",TRUE)</f>
         <v>162.62</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89" t="e" vm="2">
+    <row r="10" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="76" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="C9" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="C9" ca="1">_FV(B9,"Ticker symbol",TRUE)</f>
+      <c r="C10" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C10" ca="1">_FV(B10,"Ticker symbol",TRUE)</f>
         <v>AXP</v>
       </c>
-      <c r="D9" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">_FV(B9,"Industry")</f>
+      <c r="D10" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="D10" ca="1">_FV(B10,"Industry")</f>
         <v>Banking Services</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="63">
+      <c r="E10" s="77">
         <v>315</v>
       </c>
-      <c r="G9" s="64">
+      <c r="F10" s="78">
         <v>317.45</v>
       </c>
-      <c r="H9" s="85">
-        <f>G9*F9</f>
+      <c r="G10" s="38">
+        <f t="shared" si="0"/>
         <v>99996.75</v>
       </c>
-      <c r="I9" s="61" cm="1">
-        <f t="array" aca="1" ref="I9" ca="1">_FV(B9,"Price")</f>
+      <c r="H10" s="39" cm="1">
+        <f t="array" aca="1" ref="H10" ca="1">_FV(B10,"Price")</f>
         <v>311.04000000000002</v>
       </c>
-      <c r="J9" s="65">
+      <c r="I10" s="41">
         <v>316.77</v>
       </c>
-      <c r="K9" s="65">
-        <f>F9*J9</f>
-        <v>99782.549999999988</v>
-      </c>
-      <c r="L9" s="62">
-        <f>(J9-G9)*F9</f>
+      <c r="J10" s="40">
+        <f t="shared" ref="J10:J40" si="1">(I10-F10)*E10</f>
         <v>-214.20000000000215</v>
       </c>
-      <c r="M9" s="62" cm="1">
-        <f t="array" aca="1" ref="M9" ca="1">_FV(B9,"52 week high",TRUE)</f>
+      <c r="K10" s="40" cm="1">
+        <f t="array" aca="1" ref="K10" ca="1">_FV(B10,"52 week high",TRUE)</f>
         <v>326.27499999999998</v>
       </c>
-      <c r="N9" s="62" cm="1">
-        <f t="array" aca="1" ref="N9" ca="1">_FV(B9,"52 week low",TRUE)</f>
+      <c r="L10" s="40" cm="1">
+        <f t="array" aca="1" ref="L10" ca="1">_FV(B10,"52 week low",TRUE)</f>
         <v>208.82429999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="89" t="e" vm="3">
+    <row r="11" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="76" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="C10" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="C10" ca="1">_FV(B10,"Ticker symbol",TRUE)</f>
+      <c r="C11" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C11" ca="1">_FV(B11,"Ticker symbol",TRUE)</f>
         <v>DIS</v>
       </c>
-      <c r="D10" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="D10" ca="1">_FV(B10,"Industry")</f>
+      <c r="D11" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="D11" ca="1">_FV(B11,"Industry")</f>
         <v>Media &amp; Publishing</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="63">
+      <c r="E11" s="77">
         <v>1769</v>
       </c>
-      <c r="G10" s="64">
+      <c r="F11" s="78">
         <v>113.06</v>
       </c>
-      <c r="H10" s="85">
-        <f>G10*F10</f>
+      <c r="G11" s="38">
+        <f t="shared" si="0"/>
         <v>200003.14</v>
       </c>
-      <c r="I10" s="61" cm="1">
-        <f t="array" aca="1" ref="I10" ca="1">_FV(B10,"Price")</f>
+      <c r="H11" s="39" cm="1">
+        <f t="array" aca="1" ref="H11" ca="1">_FV(B11,"Price")</f>
         <v>110.38</v>
       </c>
-      <c r="J10" s="65">
+      <c r="I11" s="41">
         <v>110.86</v>
       </c>
-      <c r="K10" s="65">
-        <f>F10*J10</f>
-        <v>196111.34</v>
-      </c>
-      <c r="L10" s="62">
-        <f>(J10-G10)*F10</f>
+      <c r="J11" s="40">
+        <f t="shared" si="1"/>
         <v>-3891.8000000000052</v>
       </c>
-      <c r="M10" s="62" cm="1">
-        <f t="array" aca="1" ref="M10" ca="1">_FV(B10,"52 week high",TRUE)</f>
+      <c r="K11" s="40" cm="1">
+        <f t="array" aca="1" ref="K11" ca="1">_FV(B11,"52 week high",TRUE)</f>
         <v>123.74</v>
       </c>
-      <c r="N10" s="62" cm="1">
-        <f t="array" aca="1" ref="N10" ca="1">_FV(B10,"52 week low",TRUE)</f>
+      <c r="L11" s="40" cm="1">
+        <f t="array" aca="1" ref="L11" ca="1">_FV(B11,"52 week low",TRUE)</f>
         <v>83.91</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="89" t="e" vm="4">
+    <row r="12" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="76" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="C11" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="C11" ca="1">_FV(B11,"Ticker symbol",TRUE)</f>
+      <c r="C12" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C12" ca="1">_FV(B12,"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="D11" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="D11" ca="1">_FV(B11,"Industry")</f>
+      <c r="D12" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="D12" ca="1">_FV(B12,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="E11" s="59"/>
-      <c r="F11" s="63">
+      <c r="E12" s="77">
         <v>-241</v>
       </c>
-      <c r="G11" s="64">
+      <c r="F12" s="78">
         <v>415.06</v>
       </c>
-      <c r="H11" s="85">
-        <f>G11*F11</f>
+      <c r="G12" s="38">
+        <f t="shared" si="0"/>
         <v>-100029.46</v>
       </c>
-      <c r="I11" s="61" cm="1">
-        <f t="array" aca="1" ref="I11" ca="1">_FV(B11,"Price")</f>
+      <c r="H12" s="39" cm="1">
+        <f t="array" aca="1" ref="H12" ca="1">_FV(B12,"Price")</f>
         <v>408.43</v>
       </c>
-      <c r="J11" s="65">
+      <c r="I12" s="41">
         <v>409.75</v>
       </c>
-      <c r="K11" s="65">
-        <f>F11*J11</f>
-        <v>-98749.75</v>
-      </c>
-      <c r="L11" s="62">
-        <f>(J11-G11)*F11</f>
+      <c r="J12" s="40">
+        <f t="shared" si="1"/>
         <v>1279.7100000000005</v>
       </c>
-      <c r="M11" s="62" cm="1">
-        <f t="array" aca="1" ref="M11" ca="1">_FV(B11,"52 week high",TRUE)</f>
+      <c r="K12" s="40" cm="1">
+        <f t="array" aca="1" ref="K12" ca="1">_FV(B12,"52 week high",TRUE)</f>
         <v>468.35</v>
       </c>
-      <c r="N11" s="62" cm="1">
-        <f t="array" aca="1" ref="N11" ca="1">_FV(B11,"52 week low",TRUE)</f>
+      <c r="L12" s="40" cm="1">
+        <f t="array" aca="1" ref="L12" ca="1">_FV(B12,"52 week low",TRUE)</f>
         <v>385.58</v>
       </c>
     </row>
-    <row r="12" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="89" t="e" vm="5">
+    <row r="13" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="76" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="C12" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="C12" ca="1">_FV(B12,"Ticker symbol",TRUE)</f>
+      <c r="C13" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C13" ca="1">_FV(B13,"Ticker symbol",TRUE)</f>
         <v>CVX</v>
       </c>
-      <c r="D12" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="D12" ca="1">_FV(B12,"Industry")</f>
+      <c r="D13" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="D13" ca="1">_FV(B13,"Industry")</f>
         <v>Oil &amp; Gas</v>
       </c>
-      <c r="E12" s="59"/>
-      <c r="F12" s="63">
+      <c r="E13" s="77">
         <v>-2681</v>
       </c>
-      <c r="G12" s="64">
+      <c r="F13" s="78">
         <v>149.19</v>
       </c>
-      <c r="H12" s="85">
-        <f>G12*F12</f>
+      <c r="G13" s="38">
+        <f t="shared" si="0"/>
         <v>-399978.39</v>
       </c>
-      <c r="I12" s="61" cm="1">
-        <f t="array" aca="1" ref="I12" ca="1">_FV(B12,"Price")</f>
+      <c r="H13" s="39" cm="1">
+        <f t="array" aca="1" ref="H13" ca="1">_FV(B13,"Price")</f>
         <v>155.26499999999999</v>
       </c>
-      <c r="J12" s="65">
+      <c r="I13" s="41">
         <v>152.62</v>
       </c>
-      <c r="K12" s="65">
-        <f>F12*J12</f>
-        <v>-409174.22000000003</v>
-      </c>
-      <c r="L12" s="62">
-        <f>(J12-G12)*F12</f>
+      <c r="J13" s="40">
+        <f t="shared" si="1"/>
         <v>-9195.8300000000181</v>
       </c>
-      <c r="M12" s="62" cm="1">
-        <f t="array" aca="1" ref="M12" ca="1">_FV(B12,"52 week high",TRUE)</f>
+      <c r="K13" s="40" cm="1">
+        <f t="array" aca="1" ref="K13" ca="1">_FV(B13,"52 week high",TRUE)</f>
         <v>167.11</v>
       </c>
-      <c r="N12" s="62" cm="1">
-        <f t="array" aca="1" ref="N12" ca="1">_FV(B12,"52 week low",TRUE)</f>
+      <c r="L13" s="40" cm="1">
+        <f t="array" aca="1" ref="L13" ca="1">_FV(B13,"52 week low",TRUE)</f>
         <v>135.3672</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="89" t="e" vm="6">
+    <row r="14" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="76" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="C13" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="C13" ca="1">_FV(B13,"Ticker symbol",TRUE)</f>
+      <c r="C14" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C14" ca="1">_FV(B14,"Ticker symbol",TRUE)</f>
         <v>AAPL</v>
       </c>
-      <c r="D13" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="D13" ca="1">_FV(B13,"Industry")</f>
+      <c r="D14" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="D14" ca="1">_FV(B14,"Industry")</f>
         <v>Computers, Phones &amp; Household Electronics</v>
       </c>
-      <c r="E13" s="59"/>
-      <c r="F13" s="63">
+      <c r="E14" s="77">
         <v>-173</v>
       </c>
-      <c r="G13" s="64">
+      <c r="F14" s="78">
         <v>227.63</v>
       </c>
-      <c r="H13" s="85">
-        <f>F13*G13</f>
+      <c r="G14" s="38">
+        <f>E14*F14</f>
         <v>-39379.99</v>
       </c>
-      <c r="I13" s="61" cm="1">
-        <f t="array" aca="1" ref="I13" ca="1">_FV(B13,"Price")</f>
+      <c r="H14" s="39" cm="1">
+        <f t="array" aca="1" ref="H14" ca="1">_FV(B14,"Price")</f>
         <v>244.6</v>
       </c>
-      <c r="J13" s="65" cm="1">
-        <f t="array" aca="1" ref="J13" ca="1">_FV(B13,"Price")</f>
+      <c r="I14" s="41" cm="1">
+        <f t="array" aca="1" ref="I14" ca="1">_FV(B14,"Price")</f>
         <v>244.6</v>
       </c>
-      <c r="K13" s="65">
-        <f ca="1">F13*J13</f>
-        <v>-42315.799999999996</v>
-      </c>
-      <c r="L13" s="62">
-        <f ca="1">(J13-G13)*F13</f>
+      <c r="J14" s="40">
+        <f t="shared" ca="1" si="1"/>
         <v>-2935.81</v>
       </c>
-      <c r="M13" s="62" cm="1">
-        <f t="array" aca="1" ref="M13" ca="1">_FV(B13,"52 week high",TRUE)</f>
+      <c r="K14" s="40" cm="1">
+        <f t="array" aca="1" ref="K14" ca="1">_FV(B14,"52 week high",TRUE)</f>
         <v>260.10000000000002</v>
       </c>
-      <c r="N13" s="62" cm="1">
-        <f t="array" aca="1" ref="N13" ca="1">_FV(B13,"52 week low",TRUE)</f>
+      <c r="L14" s="40" cm="1">
+        <f t="array" aca="1" ref="L14" ca="1">_FV(B14,"52 week low",TRUE)</f>
         <v>164.07499999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="58"/>
-      <c r="B14" s="80" t="e" vm="5">
+    <row r="15" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="76" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="C14" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="C14" ca="1">_FV(B14,"Ticker symbol",TRUE)</f>
+      <c r="C15" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C15" ca="1">_FV(B15,"Ticker symbol",TRUE)</f>
         <v>CVX</v>
       </c>
-      <c r="D14" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="D14" ca="1">_FV(B14,"Industry")</f>
+      <c r="D15" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="D15" ca="1">_FV(B15,"Industry")</f>
         <v>Oil &amp; Gas</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="63">
+      <c r="E15" s="77">
         <v>-259</v>
       </c>
-      <c r="G14" s="64">
+      <c r="F15" s="78">
         <v>152.62</v>
       </c>
-      <c r="H14" s="85">
-        <f>F14*G14</f>
+      <c r="G15" s="38">
+        <f t="shared" ref="G15:G44" si="2">E15*F15</f>
         <v>-39528.58</v>
       </c>
-      <c r="I14" s="61" cm="1">
-        <f t="array" aca="1" ref="I14" ca="1">_FV(B14,"Price")</f>
+      <c r="H15" s="39" cm="1">
+        <f t="array" aca="1" ref="H15" ca="1">_FV(B15,"Price")</f>
         <v>155.26499999999999</v>
       </c>
-      <c r="J14" s="65" cm="1">
-        <f t="array" aca="1" ref="J14" ca="1">_FV(B14,"Price")</f>
+      <c r="I15" s="41" cm="1">
+        <f t="array" aca="1" ref="I15" ca="1">_FV(B15,"Price")</f>
         <v>155.26499999999999</v>
       </c>
-      <c r="K14" s="65">
-        <f ca="1">F14*J14</f>
-        <v>-40213.634999999995</v>
-      </c>
-      <c r="L14" s="62">
-        <f ca="1">(J14-G14)*F14</f>
+      <c r="J15" s="40">
+        <f t="shared" ca="1" si="1"/>
         <v>-685.05499999999529</v>
       </c>
-      <c r="M14" s="62" cm="1">
-        <f t="array" aca="1" ref="M14" ca="1">_FV(B14,"52 week high",TRUE)</f>
+      <c r="K15" s="40" cm="1">
+        <f t="array" aca="1" ref="K15" ca="1">_FV(B15,"52 week high",TRUE)</f>
         <v>167.11</v>
       </c>
-      <c r="N14" s="62" cm="1">
-        <f t="array" aca="1" ref="N14" ca="1">_FV(B14,"52 week low",TRUE)</f>
+      <c r="L15" s="40" cm="1">
+        <f t="array" aca="1" ref="L15" ca="1">_FV(B15,"52 week low",TRUE)</f>
         <v>135.3672</v>
       </c>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="58"/>
-      <c r="W14" s="58"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="58"/>
-      <c r="Z14" s="58"/>
-      <c r="AA14" s="58"/>
     </row>
-    <row r="15" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58"/>
-      <c r="B15" s="80" t="e" vm="7">
+    <row r="16" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="76" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="C15" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="C15" ca="1">_FV(B15,"Ticker symbol",TRUE)</f>
+      <c r="C16" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C16" ca="1">_FV(B16,"Ticker symbol",TRUE)</f>
         <v>PG</v>
       </c>
-      <c r="D15" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="D15" ca="1">_FV(B15,"Industry")</f>
+      <c r="D16" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="D16" ca="1">_FV(B16,"Industry")</f>
         <v>Personal &amp; Household Products &amp; Services</v>
       </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="63">
+      <c r="E16" s="77">
         <v>235</v>
       </c>
-      <c r="G15" s="64">
+      <c r="F16" s="78">
         <v>167.97</v>
       </c>
-      <c r="H15" s="85">
-        <f>F15*G15</f>
+      <c r="G16" s="38">
+        <f t="shared" si="2"/>
         <v>39472.949999999997</v>
       </c>
-      <c r="I15" s="61" cm="1">
-        <f t="array" aca="1" ref="I15" ca="1">_FV(B15,"Price")</f>
+      <c r="H16" s="39" cm="1">
+        <f t="array" aca="1" ref="H16" ca="1">_FV(B16,"Price")</f>
         <v>162.9</v>
       </c>
-      <c r="J15" s="65" cm="1">
-        <f t="array" aca="1" ref="J15" ca="1">_FV(B15,"Price")</f>
+      <c r="I16" s="41" cm="1">
+        <f t="array" aca="1" ref="I16" ca="1">_FV(B16,"Price")</f>
         <v>162.9</v>
       </c>
-      <c r="K15" s="65">
-        <f ca="1">F15*J15</f>
-        <v>38281.5</v>
-      </c>
-      <c r="L15" s="62">
-        <f ca="1">(J15-G15)*F15</f>
+      <c r="J16" s="40">
+        <f t="shared" ca="1" si="1"/>
         <v>-1191.4499999999985</v>
       </c>
-      <c r="M15" s="62" cm="1">
-        <f t="array" aca="1" ref="M15" ca="1">_FV(B15,"52 week high",TRUE)</f>
+      <c r="K16" s="40" cm="1">
+        <f t="array" aca="1" ref="K16" ca="1">_FV(B16,"52 week high",TRUE)</f>
         <v>180.43</v>
       </c>
-      <c r="N15" s="62" cm="1">
-        <f t="array" aca="1" ref="N15" ca="1">_FV(B15,"52 week low",TRUE)</f>
+      <c r="L16" s="40" cm="1">
+        <f t="array" aca="1" ref="L16" ca="1">_FV(B16,"52 week low",TRUE)</f>
         <v>153.52000000000001</v>
       </c>
-      <c r="O15" s="58"/>
-      <c r="P15" s="58"/>
-      <c r="Q15" s="58"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
-      <c r="Y15" s="58"/>
-      <c r="Z15" s="58"/>
-      <c r="AA15" s="58"/>
     </row>
-    <row r="16" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58"/>
-      <c r="B16" s="80" t="e" vm="2">
+    <row r="17" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="76" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="C16" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="C16" ca="1">_FV(B16,"Ticker symbol",TRUE)</f>
+      <c r="C17" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C17" ca="1">_FV(B17,"Ticker symbol",TRUE)</f>
         <v>AXP</v>
       </c>
-      <c r="D16" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="D16" ca="1">_FV(B16,"Industry")</f>
+      <c r="D17" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="D17" ca="1">_FV(B17,"Industry")</f>
         <v>Banking Services</v>
       </c>
-      <c r="E16" s="59"/>
-      <c r="F16" s="63">
+      <c r="E17" s="77">
         <v>125</v>
       </c>
-      <c r="G16" s="64">
+      <c r="F17" s="78">
         <v>316.77</v>
       </c>
-      <c r="H16" s="85">
-        <f>F16*G16</f>
+      <c r="G17" s="38">
+        <f t="shared" si="2"/>
         <v>39596.25</v>
       </c>
-      <c r="I16" s="61" cm="1">
-        <f t="array" aca="1" ref="I16" ca="1">_FV(B16,"Price")</f>
+      <c r="H17" s="39" cm="1">
+        <f t="array" aca="1" ref="H17" ca="1">_FV(B17,"Price")</f>
         <v>311.04000000000002</v>
       </c>
-      <c r="J16" s="65" cm="1">
-        <f t="array" aca="1" ref="J16" ca="1">_FV(B16,"Price")</f>
+      <c r="I17" s="41" cm="1">
+        <f t="array" aca="1" ref="I17" ca="1">_FV(B17,"Price")</f>
         <v>311.04000000000002</v>
       </c>
-      <c r="K16" s="65">
-        <f ca="1">F16*J16</f>
-        <v>38880</v>
-      </c>
-      <c r="L16" s="62">
-        <f ca="1">(J16-G16)*F16</f>
+      <c r="J17" s="40">
+        <f t="shared" ca="1" si="1"/>
         <v>-716.24999999999523</v>
       </c>
-      <c r="M16" s="62" cm="1">
-        <f t="array" aca="1" ref="M16" ca="1">_FV(B16,"52 week high",TRUE)</f>
+      <c r="K17" s="40" cm="1">
+        <f t="array" aca="1" ref="K17" ca="1">_FV(B17,"52 week high",TRUE)</f>
         <v>326.27499999999998</v>
       </c>
-      <c r="N16" s="62" cm="1">
-        <f t="array" aca="1" ref="N16" ca="1">_FV(B16,"52 week low",TRUE)</f>
+      <c r="L17" s="40" cm="1">
+        <f t="array" aca="1" ref="L17" ca="1">_FV(B17,"52 week low",TRUE)</f>
         <v>208.82429999999999</v>
       </c>
-      <c r="O16" s="58"/>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="58"/>
-      <c r="S16" s="58"/>
-      <c r="T16" s="58"/>
-      <c r="U16" s="58"/>
-      <c r="V16" s="58"/>
-      <c r="W16" s="58"/>
-      <c r="X16" s="58"/>
-      <c r="Y16" s="58"/>
-      <c r="Z16" s="58"/>
-      <c r="AA16" s="58"/>
     </row>
-    <row r="17" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89" t="e" vm="8">
+    <row r="18" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="76" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="C17" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="C17" ca="1">_FV(B17,"Ticker symbol",TRUE)</f>
+      <c r="C18" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">_FV(B18,"Ticker symbol",TRUE)</f>
         <v>SHW</v>
       </c>
-      <c r="D17" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="D17" ca="1">_FV(B17,"Industry")</f>
+      <c r="D18" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">_FV(B18,"Industry")</f>
         <v>Chemicals</v>
       </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="63">
+      <c r="E18" s="77">
         <v>110</v>
       </c>
-      <c r="G17" s="64">
+      <c r="F18" s="78">
         <v>360.57</v>
       </c>
-      <c r="H17" s="60">
-        <f>F17*G17</f>
+      <c r="G18" s="38">
+        <f t="shared" si="2"/>
         <v>39662.699999999997</v>
       </c>
-      <c r="I17" s="61" cm="1">
-        <f t="array" aca="1" ref="I17" ca="1">_FV(B17,"Price")</f>
+      <c r="H18" s="39" cm="1">
+        <f t="array" aca="1" ref="H18" ca="1">_FV(B18,"Price")</f>
         <v>356.86</v>
       </c>
-      <c r="J17" s="65" cm="1">
-        <f t="array" aca="1" ref="J17" ca="1">_FV(B17,"Price")</f>
+      <c r="I18" s="41" cm="1">
+        <f t="array" aca="1" ref="I18" ca="1">_FV(B18,"Price")</f>
         <v>356.86</v>
       </c>
-      <c r="K17" s="65">
-        <f ca="1">F17*J17</f>
-        <v>39254.6</v>
-      </c>
-      <c r="L17" s="62">
-        <f ca="1">(J17-G17)*F17</f>
+      <c r="J18" s="40">
+        <f t="shared" ca="1" si="1"/>
         <v>-408.09999999999775</v>
       </c>
-      <c r="M17" s="62" cm="1">
-        <f t="array" aca="1" ref="M17" ca="1">_FV(B17,"52 week high",TRUE)</f>
+      <c r="K18" s="40" cm="1">
+        <f t="array" aca="1" ref="K18" ca="1">_FV(B18,"52 week high",TRUE)</f>
         <v>400.42</v>
       </c>
-      <c r="N17" s="62" cm="1">
-        <f t="array" aca="1" ref="N17" ca="1">_FV(B17,"52 week low",TRUE)</f>
+      <c r="L18" s="40" cm="1">
+        <f t="array" aca="1" ref="L18" ca="1">_FV(B18,"52 week low",TRUE)</f>
         <v>282.08999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="80" t="e" vm="9">
+    <row r="19" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="76" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="C18" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="C18" ca="1">_FV(B18,"Ticker symbol",TRUE)</f>
+      <c r="C19" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="C19" ca="1">_FV(B19,"Ticker symbol",TRUE)</f>
         <v>TRV</v>
       </c>
-      <c r="D18" s="59" t="str" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">_FV(B18,"Industry")</f>
+      <c r="D19" s="37" t="str" cm="1">
+        <f t="array" aca="1" ref="D19" ca="1">_FV(B19,"Industry")</f>
         <v>Insurance</v>
       </c>
-      <c r="E18" s="59"/>
-      <c r="F18" s="63">
+      <c r="E19" s="77">
         <v>161</v>
       </c>
-      <c r="G18" s="64">
+      <c r="F19" s="78">
         <v>245.19</v>
       </c>
-      <c r="H18" s="60">
-        <f>F18*G18</f>
+      <c r="G19" s="38">
+        <f t="shared" si="2"/>
         <v>39475.589999999997</v>
       </c>
-      <c r="I18" s="61" cm="1">
-        <f t="array" aca="1" ref="I18" ca="1">_FV(B18,"Price")</f>
+      <c r="H19" s="39" cm="1">
+        <f t="array" aca="1" ref="H19" ca="1">_FV(B19,"Price")</f>
         <v>238.31</v>
       </c>
-      <c r="J18" s="65" cm="1">
-        <f t="array" aca="1" ref="J18" ca="1">_FV(B18,"Price")</f>
+      <c r="I19" s="41" cm="1">
+        <f t="array" aca="1" ref="I19" ca="1">_FV(B19,"Price")</f>
         <v>238.31</v>
       </c>
-      <c r="K18" s="65">
-        <f ca="1">F18*J18</f>
-        <v>38367.910000000003</v>
-      </c>
-      <c r="L18" s="62">
-        <f ca="1">(J18-G18)*F18</f>
+      <c r="J19" s="40">
+        <f t="shared" ca="1" si="1"/>
         <v>-1107.6799999999994</v>
       </c>
-      <c r="M18" s="62" cm="1">
-        <f t="array" aca="1" ref="M18" ca="1">_FV(B18,"52 week high",TRUE)</f>
+      <c r="K19" s="40" cm="1">
+        <f t="array" aca="1" ref="K19" ca="1">_FV(B19,"52 week high",TRUE)</f>
         <v>269.55500000000001</v>
       </c>
-      <c r="N18" s="62" cm="1">
-        <f t="array" aca="1" ref="N18" ca="1">_FV(B18,"52 week low",TRUE)</f>
+      <c r="L19" s="40" cm="1">
+        <f t="array" aca="1" ref="L19" ca="1">_FV(B19,"52 week low",TRUE)</f>
         <v>200.21</v>
       </c>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="58"/>
-      <c r="Z18" s="58"/>
-      <c r="AA18" s="58"/>
     </row>
-    <row r="19" spans="1:27" s="92" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="93" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="94" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="96">
-        <v>4.2200000000000001E-2</v>
-      </c>
-      <c r="H19" s="97">
-        <v>687077.42</v>
-      </c>
-      <c r="I19" s="98"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99">
-        <f>(1+G19/52)*H19</f>
-        <v>687635.00975238462</v>
-      </c>
-      <c r="L19" s="100">
-        <f>K19-H19</f>
-        <v>557.58975238457788</v>
-      </c>
-      <c r="M19" s="100" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="100" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="83" t="e" vm="4">
+    <row r="20" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42"/>
+      <c r="B20" s="54" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="C20" s="67" t="str" cm="1">
+      <c r="C20" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="C20" ca="1">_FV(B20,"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="D20" s="67" t="str" cm="1">
+      <c r="D20" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="D20" ca="1">_FV(B20,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="66">
+      <c r="E20" s="42">
         <v>-96</v>
       </c>
-      <c r="G20" s="68">
+      <c r="F20" s="44">
         <v>409.75</v>
       </c>
-      <c r="H20" s="69">
-        <f>F20*G20</f>
+      <c r="G20" s="45">
+        <f t="shared" si="2"/>
         <v>-39336</v>
       </c>
-      <c r="I20" s="68" cm="1">
+      <c r="H20" s="44" cm="1">
+        <f t="array" aca="1" ref="H20" ca="1">_FV(B20,"Price")</f>
+        <v>408.43</v>
+      </c>
+      <c r="I20" s="46" cm="1">
         <f t="array" aca="1" ref="I20" ca="1">_FV(B20,"Price")</f>
         <v>408.43</v>
       </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70">
-        <f ca="1">IF(ISBLANK(J20),F20*I20,F20*J20)</f>
-        <v>-39209.279999999999</v>
-      </c>
-      <c r="L20" s="71">
-        <f ca="1">K20-H20</f>
-        <v>126.72000000000116</v>
-      </c>
-      <c r="M20" s="71" cm="1">
-        <f t="array" aca="1" ref="M20" ca="1">_FV(B20,"52 week high",TRUE)</f>
+      <c r="J20" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>126.71999999999935</v>
+      </c>
+      <c r="K20" s="47" cm="1">
+        <f t="array" aca="1" ref="K20" ca="1">_FV(B20,"52 week high",TRUE)</f>
         <v>468.35</v>
       </c>
-      <c r="N20" s="71" cm="1">
-        <f t="array" aca="1" ref="N20" ca="1">_FV(B20,"52 week low",TRUE)</f>
+      <c r="L20" s="47" cm="1">
+        <f t="array" aca="1" ref="L20" ca="1">_FV(B20,"52 week low",TRUE)</f>
         <v>385.58</v>
       </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
     </row>
-    <row r="21" spans="1:27" s="66" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="83" t="e" vm="10">
+    <row r="21" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42"/>
+      <c r="B21" s="54" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="C21" s="67" t="str" cm="1">
+      <c r="C21" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="C21" ca="1">_FV(B21,"Ticker symbol",TRUE)</f>
         <v>UNH</v>
       </c>
-      <c r="D21" s="67" t="str" cm="1">
+      <c r="D21" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="D21" ca="1">_FV(B21,"Industry")</f>
         <v>Healthcare Providers &amp; Services</v>
       </c>
-      <c r="E21" s="67"/>
-      <c r="F21" s="66">
+      <c r="E21" s="42">
         <v>-75</v>
       </c>
-      <c r="G21" s="68">
+      <c r="F21" s="44">
         <v>527.03</v>
       </c>
-      <c r="H21" s="69">
-        <f>F21*G21</f>
+      <c r="G21" s="45">
+        <f t="shared" si="2"/>
         <v>-39527.25</v>
       </c>
-      <c r="I21" s="68" cm="1">
+      <c r="H21" s="44" cm="1">
+        <f t="array" aca="1" ref="H21" ca="1">_FV(B21,"Price")</f>
+        <v>523.35</v>
+      </c>
+      <c r="I21" s="46" cm="1">
         <f t="array" aca="1" ref="I21" ca="1">_FV(B21,"Price")</f>
         <v>523.35</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70">
-        <f ca="1">IF(ISBLANK(J21),F21*I21,F21*J21)</f>
-        <v>-39251.25</v>
-      </c>
-      <c r="L21" s="71">
-        <f ca="1">K21-H21</f>
-        <v>276</v>
-      </c>
-      <c r="M21" s="71" cm="1">
-        <f t="array" aca="1" ref="M21" ca="1">_FV(B21,"52 week high",TRUE)</f>
+      <c r="J21" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>275.99999999999625</v>
+      </c>
+      <c r="K21" s="47" cm="1">
+        <f t="array" aca="1" ref="K21" ca="1">_FV(B21,"52 week high",TRUE)</f>
         <v>630.73</v>
       </c>
-      <c r="N21" s="71" cm="1">
-        <f t="array" aca="1" ref="N21" ca="1">_FV(B21,"52 week low",TRUE)</f>
+      <c r="L21" s="47" cm="1">
+        <f t="array" aca="1" ref="L21" ca="1">_FV(B21,"52 week low",TRUE)</f>
         <v>436.38</v>
       </c>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
     </row>
-    <row r="22" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66"/>
-      <c r="B22" s="83" t="e" vm="11">
+    <row r="22" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42"/>
+      <c r="B22" s="54" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="C22" s="67" t="str" cm="1">
+      <c r="C22" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="C22" ca="1">_FV(B22,"Ticker symbol",TRUE)</f>
         <v>CRM</v>
       </c>
-      <c r="D22" s="67" t="str" cm="1">
+      <c r="D22" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="D22" ca="1">_FV(B22,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
-      <c r="E22" s="67"/>
-      <c r="F22" s="66">
+      <c r="E22" s="42">
         <v>-121</v>
       </c>
-      <c r="G22" s="68">
+      <c r="F22" s="44">
         <v>325.83</v>
       </c>
-      <c r="H22" s="69">
-        <f>F22*G22</f>
+      <c r="G22" s="45">
+        <f t="shared" si="2"/>
         <v>-39425.43</v>
       </c>
-      <c r="I22" s="68" cm="1">
+      <c r="H22" s="44" cm="1">
+        <f t="array" aca="1" ref="H22" ca="1">_FV(B22,"Price")</f>
+        <v>326.54000000000002</v>
+      </c>
+      <c r="I22" s="46" cm="1">
         <f t="array" aca="1" ref="I22" ca="1">_FV(B22,"Price")</f>
         <v>326.54000000000002</v>
       </c>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70">
-        <f ca="1">IF(ISBLANK(J22),F22*I22,F22*J22)</f>
-        <v>-39511.340000000004</v>
-      </c>
-      <c r="L22" s="71">
-        <f ca="1">K22-H22</f>
-        <v>-85.910000000003492</v>
-      </c>
-      <c r="M22" s="71" cm="1">
-        <f t="array" aca="1" ref="M22" ca="1">_FV(B22,"52 week high",TRUE)</f>
+      <c r="J22" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>-85.910000000004402</v>
+      </c>
+      <c r="K22" s="47" cm="1">
+        <f t="array" aca="1" ref="K22" ca="1">_FV(B22,"52 week high",TRUE)</f>
         <v>369</v>
       </c>
-      <c r="N22" s="71" cm="1">
-        <f t="array" aca="1" ref="N22" ca="1">_FV(B22,"52 week low",TRUE)</f>
+      <c r="L22" s="47" cm="1">
+        <f t="array" aca="1" ref="L22" ca="1">_FV(B22,"52 week low",TRUE)</f>
         <v>212</v>
       </c>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
+      <c r="Q22" s="42"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
     </row>
-    <row r="23" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="66"/>
-      <c r="B23" s="83" t="e" vm="12">
+    <row r="23" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42"/>
+      <c r="B23" s="54" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="C23" s="67" t="str" cm="1">
+      <c r="C23" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="C23" ca="1">_FV(B23,"Ticker symbol",TRUE)</f>
         <v>MRK</v>
       </c>
-      <c r="D23" s="67" t="str" cm="1">
+      <c r="D23" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="D23" ca="1">_FV(B23,"Industry")</f>
         <v>Pharmaceuticals</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="66">
+      <c r="E23" s="42">
         <v>-452</v>
       </c>
-      <c r="G23" s="68">
+      <c r="F23" s="44">
         <v>87.28</v>
       </c>
-      <c r="H23" s="69">
-        <f>F23*G23</f>
+      <c r="G23" s="45">
+        <f t="shared" si="2"/>
         <v>-39450.559999999998</v>
       </c>
-      <c r="I23" s="68" cm="1">
+      <c r="H23" s="44" cm="1">
+        <f t="array" aca="1" ref="H23" ca="1">_FV(B23,"Price")</f>
+        <v>83</v>
+      </c>
+      <c r="I23" s="46" cm="1">
         <f t="array" aca="1" ref="I23" ca="1">_FV(B23,"Price")</f>
         <v>83</v>
       </c>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70">
-        <f ca="1">IF(ISBLANK(J23),F23*I23,F23*J23)</f>
-        <v>-37516</v>
-      </c>
-      <c r="L23" s="71">
-        <f ca="1">K23-H23</f>
-        <v>1934.5599999999977</v>
-      </c>
-      <c r="M23" s="71" cm="1">
-        <f t="array" aca="1" ref="M23" ca="1">_FV(B23,"52 week high",TRUE)</f>
+      <c r="J23" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>1934.5600000000004</v>
+      </c>
+      <c r="K23" s="47" cm="1">
+        <f t="array" aca="1" ref="K23" ca="1">_FV(B23,"52 week high",TRUE)</f>
         <v>134.63</v>
       </c>
-      <c r="N23" s="71" cm="1">
-        <f t="array" aca="1" ref="N23" ca="1">_FV(B23,"52 week low",TRUE)</f>
+      <c r="L23" s="47" cm="1">
+        <f t="array" aca="1" ref="L23" ca="1">_FV(B23,"52 week low",TRUE)</f>
         <v>82.093900000000005</v>
       </c>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="42"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
     </row>
-    <row r="24" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="66"/>
-      <c r="B24" s="83" t="e" vm="13">
+    <row r="24" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="42"/>
+      <c r="B24" s="54" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="C24" s="67" t="str" cm="1">
+      <c r="C24" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="C24" ca="1">_FV(B24,"Ticker symbol",TRUE)</f>
         <v>CAT</v>
       </c>
-      <c r="D24" s="67" t="str" cm="1">
+      <c r="D24" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="D24" ca="1">_FV(B24,"Industry")</f>
         <v>Machinery, Equipment &amp; Components</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="66">
+      <c r="E24" s="42">
         <v>-109</v>
       </c>
-      <c r="G24" s="68">
+      <c r="F24" s="44">
         <v>363.88</v>
       </c>
-      <c r="H24" s="69">
-        <f>F24*G24</f>
+      <c r="G24" s="45">
+        <f t="shared" si="2"/>
         <v>-39662.92</v>
       </c>
-      <c r="I24" s="68" cm="1">
+      <c r="H24" s="44" cm="1">
+        <f t="array" aca="1" ref="H24" ca="1">_FV(B24,"Price")</f>
+        <v>353.35</v>
+      </c>
+      <c r="I24" s="46" cm="1">
         <f t="array" aca="1" ref="I24" ca="1">_FV(B24,"Price")</f>
         <v>353.35</v>
       </c>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70">
-        <f ca="1">IF(ISBLANK(J24),F24*I24,F24*J24)</f>
-        <v>-38515.15</v>
-      </c>
-      <c r="L24" s="71">
-        <f ca="1">K24-H24</f>
-        <v>1147.7699999999968</v>
-      </c>
-      <c r="M24" s="71" cm="1">
-        <f t="array" aca="1" ref="M24" ca="1">_FV(B24,"52 week high",TRUE)</f>
+      <c r="J24" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>1147.769999999997</v>
+      </c>
+      <c r="K24" s="47" cm="1">
+        <f t="array" aca="1" ref="K24" ca="1">_FV(B24,"52 week high",TRUE)</f>
         <v>418.5</v>
       </c>
-      <c r="N24" s="71" cm="1">
-        <f t="array" aca="1" ref="N24" ca="1">_FV(B24,"52 week low",TRUE)</f>
+      <c r="L24" s="47" cm="1">
+        <f t="array" aca="1" ref="L24" ca="1">_FV(B24,"52 week low",TRUE)</f>
         <v>307.05</v>
       </c>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
     </row>
-    <row r="25" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66"/>
-      <c r="B25" s="82" t="e" vm="14">
+    <row r="25" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="42"/>
+      <c r="B25" s="54" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="C25" s="67" t="str" cm="1">
+      <c r="C25" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="C25" ca="1">_FV(B25,"Ticker symbol",TRUE)</f>
         <v>HON</v>
       </c>
-      <c r="D25" s="67" t="str" cm="1">
+      <c r="D25" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="D25" ca="1">_FV(B25,"Industry")</f>
         <v>Consumer Goods Conglomerates</v>
       </c>
-      <c r="E25" s="67"/>
-      <c r="F25" s="66">
+      <c r="E25" s="42">
         <v>-192</v>
       </c>
-      <c r="G25" s="68">
+      <c r="F25" s="44">
         <v>205.52</v>
       </c>
-      <c r="H25" s="69">
-        <f>F25*G25</f>
+      <c r="G25" s="45">
+        <f t="shared" si="2"/>
         <v>-39459.840000000004</v>
       </c>
-      <c r="I25" s="68" cm="1">
+      <c r="H25" s="44" cm="1">
+        <f t="array" aca="1" ref="H25" ca="1">_FV(B25,"Price")</f>
+        <v>202.75</v>
+      </c>
+      <c r="I25" s="46" cm="1">
         <f t="array" aca="1" ref="I25" ca="1">_FV(B25,"Price")</f>
         <v>202.75</v>
       </c>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70">
-        <f ca="1">IF(ISBLANK(J25),F25*I25,F25*J25)</f>
-        <v>-38928</v>
-      </c>
-      <c r="L25" s="71">
-        <f ca="1">K25-H25</f>
-        <v>531.84000000000378</v>
-      </c>
-      <c r="M25" s="71" cm="1">
-        <f t="array" aca="1" ref="M25" ca="1">_FV(B25,"52 week high",TRUE)</f>
+      <c r="J25" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>531.84000000000196</v>
+      </c>
+      <c r="K25" s="47" cm="1">
+        <f t="array" aca="1" ref="K25" ca="1">_FV(B25,"52 week high",TRUE)</f>
         <v>242.77</v>
       </c>
-      <c r="N25" s="71" cm="1">
-        <f t="array" aca="1" ref="N25" ca="1">_FV(B25,"52 week low",TRUE)</f>
+      <c r="L25" s="47" cm="1">
+        <f t="array" aca="1" ref="L25" ca="1">_FV(B25,"52 week low",TRUE)</f>
         <v>189.75</v>
       </c>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="66"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
+      <c r="Q25" s="42"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
     </row>
-    <row r="26" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="66"/>
-      <c r="B26" s="82" t="e" vm="15">
+    <row r="26" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42"/>
+      <c r="B26" s="54" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="C26" s="67" t="str" cm="1">
+      <c r="C26" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="C26" ca="1">_FV(B26,"Ticker symbol",TRUE)</f>
         <v>NKE</v>
       </c>
-      <c r="D26" s="67" t="str" cm="1">
+      <c r="D26" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="D26" ca="1">_FV(B26,"Industry")</f>
         <v>Textiles &amp; Apparel</v>
       </c>
-      <c r="E26" s="67"/>
-      <c r="F26" s="66">
+      <c r="E26" s="42">
         <v>-575</v>
       </c>
-      <c r="G26" s="68">
+      <c r="F26" s="44">
         <v>68.680000000000007</v>
       </c>
-      <c r="H26" s="69">
-        <f>F26*G26</f>
+      <c r="G26" s="45">
+        <f t="shared" si="2"/>
         <v>-39491.000000000007</v>
       </c>
-      <c r="I26" s="68" cm="1">
+      <c r="H26" s="44" cm="1">
+        <f t="array" aca="1" ref="H26" ca="1">_FV(B26,"Price")</f>
+        <v>73.040000000000006</v>
+      </c>
+      <c r="I26" s="46" cm="1">
         <f t="array" aca="1" ref="I26" ca="1">_FV(B26,"Price")</f>
         <v>73.040000000000006</v>
       </c>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70">
-        <f ca="1">IF(ISBLANK(J26),F26*I26,F26*J26)</f>
-        <v>-41998</v>
-      </c>
-      <c r="L26" s="71">
-        <f ca="1">K26-H26</f>
-        <v>-2506.9999999999927</v>
-      </c>
-      <c r="M26" s="71" cm="1">
-        <f t="array" aca="1" ref="M26" ca="1">_FV(B26,"52 week high",TRUE)</f>
+      <c r="J26" s="47">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2506.9999999999995</v>
+      </c>
+      <c r="K26" s="47" cm="1">
+        <f t="array" aca="1" ref="K26" ca="1">_FV(B26,"52 week high",TRUE)</f>
         <v>107.34</v>
       </c>
-      <c r="N26" s="71" cm="1">
-        <f t="array" aca="1" ref="N26" ca="1">_FV(B26,"52 week low",TRUE)</f>
+      <c r="L26" s="47" cm="1">
+        <f t="array" aca="1" ref="L26" ca="1">_FV(B26,"52 week low",TRUE)</f>
         <v>68.62</v>
       </c>
-      <c r="O26" s="66"/>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66"/>
-      <c r="S26" s="66"/>
-      <c r="T26" s="66"/>
-      <c r="U26" s="66"/>
-      <c r="V26" s="66"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
+      <c r="Q26" s="42"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
     </row>
-    <row r="27" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="66"/>
-      <c r="B27" s="83" t="e" vm="7">
+    <row r="27" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42"/>
+      <c r="B27" s="54" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="C27" s="67" t="str" cm="1">
+      <c r="C27" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="C27" ca="1">_FV(B27,"Ticker symbol",TRUE)</f>
-        <v>PG</v>
-      </c>
-      <c r="D27" s="67" t="str" cm="1">
+        <v>SHW</v>
+      </c>
+      <c r="D27" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="D27" ca="1">_FV(B27,"Industry")</f>
-        <v>Personal &amp; Household Products &amp; Services</v>
-      </c>
-      <c r="E27" s="67"/>
-      <c r="F27" s="66">
-        <v>-245</v>
-      </c>
-      <c r="G27" s="68">
-        <v>162.9</v>
-      </c>
-      <c r="H27" s="69">
-        <f>F27*G27</f>
-        <v>-39910.5</v>
-      </c>
-      <c r="I27" s="68" cm="1">
+        <v>Chemicals</v>
+      </c>
+      <c r="E27" s="42">
+        <v>-112</v>
+      </c>
+      <c r="F27" s="44">
+        <v>356.86</v>
+      </c>
+      <c r="G27" s="45">
+        <f t="shared" si="2"/>
+        <v>-39968.32</v>
+      </c>
+      <c r="H27" s="44" cm="1">
+        <f t="array" aca="1" ref="H27" ca="1">_FV(B27,"Price")</f>
+        <v>356.86</v>
+      </c>
+      <c r="I27" s="46" cm="1">
         <f t="array" aca="1" ref="I27" ca="1">_FV(B27,"Price")</f>
-        <v>162.9</v>
-      </c>
-      <c r="J27" s="70" cm="1">
-        <f t="array" aca="1" ref="J27" ca="1">_FV(B27,"Price")</f>
-        <v>162.9</v>
-      </c>
-      <c r="K27" s="70">
-        <f ca="1">IF(ISBLANK(J27),F27*I27,F27*J27)</f>
-        <v>-39910.5</v>
-      </c>
-      <c r="L27" s="71">
-        <f ca="1">(J27-G27)*F27</f>
+        <v>356.86</v>
+      </c>
+      <c r="J27" s="47">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="M27" s="71" cm="1">
-        <f t="array" aca="1" ref="M27" ca="1">_FV(B27,"52 week high",TRUE)</f>
-        <v>180.43</v>
-      </c>
-      <c r="N27" s="71" cm="1">
-        <f t="array" aca="1" ref="N27" ca="1">_FV(B27,"52 week low",TRUE)</f>
-        <v>153.52000000000001</v>
-      </c>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
+      <c r="K27" s="47" cm="1">
+        <f t="array" aca="1" ref="K27" ca="1">_FV(B27,"52 week high",TRUE)</f>
+        <v>400.42</v>
+      </c>
+      <c r="L27" s="47" cm="1">
+        <f t="array" aca="1" ref="L27" ca="1">_FV(B27,"52 week low",TRUE)</f>
+        <v>282.08999999999997</v>
+      </c>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
     </row>
-    <row r="28" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="66"/>
-      <c r="B28" s="83" t="e" vm="8">
+    <row r="28" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42"/>
+      <c r="B28" s="54" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="C28" s="67" t="str" cm="1">
+      <c r="C28" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="C28" ca="1">_FV(B28,"Ticker symbol",TRUE)</f>
-        <v>SHW</v>
-      </c>
-      <c r="D28" s="67" t="str" cm="1">
+        <v>TRV</v>
+      </c>
+      <c r="D28" s="43" t="str" cm="1">
         <f t="array" aca="1" ref="D28" ca="1">_FV(B28,"Industry")</f>
-        <v>Chemicals</v>
-      </c>
-      <c r="E28" s="67"/>
-      <c r="F28" s="66">
-        <v>-112</v>
-      </c>
-      <c r="G28" s="68">
-        <v>356.86</v>
-      </c>
-      <c r="H28" s="69">
-        <f>F28*G28</f>
-        <v>-39968.32</v>
-      </c>
-      <c r="I28" s="68" cm="1">
+        <v>Insurance</v>
+      </c>
+      <c r="E28" s="42">
+        <v>-167</v>
+      </c>
+      <c r="F28" s="44">
+        <v>238.31</v>
+      </c>
+      <c r="G28" s="45">
+        <f t="shared" si="2"/>
+        <v>-39797.769999999997</v>
+      </c>
+      <c r="H28" s="44" cm="1">
+        <f t="array" aca="1" ref="H28" ca="1">_FV(B28,"Price")</f>
+        <v>238.31</v>
+      </c>
+      <c r="I28" s="46" cm="1">
         <f t="array" aca="1" ref="I28" ca="1">_FV(B28,"Price")</f>
-        <v>356.86</v>
-      </c>
-      <c r="J28" s="70" cm="1">
-        <f t="array" aca="1" ref="J28" ca="1">_FV(B28,"Price")</f>
-        <v>356.86</v>
-      </c>
-      <c r="K28" s="70">
-        <f ca="1">IF(ISBLANK(J28),F28*I28,F28*J28)</f>
-        <v>-39968.32</v>
-      </c>
-      <c r="L28" s="71">
-        <f ca="1">(J28-G28)*F28</f>
+        <v>238.31</v>
+      </c>
+      <c r="J28" s="47">
+        <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
-      <c r="M28" s="71" cm="1">
-        <f t="array" aca="1" ref="M28" ca="1">_FV(B28,"52 week high",TRUE)</f>
-        <v>400.42</v>
-      </c>
-      <c r="N28" s="71" cm="1">
-        <f t="array" aca="1" ref="N28" ca="1">_FV(B28,"52 week low",TRUE)</f>
-        <v>282.08999999999997</v>
-      </c>
-      <c r="O28" s="66"/>
-      <c r="P28" s="66"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="66"/>
-      <c r="T28" s="66"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
+      <c r="K28" s="47" cm="1">
+        <f t="array" aca="1" ref="K28" ca="1">_FV(B28,"52 week high",TRUE)</f>
+        <v>269.55500000000001</v>
+      </c>
+      <c r="L28" s="47" cm="1">
+        <f t="array" aca="1" ref="L28" ca="1">_FV(B28,"52 week low",TRUE)</f>
+        <v>200.21</v>
+      </c>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="42"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
     </row>
-    <row r="29" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="66"/>
-      <c r="B29" s="83" t="e" vm="9">
+    <row r="29" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="79" t="e" vm="16">
         <v>#VALUE!</v>
       </c>
-      <c r="C29" s="67" t="str" cm="1">
+      <c r="C29" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="C29" ca="1">_FV(B29,"Ticker symbol",TRUE)</f>
-        <v>TRV</v>
-      </c>
-      <c r="D29" s="67" t="str" cm="1">
+        <v>WMT</v>
+      </c>
+      <c r="D29" s="48" t="str" cm="1">
         <f t="array" aca="1" ref="D29" ca="1">_FV(B29,"Industry")</f>
-        <v>Insurance</v>
-      </c>
-      <c r="E29" s="67"/>
-      <c r="F29" s="66">
-        <v>-167</v>
-      </c>
-      <c r="G29" s="68">
-        <v>238.31</v>
-      </c>
-      <c r="H29" s="69">
-        <f>F29*G29</f>
-        <v>-39797.769999999997</v>
-      </c>
-      <c r="I29" s="68" cm="1">
+        <v>Food &amp; Drug Retailing</v>
+      </c>
+      <c r="E29" s="80">
+        <v>390</v>
+      </c>
+      <c r="F29" s="81">
+        <v>101.15</v>
+      </c>
+      <c r="G29" s="51">
+        <f t="shared" si="2"/>
+        <v>39448.5</v>
+      </c>
+      <c r="H29" s="50" cm="1">
+        <f t="array" aca="1" ref="H29" ca="1">_FV(B29,"Price")</f>
+        <v>104.02</v>
+      </c>
+      <c r="I29" s="52" cm="1">
         <f t="array" aca="1" ref="I29" ca="1">_FV(B29,"Price")</f>
-        <v>238.31</v>
-      </c>
-      <c r="J29" s="70" cm="1">
-        <f t="array" aca="1" ref="J29" ca="1">_FV(B29,"Price")</f>
-        <v>238.31</v>
-      </c>
-      <c r="K29" s="70">
-        <f ca="1">IF(ISBLANK(J29),F29*I29,F29*J29)</f>
-        <v>-39797.769999999997</v>
-      </c>
-      <c r="L29" s="71">
-        <f ca="1">(J29-G29)*F29</f>
+        <v>104.02</v>
+      </c>
+      <c r="J29" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1119.2999999999963</v>
+      </c>
+      <c r="K29" s="53" cm="1">
+        <f t="array" aca="1" ref="K29" ca="1">_FV(B29,"52 week high",TRUE)</f>
+        <v>105.3</v>
+      </c>
+      <c r="L29" s="53" cm="1">
+        <f t="array" aca="1" ref="L29" ca="1">_FV(B29,"52 week low",TRUE)</f>
+        <v>55.846600000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="79" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C30" ca="1">_FV(B30,"Ticker symbol",TRUE)</f>
+        <v>JPM</v>
+      </c>
+      <c r="D30" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D30" ca="1">_FV(B30,"Industry")</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="E30" s="80">
+        <v>143</v>
+      </c>
+      <c r="F30" s="81">
+        <v>275.8</v>
+      </c>
+      <c r="G30" s="51">
+        <f t="shared" si="2"/>
+        <v>39439.4</v>
+      </c>
+      <c r="H30" s="50" cm="1">
+        <f t="array" aca="1" ref="H30" ca="1">_FV(B30,"Price")</f>
+        <v>276.58999999999997</v>
+      </c>
+      <c r="I30" s="52" cm="1">
+        <f t="array" aca="1" ref="I30" ca="1">_FV(B30,"Price")</f>
+        <v>276.58999999999997</v>
+      </c>
+      <c r="J30" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>112.9699999999948</v>
+      </c>
+      <c r="K30" s="53" cm="1">
+        <f t="array" aca="1" ref="K30" ca="1">_FV(B30,"52 week high",TRUE)</f>
+        <v>279.23340000000002</v>
+      </c>
+      <c r="L30" s="53" cm="1">
+        <f t="array" aca="1" ref="L30" ca="1">_FV(B30,"52 week low",TRUE)</f>
+        <v>174.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="79" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C31" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C31" ca="1">_FV(B31,"Ticker symbol",TRUE)</f>
+        <v>V</v>
+      </c>
+      <c r="D31" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D31" ca="1">_FV(B31,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="E31" s="80">
+        <v>113</v>
+      </c>
+      <c r="F31" s="81">
+        <v>348.02</v>
+      </c>
+      <c r="G31" s="51">
+        <f t="shared" si="2"/>
+        <v>39326.259999999995</v>
+      </c>
+      <c r="H31" s="50" cm="1">
+        <f t="array" aca="1" ref="H31" ca="1">_FV(B31,"Price")</f>
+        <v>353.77</v>
+      </c>
+      <c r="I31" s="52" cm="1">
+        <f t="array" aca="1" ref="I31" ca="1">_FV(B31,"Price")</f>
+        <v>353.77</v>
+      </c>
+      <c r="J31" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>649.75</v>
+      </c>
+      <c r="K31" s="53" cm="1">
+        <f t="array" aca="1" ref="K31" ca="1">_FV(B31,"52 week high",TRUE)</f>
+        <v>356.08</v>
+      </c>
+      <c r="L31" s="53" cm="1">
+        <f t="array" aca="1" ref="L31" ca="1">_FV(B31,"52 week low",TRUE)</f>
+        <v>252.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="79" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C32" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C32" ca="1">_FV(B32,"Ticker symbol",TRUE)</f>
+        <v>JNJ</v>
+      </c>
+      <c r="D32" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D32" ca="1">_FV(B32,"Industry")</f>
+        <v>Pharmaceuticals</v>
+      </c>
+      <c r="E32" s="80">
+        <v>258</v>
+      </c>
+      <c r="F32" s="81">
+        <v>153.12</v>
+      </c>
+      <c r="G32" s="51">
+        <f t="shared" si="2"/>
+        <v>39504.959999999999</v>
+      </c>
+      <c r="H32" s="50" cm="1">
+        <f t="array" aca="1" ref="H32" ca="1">_FV(B32,"Price")</f>
+        <v>156.1</v>
+      </c>
+      <c r="I32" s="52" cm="1">
+        <f t="array" aca="1" ref="I32" ca="1">_FV(B32,"Price")</f>
+        <v>156.1</v>
+      </c>
+      <c r="J32" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>768.83999999999742</v>
+      </c>
+      <c r="K32" s="53" cm="1">
+        <f t="array" aca="1" ref="K32" ca="1">_FV(B32,"52 week high",TRUE)</f>
+        <v>168.85</v>
+      </c>
+      <c r="L32" s="53" cm="1">
+        <f t="array" aca="1" ref="L32" ca="1">_FV(B32,"52 week low",TRUE)</f>
+        <v>140.68</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="79" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C33" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C33" ca="1">_FV(B33,"Ticker symbol",TRUE)</f>
+        <v>KO</v>
+      </c>
+      <c r="D33" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D33" ca="1">_FV(B33,"Industry")</f>
+        <v>Beverages</v>
+      </c>
+      <c r="E33" s="80">
+        <v>618</v>
+      </c>
+      <c r="F33" s="81">
+        <v>63.84</v>
+      </c>
+      <c r="G33" s="51">
+        <f t="shared" si="2"/>
+        <v>39453.120000000003</v>
+      </c>
+      <c r="H33" s="50" cm="1">
+        <f t="array" aca="1" ref="H33" ca="1">_FV(B33,"Price")</f>
+        <v>68.87</v>
+      </c>
+      <c r="I33" s="52" cm="1">
+        <f t="array" aca="1" ref="I33" ca="1">_FV(B33,"Price")</f>
+        <v>68.87</v>
+      </c>
+      <c r="J33" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>3108.5400000000009</v>
+      </c>
+      <c r="K33" s="53" cm="1">
+        <f t="array" aca="1" ref="K33" ca="1">_FV(B33,"52 week high",TRUE)</f>
+        <v>73.53</v>
+      </c>
+      <c r="L33" s="53" cm="1">
+        <f t="array" aca="1" ref="L33" ca="1">_FV(B33,"52 week low",TRUE)</f>
+        <v>57.93</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="79" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C34" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C34" ca="1">_FV(B34,"Ticker symbol",TRUE)</f>
+        <v>CSCO</v>
+      </c>
+      <c r="D34" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D34" ca="1">_FV(B34,"Industry")</f>
+        <v>Communications &amp; Networking</v>
+      </c>
+      <c r="E34" s="80">
+        <v>634</v>
+      </c>
+      <c r="F34" s="81">
+        <v>62.27</v>
+      </c>
+      <c r="G34" s="51">
+        <f t="shared" si="2"/>
+        <v>39479.18</v>
+      </c>
+      <c r="H34" s="50" cm="1">
+        <f t="array" aca="1" ref="H34" ca="1">_FV(B34,"Price")</f>
+        <v>64.87</v>
+      </c>
+      <c r="I34" s="52" cm="1">
+        <f t="array" aca="1" ref="I34" ca="1">_FV(B34,"Price")</f>
+        <v>64.87</v>
+      </c>
+      <c r="J34" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1648.400000000001</v>
+      </c>
+      <c r="K34" s="53" cm="1">
+        <f t="array" aca="1" ref="K34" ca="1">_FV(B34,"52 week high",TRUE)</f>
+        <v>66.5</v>
+      </c>
+      <c r="L34" s="53" cm="1">
+        <f t="array" aca="1" ref="L34" ca="1">_FV(B34,"52 week low",TRUE)</f>
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="79" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C35" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C35" ca="1">_FV(B35,"Ticker symbol",TRUE)</f>
+        <v>IBM</v>
+      </c>
+      <c r="D35" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D35" ca="1">_FV(B35,"Industry")</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="E35" s="80">
+        <v>156</v>
+      </c>
+      <c r="F35" s="81">
+        <v>252.34</v>
+      </c>
+      <c r="G35" s="51">
+        <f t="shared" si="2"/>
+        <v>39365.040000000001</v>
+      </c>
+      <c r="H35" s="50" cm="1">
+        <f t="array" aca="1" ref="H35" ca="1">_FV(B35,"Price")</f>
+        <v>261.20999999999998</v>
+      </c>
+      <c r="I35" s="52" cm="1">
+        <f t="array" aca="1" ref="I35" ca="1">_FV(B35,"Price")</f>
+        <v>261.20999999999998</v>
+      </c>
+      <c r="J35" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1383.7199999999962</v>
+      </c>
+      <c r="K35" s="53" cm="1">
+        <f t="array" aca="1" ref="K35" ca="1">_FV(B35,"52 week high",TRUE)</f>
+        <v>265.72000000000003</v>
+      </c>
+      <c r="L35" s="53" cm="1">
+        <f t="array" aca="1" ref="L35" ca="1">_FV(B35,"52 week low",TRUE)</f>
+        <v>162.62</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="79" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C36" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C36" ca="1">_FV(B36,"Ticker symbol",TRUE)</f>
+        <v>MCD</v>
+      </c>
+      <c r="D36" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D36" ca="1">_FV(B36,"Industry")</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="E36" s="80">
+        <v>134</v>
+      </c>
+      <c r="F36" s="81">
+        <v>294.3</v>
+      </c>
+      <c r="G36" s="51">
+        <f t="shared" si="2"/>
+        <v>39436.200000000004</v>
+      </c>
+      <c r="H36" s="50" cm="1">
+        <f t="array" aca="1" ref="H36" ca="1">_FV(B36,"Price")</f>
+        <v>308.38</v>
+      </c>
+      <c r="I36" s="52" cm="1">
+        <f t="array" aca="1" ref="I36" ca="1">_FV(B36,"Price")</f>
+        <v>308.38</v>
+      </c>
+      <c r="J36" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>1886.719999999998</v>
+      </c>
+      <c r="K36" s="53" cm="1">
+        <f t="array" aca="1" ref="K36" ca="1">_FV(B36,"52 week high",TRUE)</f>
+        <v>317.89999999999998</v>
+      </c>
+      <c r="L36" s="53" cm="1">
+        <f t="array" aca="1" ref="L36" ca="1">_FV(B36,"52 week low",TRUE)</f>
+        <v>243.53</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="79" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C37" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">_FV(B37,"Ticker symbol",TRUE)</f>
+        <v>GS</v>
+      </c>
+      <c r="D37" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">_FV(B37,"Industry")</f>
+        <v>Investment Banking &amp; Investment Services</v>
+      </c>
+      <c r="E37" s="80">
+        <v>60</v>
+      </c>
+      <c r="F37" s="81">
+        <v>655.9</v>
+      </c>
+      <c r="G37" s="51">
+        <f t="shared" si="2"/>
+        <v>39354</v>
+      </c>
+      <c r="H37" s="50" cm="1">
+        <f t="array" aca="1" ref="H37" ca="1">_FV(B37,"Price")</f>
+        <v>660.25</v>
+      </c>
+      <c r="I37" s="52" cm="1">
+        <f t="array" aca="1" ref="I37" ca="1">_FV(B37,"Price")</f>
+        <v>660.25</v>
+      </c>
+      <c r="J37" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>261.00000000000136</v>
+      </c>
+      <c r="K37" s="53" cm="1">
+        <f t="array" aca="1" ref="K37" ca="1">_FV(B37,"52 week high",TRUE)</f>
+        <v>663.87</v>
+      </c>
+      <c r="L37" s="53" cm="1">
+        <f t="array" aca="1" ref="L37" ca="1">_FV(B37,"52 week low",TRUE)</f>
+        <v>375.77499999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="79" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C38" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C38" ca="1">_FV(B38,"Ticker symbol",TRUE)</f>
+        <v>AMGN</v>
+      </c>
+      <c r="D38" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D38" ca="1">_FV(B38,"Industry")</f>
+        <v>Pharmaceuticals</v>
+      </c>
+      <c r="E38" s="80">
+        <v>135</v>
+      </c>
+      <c r="F38" s="81">
+        <v>293.54000000000002</v>
+      </c>
+      <c r="G38" s="51">
+        <f t="shared" si="2"/>
+        <v>39627.9</v>
+      </c>
+      <c r="H38" s="50" cm="1">
+        <f t="array" aca="1" ref="H38" ca="1">_FV(B38,"Price")</f>
+        <v>291.16000000000003</v>
+      </c>
+      <c r="I38" s="52" cm="1">
+        <f t="array" aca="1" ref="I38" ca="1">_FV(B38,"Price")</f>
+        <v>291.16000000000003</v>
+      </c>
+      <c r="J38" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>-321.29999999999939</v>
+      </c>
+      <c r="K38" s="53" cm="1">
+        <f t="array" aca="1" ref="K38" ca="1">_FV(B38,"52 week high",TRUE)</f>
+        <v>346.85</v>
+      </c>
+      <c r="L38" s="53" cm="1">
+        <f t="array" aca="1" ref="L38" ca="1">_FV(B38,"52 week low",TRUE)</f>
+        <v>253.3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="79" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C39" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C39" ca="1">_FV(B39,"Ticker symbol",TRUE)</f>
+        <v>MMM</v>
+      </c>
+      <c r="D39" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D39" ca="1">_FV(B39,"Industry")</f>
+        <v>Consumer Goods Conglomerates</v>
+      </c>
+      <c r="E39" s="80">
+        <v>263</v>
+      </c>
+      <c r="F39" s="81">
+        <v>149.87</v>
+      </c>
+      <c r="G39" s="51">
+        <f t="shared" si="2"/>
+        <v>39415.81</v>
+      </c>
+      <c r="H39" s="50" cm="1">
+        <f t="array" aca="1" ref="H39" ca="1">_FV(B39,"Price")</f>
+        <v>148.62</v>
+      </c>
+      <c r="I39" s="52" cm="1">
+        <f t="array" aca="1" ref="I39" ca="1">_FV(B39,"Price")</f>
+        <v>148.62</v>
+      </c>
+      <c r="J39" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>-328.75</v>
+      </c>
+      <c r="K39" s="53" cm="1">
+        <f t="array" aca="1" ref="K39" ca="1">_FV(B39,"52 week high",TRUE)</f>
+        <v>155</v>
+      </c>
+      <c r="L39" s="53" cm="1">
+        <f t="array" aca="1" ref="L39" ca="1">_FV(B39,"52 week low",TRUE)</f>
+        <v>75.645099999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="79" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C40" ca="1">_FV(B40,"Ticker symbol",TRUE)</f>
+        <v>BA</v>
+      </c>
+      <c r="D40" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D40" ca="1">_FV(B40,"Industry")</f>
+        <v>Aerospace &amp; Defense</v>
+      </c>
+      <c r="E40" s="80">
+        <v>218</v>
+      </c>
+      <c r="F40" s="81">
+        <v>181.49</v>
+      </c>
+      <c r="G40" s="51">
+        <f t="shared" si="2"/>
+        <v>39564.82</v>
+      </c>
+      <c r="H40" s="50" cm="1">
+        <f t="array" aca="1" ref="H40" ca="1">_FV(B40,"Price")</f>
+        <v>184.42</v>
+      </c>
+      <c r="I40" s="52" cm="1">
+        <f t="array" aca="1" ref="I40" ca="1">_FV(B40,"Price")</f>
+        <v>184.42</v>
+      </c>
+      <c r="J40" s="53">
+        <f t="shared" ca="1" si="1"/>
+        <v>638.73999999999523</v>
+      </c>
+      <c r="K40" s="53" cm="1">
+        <f t="array" aca="1" ref="K40" ca="1">_FV(B40,"52 week high",TRUE)</f>
+        <v>208.1</v>
+      </c>
+      <c r="L40" s="53" cm="1">
+        <f t="array" aca="1" ref="L40" ca="1">_FV(B40,"52 week low",TRUE)</f>
+        <v>137.03</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="79" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C41" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">_FV(B41,"Ticker symbol",TRUE)</f>
+        <v>AAPL</v>
+      </c>
+      <c r="D41" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D41" ca="1">_FV(B41,"Industry")</f>
+        <v>Computers, Phones &amp; Household Electronics</v>
+      </c>
+      <c r="E41" s="80">
+        <v>163</v>
+      </c>
+      <c r="F41" s="81">
+        <v>244.6</v>
+      </c>
+      <c r="G41" s="51">
+        <f t="shared" si="2"/>
+        <v>39869.799999999996</v>
+      </c>
+      <c r="H41" s="50" cm="1">
+        <f t="array" aca="1" ref="H41" ca="1">_FV(B41,"Price")</f>
+        <v>244.6</v>
+      </c>
+      <c r="I41" s="52" cm="1">
+        <f t="array" aca="1" ref="I41" ca="1">_FV(B41,"Price")</f>
+        <v>244.6</v>
+      </c>
+      <c r="J41" s="53">
+        <f t="shared" ref="J41:J44" ca="1" si="3">(I41-F41)*E41</f>
         <v>0</v>
       </c>
-      <c r="M29" s="71" cm="1">
-        <f t="array" aca="1" ref="M29" ca="1">_FV(B29,"52 week high",TRUE)</f>
-        <v>269.55500000000001</v>
-      </c>
-      <c r="N29" s="71" cm="1">
-        <f t="array" aca="1" ref="N29" ca="1">_FV(B29,"52 week low",TRUE)</f>
-        <v>200.21</v>
-      </c>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
+      <c r="K41" s="53" cm="1">
+        <f t="array" aca="1" ref="K41" ca="1">_FV(B41,"52 week high",TRUE)</f>
+        <v>260.10000000000002</v>
+      </c>
+      <c r="L41" s="53" cm="1">
+        <f t="array" aca="1" ref="L41" ca="1">_FV(B41,"52 week low",TRUE)</f>
+        <v>164.07499999999999</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="72" t="e" vm="16">
+    <row r="42" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="79" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="C30" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C30" ca="1">_FV(B30,"Ticker symbol",TRUE)</f>
-        <v>WMT</v>
-      </c>
-      <c r="D30" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D30" ca="1">_FV(B30,"Industry")</f>
-        <v>Food &amp; Drug Retailing</v>
-      </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="74">
-        <v>390</v>
-      </c>
-      <c r="G30" s="75">
-        <v>101.15</v>
-      </c>
-      <c r="H30" s="76">
-        <f>F30*G30</f>
-        <v>39448.5</v>
-      </c>
-      <c r="I30" s="75" cm="1">
-        <f t="array" aca="1" ref="I30" ca="1">_FV(B30,"Price")</f>
-        <v>104.02</v>
-      </c>
-      <c r="J30" s="77" cm="1">
-        <f t="array" aca="1" ref="J30" ca="1">_FV(B30,"Price")</f>
-        <v>104.02</v>
-      </c>
-      <c r="K30" s="77">
-        <f ca="1">IF(ISBLANK(J30),F30*I30,F30*J30)</f>
-        <v>40567.799999999996</v>
-      </c>
-      <c r="L30" s="78">
-        <f ca="1">(J30-G30)*F30</f>
-        <v>1119.2999999999963</v>
-      </c>
-      <c r="M30" s="78" cm="1">
-        <f t="array" aca="1" ref="M30" ca="1">_FV(B30,"52 week high",TRUE)</f>
-        <v>105.3</v>
-      </c>
-      <c r="N30" s="78" cm="1">
-        <f t="array" aca="1" ref="N30" ca="1">_FV(B30,"52 week low",TRUE)</f>
-        <v>55.846600000000002</v>
+      <c r="C42" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">_FV(B42,"Ticker symbol",TRUE)</f>
+        <v>CVX</v>
+      </c>
+      <c r="D42" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D42" ca="1">_FV(B42,"Industry")</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="E42" s="80">
+        <v>257</v>
+      </c>
+      <c r="F42" s="81">
+        <v>155.26499999999999</v>
+      </c>
+      <c r="G42" s="51">
+        <f t="shared" si="2"/>
+        <v>39903.104999999996</v>
+      </c>
+      <c r="H42" s="50" cm="1">
+        <f t="array" aca="1" ref="H42" ca="1">_FV(B42,"Price")</f>
+        <v>155.26499999999999</v>
+      </c>
+      <c r="I42" s="52" cm="1">
+        <f t="array" aca="1" ref="I42" ca="1">_FV(B42,"Price")</f>
+        <v>155.26499999999999</v>
+      </c>
+      <c r="J42" s="53">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="53" cm="1">
+        <f t="array" aca="1" ref="K42" ca="1">_FV(B42,"52 week high",TRUE)</f>
+        <v>167.11</v>
+      </c>
+      <c r="L42" s="53" cm="1">
+        <f t="array" aca="1" ref="L42" ca="1">_FV(B42,"52 week low",TRUE)</f>
+        <v>135.3672</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="74"/>
-      <c r="B31" s="81" t="e" vm="17">
+    <row r="43" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="79" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
-      <c r="C31" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C31" ca="1">_FV(B31,"Ticker symbol",TRUE)</f>
-        <v>JPM</v>
-      </c>
-      <c r="D31" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D31" ca="1">_FV(B31,"Industry")</f>
-        <v>Banking Services</v>
-      </c>
-      <c r="E31" s="73"/>
-      <c r="F31" s="74">
-        <v>143</v>
-      </c>
-      <c r="G31" s="75">
-        <v>275.8</v>
-      </c>
-      <c r="H31" s="76">
-        <f>F31*G31</f>
-        <v>39439.4</v>
-      </c>
-      <c r="I31" s="75" cm="1">
-        <f t="array" aca="1" ref="I31" ca="1">_FV(B31,"Price")</f>
-        <v>276.58999999999997</v>
-      </c>
-      <c r="J31" s="77" cm="1">
-        <f t="array" aca="1" ref="J31" ca="1">_FV(B31,"Price")</f>
-        <v>276.58999999999997</v>
-      </c>
-      <c r="K31" s="77">
-        <f ca="1">IF(ISBLANK(J31),F31*I31,F31*J31)</f>
-        <v>39552.369999999995</v>
-      </c>
-      <c r="L31" s="78">
-        <f ca="1">(J31-G31)*F31</f>
-        <v>112.9699999999948</v>
-      </c>
-      <c r="M31" s="78" cm="1">
-        <f t="array" aca="1" ref="M31" ca="1">_FV(B31,"52 week high",TRUE)</f>
-        <v>279.23340000000002</v>
-      </c>
-      <c r="N31" s="78" cm="1">
-        <f t="array" aca="1" ref="N31" ca="1">_FV(B31,"52 week low",TRUE)</f>
-        <v>174.42</v>
-      </c>
-      <c r="O31" s="74"/>
-      <c r="P31" s="74"/>
-      <c r="Q31" s="74"/>
-      <c r="R31" s="74"/>
-      <c r="S31" s="74"/>
-      <c r="T31" s="74"/>
-      <c r="U31" s="74"/>
-      <c r="V31" s="74"/>
-      <c r="W31" s="74"/>
-      <c r="X31" s="74"/>
-      <c r="Y31" s="74"/>
-      <c r="Z31" s="74"/>
-      <c r="AA31" s="74"/>
+      <c r="C43" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C43" ca="1">_FV(B43,"Ticker symbol",TRUE)</f>
+        <v>VZ</v>
+      </c>
+      <c r="D43" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D43" ca="1">_FV(B43,"Industry")</f>
+        <v>Telecommunications Services</v>
+      </c>
+      <c r="E43" s="80">
+        <v>975</v>
+      </c>
+      <c r="F43" s="81">
+        <v>40.99</v>
+      </c>
+      <c r="G43" s="51">
+        <f t="shared" si="2"/>
+        <v>39965.25</v>
+      </c>
+      <c r="H43" s="50" cm="1">
+        <f t="array" aca="1" ref="H43" ca="1">_FV(B43,"Price")</f>
+        <v>40.99</v>
+      </c>
+      <c r="I43" s="52" cm="1">
+        <f t="array" aca="1" ref="I43" ca="1">_FV(B43,"Price")</f>
+        <v>40.99</v>
+      </c>
+      <c r="J43" s="53">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="53" cm="1">
+        <f t="array" aca="1" ref="K43" ca="1">_FV(B43,"52 week high",TRUE)</f>
+        <v>45.36</v>
+      </c>
+      <c r="L43" s="53" cm="1">
+        <f t="array" aca="1" ref="L43" ca="1">_FV(B43,"52 week low",TRUE)</f>
+        <v>37.585000000000001</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72" t="e" vm="18">
+    <row r="44" spans="2:12" s="49" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="79" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
-      <c r="C32" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C32" ca="1">_FV(B32,"Ticker symbol",TRUE)</f>
-        <v>V</v>
-      </c>
-      <c r="D32" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D32" ca="1">_FV(B32,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="E32" s="73"/>
-      <c r="F32" s="74">
-        <v>113</v>
-      </c>
-      <c r="G32" s="75">
-        <v>348.02</v>
-      </c>
-      <c r="H32" s="76">
-        <f>F32*G32</f>
-        <v>39326.259999999995</v>
-      </c>
-      <c r="I32" s="75" cm="1">
-        <f t="array" aca="1" ref="I32" ca="1">_FV(B32,"Price")</f>
-        <v>353.77</v>
-      </c>
-      <c r="J32" s="77" cm="1">
-        <f t="array" aca="1" ref="J32" ca="1">_FV(B32,"Price")</f>
-        <v>353.77</v>
-      </c>
-      <c r="K32" s="77">
-        <f ca="1">IF(ISBLANK(J32),F32*I32,F32*J32)</f>
-        <v>39976.009999999995</v>
-      </c>
-      <c r="L32" s="78">
-        <f ca="1">(J32-G32)*F32</f>
-        <v>649.75</v>
-      </c>
-      <c r="M32" s="78" cm="1">
-        <f t="array" aca="1" ref="M32" ca="1">_FV(B32,"52 week high",TRUE)</f>
-        <v>356.08</v>
-      </c>
-      <c r="N32" s="78" cm="1">
-        <f t="array" aca="1" ref="N32" ca="1">_FV(B32,"52 week low",TRUE)</f>
-        <v>252.7</v>
+      <c r="C44" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="C44" ca="1">_FV(B44,"Ticker symbol",TRUE)</f>
+        <v>NVDA</v>
+      </c>
+      <c r="D44" s="48" t="str" cm="1">
+        <f t="array" aca="1" ref="D44" ca="1">_FV(B44,"Industry")</f>
+        <v>Semiconductors &amp; Semiconductor Equipment</v>
+      </c>
+      <c r="E44" s="80">
+        <v>288</v>
+      </c>
+      <c r="F44" s="81">
+        <v>138.85</v>
+      </c>
+      <c r="G44" s="51">
+        <f t="shared" si="2"/>
+        <v>39988.799999999996</v>
+      </c>
+      <c r="H44" s="50" cm="1">
+        <f t="array" aca="1" ref="H44" ca="1">_FV(B44,"Price")</f>
+        <v>138.85</v>
+      </c>
+      <c r="I44" s="52" cm="1">
+        <f t="array" aca="1" ref="I44" ca="1">_FV(B44,"Price")</f>
+        <v>138.85</v>
+      </c>
+      <c r="J44" s="53">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="53" cm="1">
+        <f t="array" aca="1" ref="K44" ca="1">_FV(B44,"52 week high",TRUE)</f>
+        <v>153.13</v>
+      </c>
+      <c r="L44" s="53" cm="1">
+        <f t="array" aca="1" ref="L44" ca="1">_FV(B44,"52 week low",TRUE)</f>
+        <v>66.248000000000005</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="72" t="e" vm="19">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C33" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C33" ca="1">_FV(B33,"Ticker symbol",TRUE)</f>
-        <v>JNJ</v>
-      </c>
-      <c r="D33" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D33" ca="1">_FV(B33,"Industry")</f>
-        <v>Pharmaceuticals</v>
-      </c>
-      <c r="E33" s="73"/>
-      <c r="F33" s="74">
-        <v>258</v>
-      </c>
-      <c r="G33" s="75">
-        <v>153.12</v>
-      </c>
-      <c r="H33" s="76">
-        <f>F33*G33</f>
-        <v>39504.959999999999</v>
-      </c>
-      <c r="I33" s="75" cm="1">
-        <f t="array" aca="1" ref="I33" ca="1">_FV(B33,"Price")</f>
-        <v>156.1</v>
-      </c>
-      <c r="J33" s="77" cm="1">
-        <f t="array" aca="1" ref="J33" ca="1">_FV(B33,"Price")</f>
-        <v>156.1</v>
-      </c>
-      <c r="K33" s="77">
-        <f ca="1">IF(ISBLANK(J33),F33*I33,F33*J33)</f>
-        <v>40273.799999999996</v>
-      </c>
-      <c r="L33" s="78">
-        <f ca="1">(J33-G33)*F33</f>
-        <v>768.83999999999742</v>
-      </c>
-      <c r="M33" s="78" cm="1">
-        <f t="array" aca="1" ref="M33" ca="1">_FV(B33,"52 week high",TRUE)</f>
-        <v>168.85</v>
-      </c>
-      <c r="N33" s="78" cm="1">
-        <f t="array" aca="1" ref="N33" ca="1">_FV(B33,"52 week low",TRUE)</f>
-        <v>140.68</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="91" t="e" vm="20">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C34" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C34" ca="1">_FV(B34,"Ticker symbol",TRUE)</f>
-        <v>KO</v>
-      </c>
-      <c r="D34" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D34" ca="1">_FV(B34,"Industry")</f>
-        <v>Beverages</v>
-      </c>
-      <c r="E34" s="73"/>
-      <c r="F34" s="74">
-        <v>618</v>
-      </c>
-      <c r="G34" s="75">
-        <v>63.84</v>
-      </c>
-      <c r="H34" s="76">
-        <f>F34*G34</f>
-        <v>39453.120000000003</v>
-      </c>
-      <c r="I34" s="75" cm="1">
-        <f t="array" aca="1" ref="I34" ca="1">_FV(B34,"Price")</f>
-        <v>68.87</v>
-      </c>
-      <c r="J34" s="77" cm="1">
-        <f t="array" aca="1" ref="J34" ca="1">_FV(B34,"Price")</f>
-        <v>68.87</v>
-      </c>
-      <c r="K34" s="77">
-        <f ca="1">IF(ISBLANK(J34),F34*I34,F34*J34)</f>
-        <v>42561.66</v>
-      </c>
-      <c r="L34" s="78">
-        <f ca="1">(J34-G34)*F34</f>
-        <v>3108.5400000000009</v>
-      </c>
-      <c r="M34" s="78" cm="1">
-        <f t="array" aca="1" ref="M34" ca="1">_FV(B34,"52 week high",TRUE)</f>
-        <v>73.53</v>
-      </c>
-      <c r="N34" s="78" cm="1">
-        <f t="array" aca="1" ref="N34" ca="1">_FV(B34,"52 week low",TRUE)</f>
-        <v>57.93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
-      <c r="B35" s="81" t="e" vm="21">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C35" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C35" ca="1">_FV(B35,"Ticker symbol",TRUE)</f>
-        <v>CSCO</v>
-      </c>
-      <c r="D35" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D35" ca="1">_FV(B35,"Industry")</f>
-        <v>Communications &amp; Networking</v>
-      </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="74">
-        <v>634</v>
-      </c>
-      <c r="G35" s="75">
-        <v>62.27</v>
-      </c>
-      <c r="H35" s="76">
-        <f>F35*G35</f>
-        <v>39479.18</v>
-      </c>
-      <c r="I35" s="75" cm="1">
-        <f t="array" aca="1" ref="I35" ca="1">_FV(B35,"Price")</f>
-        <v>64.87</v>
-      </c>
-      <c r="J35" s="77" cm="1">
-        <f t="array" aca="1" ref="J35" ca="1">_FV(B35,"Price")</f>
-        <v>64.87</v>
-      </c>
-      <c r="K35" s="77">
-        <f ca="1">IF(ISBLANK(J35),F35*I35,F35*J35)</f>
-        <v>41127.58</v>
-      </c>
-      <c r="L35" s="78">
-        <f ca="1">(J35-G35)*F35</f>
-        <v>1648.400000000001</v>
-      </c>
-      <c r="M35" s="78" cm="1">
-        <f t="array" aca="1" ref="M35" ca="1">_FV(B35,"52 week high",TRUE)</f>
-        <v>66.5</v>
-      </c>
-      <c r="N35" s="78" cm="1">
-        <f t="array" aca="1" ref="N35" ca="1">_FV(B35,"52 week low",TRUE)</f>
-        <v>44.5</v>
-      </c>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
-    </row>
-    <row r="36" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="72" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C36" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C36" ca="1">_FV(B36,"Ticker symbol",TRUE)</f>
-        <v>IBM</v>
-      </c>
-      <c r="D36" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D36" ca="1">_FV(B36,"Industry")</f>
-        <v>Software &amp; IT Services</v>
-      </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="74">
-        <v>156</v>
-      </c>
-      <c r="G36" s="75">
-        <v>252.34</v>
-      </c>
-      <c r="H36" s="76">
-        <f>F36*G36</f>
-        <v>39365.040000000001</v>
-      </c>
-      <c r="I36" s="75" cm="1">
-        <f t="array" aca="1" ref="I36" ca="1">_FV(B36,"Price")</f>
-        <v>261.20999999999998</v>
-      </c>
-      <c r="J36" s="77" cm="1">
-        <f t="array" aca="1" ref="J36" ca="1">_FV(B36,"Price")</f>
-        <v>261.20999999999998</v>
-      </c>
-      <c r="K36" s="77">
-        <f ca="1">IF(ISBLANK(J36),F36*I36,F36*J36)</f>
-        <v>40748.759999999995</v>
-      </c>
-      <c r="L36" s="78">
-        <f ca="1">(J36-G36)*F36</f>
-        <v>1383.7199999999962</v>
-      </c>
-      <c r="M36" s="78" cm="1">
-        <f t="array" aca="1" ref="M36" ca="1">_FV(B36,"52 week high",TRUE)</f>
-        <v>265.72000000000003</v>
-      </c>
-      <c r="N36" s="78" cm="1">
-        <f t="array" aca="1" ref="N36" ca="1">_FV(B36,"52 week low",TRUE)</f>
-        <v>162.62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="81" t="e" vm="22">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C37" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C37" ca="1">_FV(B37,"Ticker symbol",TRUE)</f>
-        <v>MCD</v>
-      </c>
-      <c r="D37" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D37" ca="1">_FV(B37,"Industry")</f>
-        <v>Hotels &amp; Entertainment Services</v>
-      </c>
-      <c r="E37" s="73"/>
-      <c r="F37" s="74">
-        <v>134</v>
-      </c>
-      <c r="G37" s="75">
-        <v>294.3</v>
-      </c>
-      <c r="H37" s="76">
-        <f>F37*G37</f>
-        <v>39436.200000000004</v>
-      </c>
-      <c r="I37" s="75" cm="1">
-        <f t="array" aca="1" ref="I37" ca="1">_FV(B37,"Price")</f>
-        <v>308.38</v>
-      </c>
-      <c r="J37" s="77" cm="1">
-        <f t="array" aca="1" ref="J37" ca="1">_FV(B37,"Price")</f>
-        <v>308.38</v>
-      </c>
-      <c r="K37" s="77">
-        <f ca="1">IF(ISBLANK(J37),F37*I37,F37*J37)</f>
-        <v>41322.92</v>
-      </c>
-      <c r="L37" s="78">
-        <f ca="1">(J37-G37)*F37</f>
-        <v>1886.719999999998</v>
-      </c>
-      <c r="M37" s="78" cm="1">
-        <f t="array" aca="1" ref="M37" ca="1">_FV(B37,"52 week high",TRUE)</f>
-        <v>317.89999999999998</v>
-      </c>
-      <c r="N37" s="78" cm="1">
-        <f t="array" aca="1" ref="N37" ca="1">_FV(B37,"52 week low",TRUE)</f>
-        <v>243.53</v>
-      </c>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="74"/>
-    </row>
-    <row r="38" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="81" t="e" vm="23">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C38" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C38" ca="1">_FV(B38,"Ticker symbol",TRUE)</f>
-        <v>GS</v>
-      </c>
-      <c r="D38" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D38" ca="1">_FV(B38,"Industry")</f>
-        <v>Investment Banking &amp; Investment Services</v>
-      </c>
-      <c r="E38" s="73"/>
-      <c r="F38" s="74">
-        <v>60</v>
-      </c>
-      <c r="G38" s="75">
-        <v>655.9</v>
-      </c>
-      <c r="H38" s="76">
-        <f>F38*G38</f>
-        <v>39354</v>
-      </c>
-      <c r="I38" s="75" cm="1">
-        <f t="array" aca="1" ref="I38" ca="1">_FV(B38,"Price")</f>
-        <v>660.25</v>
-      </c>
-      <c r="J38" s="77" cm="1">
-        <f t="array" aca="1" ref="J38" ca="1">_FV(B38,"Price")</f>
-        <v>660.25</v>
-      </c>
-      <c r="K38" s="77">
-        <f ca="1">IF(ISBLANK(J38),F38*I38,F38*J38)</f>
-        <v>39615</v>
-      </c>
-      <c r="L38" s="78">
-        <f ca="1">(J38-G38)*F38</f>
-        <v>261.00000000000136</v>
-      </c>
-      <c r="M38" s="78" cm="1">
-        <f t="array" aca="1" ref="M38" ca="1">_FV(B38,"52 week high",TRUE)</f>
-        <v>663.87</v>
-      </c>
-      <c r="N38" s="78" cm="1">
-        <f t="array" aca="1" ref="N38" ca="1">_FV(B38,"52 week low",TRUE)</f>
-        <v>375.77499999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="81" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C39" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C39" ca="1">_FV(B39,"Ticker symbol",TRUE)</f>
-        <v>AMGN</v>
-      </c>
-      <c r="D39" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D39" ca="1">_FV(B39,"Industry")</f>
-        <v>Pharmaceuticals</v>
-      </c>
-      <c r="E39" s="73"/>
-      <c r="F39" s="74">
-        <v>135</v>
-      </c>
-      <c r="G39" s="75">
-        <v>293.54000000000002</v>
-      </c>
-      <c r="H39" s="76">
-        <f>F39*G39</f>
-        <v>39627.9</v>
-      </c>
-      <c r="I39" s="75" cm="1">
-        <f t="array" aca="1" ref="I39" ca="1">_FV(B39,"Price")</f>
-        <v>291.16000000000003</v>
-      </c>
-      <c r="J39" s="77" cm="1">
-        <f t="array" aca="1" ref="J39" ca="1">_FV(B39,"Price")</f>
-        <v>291.16000000000003</v>
-      </c>
-      <c r="K39" s="77">
-        <f ca="1">IF(ISBLANK(J39),F39*I39,F39*J39)</f>
-        <v>39306.600000000006</v>
-      </c>
-      <c r="L39" s="78">
-        <f ca="1">(J39-G39)*F39</f>
-        <v>-321.29999999999939</v>
-      </c>
-      <c r="M39" s="78" cm="1">
-        <f t="array" aca="1" ref="M39" ca="1">_FV(B39,"52 week high",TRUE)</f>
-        <v>346.85</v>
-      </c>
-      <c r="N39" s="78" cm="1">
-        <f t="array" aca="1" ref="N39" ca="1">_FV(B39,"52 week low",TRUE)</f>
-        <v>253.3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="91" t="e" vm="25">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C40" ca="1">_FV(B40,"Ticker symbol",TRUE)</f>
-        <v>MMM</v>
-      </c>
-      <c r="D40" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D40" ca="1">_FV(B40,"Industry")</f>
-        <v>Consumer Goods Conglomerates</v>
-      </c>
-      <c r="E40" s="73"/>
-      <c r="F40" s="74">
-        <v>263</v>
-      </c>
-      <c r="G40" s="75">
-        <v>149.87</v>
-      </c>
-      <c r="H40" s="76">
-        <f>F40*G40</f>
-        <v>39415.81</v>
-      </c>
-      <c r="I40" s="75" cm="1">
-        <f t="array" aca="1" ref="I40" ca="1">_FV(B40,"Price")</f>
-        <v>148.62</v>
-      </c>
-      <c r="J40" s="77" cm="1">
-        <f t="array" aca="1" ref="J40" ca="1">_FV(B40,"Price")</f>
-        <v>148.62</v>
-      </c>
-      <c r="K40" s="77">
-        <f ca="1">IF(ISBLANK(J40),F40*I40,F40*J40)</f>
-        <v>39087.06</v>
-      </c>
-      <c r="L40" s="78">
-        <f ca="1">(J40-G40)*F40</f>
-        <v>-328.75</v>
-      </c>
-      <c r="M40" s="78" cm="1">
-        <f t="array" aca="1" ref="M40" ca="1">_FV(B40,"52 week high",TRUE)</f>
-        <v>155</v>
-      </c>
-      <c r="N40" s="78" cm="1">
-        <f t="array" aca="1" ref="N40" ca="1">_FV(B40,"52 week low",TRUE)</f>
-        <v>75.645099999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="79" t="e" vm="26">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C41" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C41" ca="1">_FV(B41,"Ticker symbol",TRUE)</f>
-        <v>BA</v>
-      </c>
-      <c r="D41" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D41" ca="1">_FV(B41,"Industry")</f>
-        <v>Aerospace &amp; Defense</v>
-      </c>
-      <c r="F41" s="74">
-        <v>218</v>
-      </c>
-      <c r="G41" s="75">
-        <v>181.49</v>
-      </c>
-      <c r="H41" s="76">
-        <f>F41*G41</f>
-        <v>39564.82</v>
-      </c>
-      <c r="I41" s="75" cm="1">
-        <f t="array" aca="1" ref="I41" ca="1">_FV(B41,"Price")</f>
-        <v>184.42</v>
-      </c>
-      <c r="J41" s="77" cm="1">
-        <f t="array" aca="1" ref="J41" ca="1">_FV(B41,"Price")</f>
-        <v>184.42</v>
-      </c>
-      <c r="K41" s="77">
-        <f ca="1">IF(ISBLANK(J41),F41*I41,F41*J41)</f>
-        <v>40203.56</v>
-      </c>
-      <c r="L41" s="78">
-        <f ca="1">(J41-G41)*F41</f>
-        <v>638.73999999999523</v>
-      </c>
-      <c r="M41" s="78" cm="1">
-        <f t="array" aca="1" ref="M41" ca="1">_FV(B41,"52 week high",TRUE)</f>
-        <v>208.1</v>
-      </c>
-      <c r="N41" s="78" cm="1">
-        <f t="array" aca="1" ref="N41" ca="1">_FV(B41,"52 week low",TRUE)</f>
-        <v>137.03</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" s="74" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="87" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C42" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C42" ca="1">_FV(B42,"Ticker symbol",TRUE)</f>
-        <v>AAPL</v>
-      </c>
-      <c r="D42" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D42" ca="1">_FV(B42,"Industry")</f>
-        <v>Computers, Phones &amp; Household Electronics</v>
-      </c>
-      <c r="F42" s="57">
-        <v>163</v>
-      </c>
-      <c r="G42" s="88">
-        <v>244.6</v>
-      </c>
-      <c r="H42" s="76">
-        <f>F42*G42</f>
-        <v>39869.799999999996</v>
-      </c>
-      <c r="I42" s="75" cm="1">
-        <f t="array" aca="1" ref="I42" ca="1">_FV(B42,"Price")</f>
-        <v>244.6</v>
-      </c>
-      <c r="J42" s="77" cm="1">
-        <f t="array" aca="1" ref="J42" ca="1">_FV(B42,"Price")</f>
-        <v>244.6</v>
-      </c>
-      <c r="K42" s="77">
-        <f ca="1">IF(ISBLANK(J42),F42*I42,F42*J42)</f>
-        <v>39869.799999999996</v>
-      </c>
-      <c r="L42" s="78">
-        <f ca="1">(J42-G42)*F42</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="78" cm="1">
-        <f t="array" aca="1" ref="M42" ca="1">_FV(B42,"52 week high",TRUE)</f>
-        <v>260.10000000000002</v>
-      </c>
-      <c r="N42" s="78" cm="1">
-        <f t="array" aca="1" ref="N42" ca="1">_FV(B42,"52 week low",TRUE)</f>
-        <v>164.07499999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="90" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C43" ca="1">_FV(B43,"Ticker symbol",TRUE)</f>
-        <v>CVX</v>
-      </c>
-      <c r="D43" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D43" ca="1">_FV(B43,"Industry")</f>
-        <v>Oil &amp; Gas</v>
-      </c>
-      <c r="E43" s="74"/>
-      <c r="F43" s="57">
-        <v>257</v>
-      </c>
-      <c r="G43" s="88">
-        <v>155.26499999999999</v>
-      </c>
-      <c r="H43" s="76">
-        <f>F43*G43</f>
-        <v>39903.104999999996</v>
-      </c>
-      <c r="I43" s="75" cm="1">
-        <f t="array" aca="1" ref="I43" ca="1">_FV(B43,"Price")</f>
-        <v>155.26499999999999</v>
-      </c>
-      <c r="J43" s="77" cm="1">
-        <f t="array" aca="1" ref="J43" ca="1">_FV(B43,"Price")</f>
-        <v>155.26499999999999</v>
-      </c>
-      <c r="K43" s="77">
-        <f ca="1">IF(ISBLANK(J43),F43*I43,F43*J43)</f>
-        <v>39903.104999999996</v>
-      </c>
-      <c r="L43" s="78">
-        <f ca="1">(J43-G43)*F43</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="78" cm="1">
-        <f t="array" aca="1" ref="M43" ca="1">_FV(B43,"52 week high",TRUE)</f>
-        <v>167.11</v>
-      </c>
-      <c r="N43" s="78" cm="1">
-        <f t="array" aca="1" ref="N43" ca="1">_FV(B43,"52 week low",TRUE)</f>
-        <v>135.3672</v>
-      </c>
-      <c r="O43" s="74"/>
-      <c r="P43" s="74"/>
-      <c r="Q43" s="74"/>
-      <c r="R43" s="74"/>
-      <c r="S43" s="74"/>
-      <c r="T43" s="74"/>
-      <c r="U43" s="74"/>
-      <c r="V43" s="74"/>
-      <c r="W43" s="74"/>
-      <c r="X43" s="74"/>
-      <c r="Y43" s="74"/>
-      <c r="Z43" s="74"/>
-      <c r="AA43" s="74"/>
-    </row>
-    <row r="44" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="74"/>
-      <c r="B44" s="87" t="e" vm="27">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C44" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C44" ca="1">_FV(B44,"Ticker symbol",TRUE)</f>
-        <v>VZ</v>
-      </c>
-      <c r="D44" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D44" ca="1">_FV(B44,"Industry")</f>
-        <v>Telecommunications Services</v>
-      </c>
-      <c r="E44" s="74"/>
-      <c r="F44" s="57">
-        <v>975</v>
-      </c>
-      <c r="G44" s="88">
-        <v>40.99</v>
-      </c>
-      <c r="H44" s="76">
-        <f>F44*G44</f>
-        <v>39965.25</v>
-      </c>
-      <c r="I44" s="75" cm="1">
-        <f t="array" aca="1" ref="I44" ca="1">_FV(B44,"Price")</f>
-        <v>40.99</v>
-      </c>
-      <c r="J44" s="77" cm="1">
-        <f t="array" aca="1" ref="J44" ca="1">_FV(B44,"Price")</f>
-        <v>40.99</v>
-      </c>
-      <c r="K44" s="77">
-        <f ca="1">IF(ISBLANK(J44),F44*I44,F44*J44)</f>
-        <v>39965.25</v>
-      </c>
-      <c r="L44" s="78">
-        <f ca="1">(J44-G44)*F44</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="78" cm="1">
-        <f t="array" aca="1" ref="M44" ca="1">_FV(B44,"52 week high",TRUE)</f>
-        <v>45.36</v>
-      </c>
-      <c r="N44" s="78" cm="1">
-        <f t="array" aca="1" ref="N44" ca="1">_FV(B44,"52 week low",TRUE)</f>
-        <v>37.585000000000001</v>
-      </c>
-      <c r="O44" s="74"/>
-      <c r="P44" s="74"/>
-      <c r="Q44" s="74"/>
-      <c r="R44" s="74"/>
-      <c r="S44" s="74"/>
-      <c r="T44" s="74"/>
-      <c r="U44" s="74"/>
-      <c r="V44" s="74"/>
-      <c r="W44" s="74"/>
-      <c r="X44" s="74"/>
-      <c r="Y44" s="74"/>
-      <c r="Z44" s="74"/>
-      <c r="AA44" s="74"/>
-    </row>
-    <row r="45" spans="1:27" s="58" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="74"/>
-      <c r="B45" s="87" t="e" vm="28">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C45" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="C45" ca="1">_FV(B45,"Ticker symbol",TRUE)</f>
-        <v>NVDA</v>
-      </c>
-      <c r="D45" s="73" t="str" cm="1">
-        <f t="array" aca="1" ref="D45" ca="1">_FV(B45,"Industry")</f>
-        <v>Semiconductors &amp; Semiconductor Equipment</v>
-      </c>
-      <c r="E45" s="74"/>
-      <c r="F45" s="57">
-        <v>288</v>
-      </c>
-      <c r="G45" s="88">
-        <v>138.85</v>
-      </c>
-      <c r="H45" s="76">
-        <f>F45*G45</f>
-        <v>39988.799999999996</v>
-      </c>
-      <c r="I45" s="75" cm="1">
-        <f t="array" aca="1" ref="I45" ca="1">_FV(B45,"Price")</f>
-        <v>138.85</v>
-      </c>
-      <c r="J45" s="77" cm="1">
-        <f t="array" aca="1" ref="J45" ca="1">_FV(B45,"Price")</f>
-        <v>138.85</v>
-      </c>
-      <c r="K45" s="77">
-        <f ca="1">IF(ISBLANK(J45),F45*I45,F45*J45)</f>
-        <v>39988.799999999996</v>
-      </c>
-      <c r="L45" s="78">
-        <f ca="1">(J45-G45)*F45</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="78" cm="1">
-        <f t="array" aca="1" ref="M45" ca="1">_FV(B45,"52 week high",TRUE)</f>
-        <v>153.13</v>
-      </c>
-      <c r="N45" s="78" cm="1">
-        <f t="array" aca="1" ref="N45" ca="1">_FV(B45,"52 week low",TRUE)</f>
-        <v>66.248000000000005</v>
-      </c>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="74"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="74"/>
-      <c r="W45" s="74"/>
-      <c r="X45" s="74"/>
-      <c r="Y45" s="74"/>
-      <c r="Z45" s="74"/>
-      <c r="AA45" s="74"/>
-    </row>
+    <row r="49" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="52" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6888,1862 +6526,2053 @@
     <row r="1013" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1014" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1015" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="1016" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A7:AA38" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:AA45">
-      <sortCondition sortBy="cellColor" ref="H7:H38" dxfId="0"/>
+  <autoFilter ref="A7:V37" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:V44">
+      <sortCondition sortBy="cellColor" ref="H7:H37" dxfId="6"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="B2:E3"/>
-    <mergeCell ref="B6:N6"/>
+    <mergeCell ref="B6:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L996"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="3" max="3" width="39.5546875" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" customWidth="1"/>
-    <col min="8" max="10" width="25.109375" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="39.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="11" width="25.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" customWidth="1"/>
     <col min="13" max="25" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="K2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
+        <v>21</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="9" t="str">
+        <f>VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>U.S. Treasury</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="17">
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="14">
         <v>1000</v>
       </c>
-      <c r="G3" s="22">
+      <c r="H3" s="18">
         <v>1000</v>
       </c>
-      <c r="H3" s="10">
-        <f>Transactions!$G3*Transactions!$F3</f>
+      <c r="I3" s="10">
+        <f>Transactions!$H3*Transactions!$G3</f>
         <v>1000000</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>0</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>1000000</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>14</v>
+      <c r="L3" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="e" vm="1">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="D4" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D4" s="1" t="str">
-        <f t="array" aca="1" ref="D4" ca="1">_FV(Transactions!$C4,"Ticker symbol",TRUE)</f>
+      <c r="E4" s="1" t="str">
+        <f t="array" aca="1" ref="E4" ca="1">_FV(Transactions!$D4,"Ticker symbol",TRUE)</f>
         <v>IBM</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="17">
+      <c r="F4" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14">
         <v>782</v>
       </c>
-      <c r="G4" s="22">
+      <c r="H4" s="18">
         <v>255.7</v>
       </c>
-      <c r="H4" s="10">
-        <f>Transactions!$G4*Transactions!$F4</f>
+      <c r="I4" s="10">
+        <f>Transactions!$H4*Transactions!$G4</f>
         <v>199957.4</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J4" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>399.91480000000001</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K4" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>199557.4852</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>14</v>
+      <c r="L4" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="e" vm="2">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="D5" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D5" s="1" t="str">
-        <f t="array" aca="1" ref="D5" ca="1">_FV(Transactions!$C5,"Ticker symbol",TRUE)</f>
+      <c r="E5" s="1" t="str">
+        <f t="array" aca="1" ref="E5" ca="1">_FV(Transactions!$D5,"Ticker symbol",TRUE)</f>
         <v>AXP</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="17">
+      <c r="F5" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="14">
         <v>315</v>
       </c>
-      <c r="G5" s="22">
+      <c r="H5" s="18">
         <v>317.45</v>
       </c>
-      <c r="H5" s="10">
-        <f>Transactions!$G5*Transactions!$F5</f>
+      <c r="I5" s="10">
+        <f>Transactions!$H5*Transactions!$G5</f>
         <v>99996.75</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J5" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>199.99350000000001</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K5" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>99796.756500000003</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>14</v>
+      <c r="L5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="e" vm="3">
+        <v>17</v>
+      </c>
+      <c r="C6" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Media &amp; Publishing</v>
+      </c>
+      <c r="D6" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="D6" s="1" t="str">
-        <f t="array" aca="1" ref="D6" ca="1">_FV(Transactions!$C6,"Ticker symbol",TRUE)</f>
+      <c r="E6" s="1" t="str">
+        <f t="array" aca="1" ref="E6" ca="1">_FV(Transactions!$D6,"Ticker symbol",TRUE)</f>
         <v>DIS</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="F6" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="14">
         <v>1769</v>
       </c>
-      <c r="G6" s="22">
+      <c r="H6" s="18">
         <v>113.06</v>
       </c>
-      <c r="H6" s="10">
-        <f>Transactions!$G6*Transactions!$F6</f>
+      <c r="I6" s="10">
+        <f>Transactions!$H6*Transactions!$G6</f>
         <v>200003.14</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J6" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>400.00628000000006</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K6" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>199603.13372000001</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>14</v>
+      <c r="L6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="D7" s="1" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="array" aca="1" ref="E7" ca="1">_FV(Transactions!$D7,"Ticker symbol",TRUE)</f>
+        <v>MSFT</v>
+      </c>
+      <c r="F7" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f t="array" aca="1" ref="D7" ca="1">_FV(Transactions!$C7,"Ticker symbol",TRUE)</f>
-        <v>MSFT</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="17">
+      <c r="G7" s="14">
         <v>-241</v>
       </c>
-      <c r="G7" s="22">
+      <c r="H7" s="18">
         <v>415.06</v>
       </c>
-      <c r="H7" s="10">
-        <f>Transactions!$G7*Transactions!$F7</f>
+      <c r="I7" s="10">
+        <f>Transactions!$H7*Transactions!$G7</f>
         <v>-100029.46</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J7" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>200.05892000000003</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K7" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-100229.51892</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>14</v>
+      <c r="L7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="D8" s="1" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="array" aca="1" ref="E8" ca="1">_FV(Transactions!$D8,"Ticker symbol",TRUE)</f>
+        <v>CVX</v>
+      </c>
+      <c r="F8" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D8" s="1" t="str">
-        <f t="array" aca="1" ref="D8" ca="1">_FV(Transactions!$C8,"Ticker symbol",TRUE)</f>
-        <v>CVX</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="17">
+      <c r="G8" s="14">
         <v>-2681</v>
       </c>
-      <c r="G8" s="22">
+      <c r="H8" s="18">
         <v>149.19</v>
       </c>
-      <c r="H8" s="10">
-        <f>Transactions!$G8*Transactions!$F8</f>
+      <c r="I8" s="10">
+        <f>Transactions!$H8*Transactions!$G8</f>
         <v>-399978.39</v>
       </c>
-      <c r="I8" s="10">
+      <c r="J8" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>799.95678000000009</v>
       </c>
-      <c r="J8" s="10">
+      <c r="K8" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-400778.34678000002</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>14</v>
+      <c r="L8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>45840</v>
       </c>
-      <c r="C9" s="1" t="e" vm="1">
+      <c r="C9" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="D9" s="1" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="D9" s="1" t="str">
-        <f t="array" aca="1" ref="D9" ca="1">_FV(Transactions!$C9,"Ticker symbol",TRUE)</f>
+      <c r="E9" s="1" t="str">
+        <f t="array" aca="1" ref="E9" ca="1">_FV(Transactions!$D9,"Ticker symbol",TRUE)</f>
         <v>IBM</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="17">
+      <c r="F9" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="14">
         <v>-782</v>
       </c>
-      <c r="G9" s="22">
+      <c r="H9" s="18">
         <v>252.34</v>
       </c>
-      <c r="H9" s="10">
-        <f>Transactions!$G9*Transactions!$F9</f>
+      <c r="I9" s="10">
+        <f>Transactions!$H9*Transactions!$G9</f>
         <v>-197329.88</v>
       </c>
-      <c r="I9" s="10">
+      <c r="J9" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>394.65976000000001</v>
       </c>
-      <c r="J9" s="10">
+      <c r="K9" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-197724.53976000001</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>14</v>
+      <c r="L9" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>45840</v>
       </c>
-      <c r="C10" s="1" t="e" vm="2">
+      <c r="C10" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="D10" s="1" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D10" s="1" t="str">
-        <f t="array" aca="1" ref="D10" ca="1">_FV(Transactions!$C10,"Ticker symbol",TRUE)</f>
+      <c r="E10" s="1" t="str">
+        <f t="array" aca="1" ref="E10" ca="1">_FV(Transactions!$D10,"Ticker symbol",TRUE)</f>
         <v>AXP</v>
       </c>
-      <c r="E10" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="17">
+      <c r="F10" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="14">
         <v>315</v>
       </c>
-      <c r="G10" s="22">
+      <c r="H10" s="18">
         <v>316.77</v>
       </c>
-      <c r="H10" s="10">
-        <f>Transactions!$G10*Transactions!$F10</f>
+      <c r="I10" s="10">
+        <f>Transactions!$H10*Transactions!$G10</f>
         <v>99782.549999999988</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J10" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>199.56509999999997</v>
       </c>
-      <c r="J10" s="10">
+      <c r="K10" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>99582.984899999981</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>14</v>
+      <c r="L10" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <v>45840</v>
       </c>
-      <c r="C11" s="1" t="e" vm="3">
+      <c r="C11" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Media &amp; Publishing</v>
+      </c>
+      <c r="D11" s="1" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
-      <c r="D11" s="1" t="str">
-        <f t="array" aca="1" ref="D11" ca="1">_FV(Transactions!$C11,"Ticker symbol",TRUE)</f>
+      <c r="E11" s="1" t="str">
+        <f t="array" aca="1" ref="E11" ca="1">_FV(Transactions!$D11,"Ticker symbol",TRUE)</f>
         <v>DIS</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="17">
+      <c r="F11" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="14">
         <v>1769</v>
       </c>
-      <c r="G11" s="22">
+      <c r="H11" s="18">
         <v>110.86</v>
       </c>
-      <c r="H11" s="10">
-        <f>Transactions!$G11*Transactions!$F11</f>
+      <c r="I11" s="10">
+        <f>Transactions!$H11*Transactions!$G11</f>
         <v>196111.34</v>
       </c>
-      <c r="I11" s="10">
+      <c r="J11" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>392.22268000000003</v>
       </c>
-      <c r="J11" s="10">
+      <c r="K11" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>195719.11731999999</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>14</v>
+      <c r="L11" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <v>45840</v>
       </c>
-      <c r="C12" s="1" t="e" vm="4">
+      <c r="C12" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="D12" s="1" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="D12" s="1" t="str">
-        <f t="array" aca="1" ref="D12" ca="1">_FV(Transactions!$C12,"Ticker symbol",TRUE)</f>
+      <c r="E12" s="1" t="str">
+        <f t="array" aca="1" ref="E12" ca="1">_FV(Transactions!$D12,"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="17">
+      <c r="F12" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="14">
         <v>-241</v>
       </c>
-      <c r="G12" s="22">
+      <c r="H12" s="18">
         <v>409.75</v>
       </c>
-      <c r="H12" s="10">
-        <f>Transactions!$G12*Transactions!$F12</f>
+      <c r="I12" s="10">
+        <f>Transactions!$H12*Transactions!$G12</f>
         <v>-98749.75</v>
       </c>
-      <c r="I12" s="10">
+      <c r="J12" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>197.49950000000001</v>
       </c>
-      <c r="J12" s="10">
+      <c r="K12" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-98947.249500000005</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>14</v>
+      <c r="L12" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <v>45840</v>
       </c>
-      <c r="C13" s="1" t="e" vm="5">
+      <c r="C13" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="D13" s="1" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="D13" s="1" t="str">
-        <f t="array" aca="1" ref="D13" ca="1">_FV(Transactions!$C13,"Ticker symbol",TRUE)</f>
+      <c r="E13" s="1" t="str">
+        <f t="array" aca="1" ref="E13" ca="1">_FV(Transactions!$D13,"Ticker symbol",TRUE)</f>
         <v>CVX</v>
       </c>
-      <c r="E13" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="17">
+      <c r="F13" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="14">
         <v>-2681</v>
       </c>
-      <c r="G13" s="22">
+      <c r="H13" s="18">
         <v>152.62</v>
       </c>
-      <c r="H13" s="10">
-        <f>Transactions!$G13*Transactions!$F13</f>
+      <c r="I13" s="10">
+        <f>Transactions!$H13*Transactions!$G13</f>
         <v>-409174.22000000003</v>
       </c>
-      <c r="I13" s="10">
+      <c r="J13" s="10">
         <f>ABS(Table_1[[#This Row],[Transaction Amount]])*0.002</f>
         <v>818.3484400000001</v>
       </c>
-      <c r="J13" s="10">
+      <c r="K13" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-409992.56844</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>14</v>
+      <c r="L13" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31">
+    <row r="14" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="25">
         <v>45840</v>
       </c>
-      <c r="C14" s="32" t="e" vm="6">
+      <c r="C14" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Computers, Phones &amp; Household Electronics</v>
+      </c>
+      <c r="D14" s="26" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="D14" s="33" t="str">
-        <f t="array" aca="1" ref="D14" ca="1">_FV(Transactions!$C14,"Ticker symbol",TRUE)</f>
+      <c r="E14" s="27" t="str">
+        <f t="array" aca="1" ref="E14" ca="1">_FV(Transactions!$D14,"Ticker symbol",TRUE)</f>
         <v>AAPL</v>
       </c>
-      <c r="E14" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="33">
+      <c r="F14" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="27">
         <v>-173</v>
       </c>
-      <c r="G14" s="35">
+      <c r="H14" s="28">
         <v>227.63</v>
       </c>
-      <c r="H14" s="36">
-        <f>Transactions!$G14*Transactions!$F14</f>
+      <c r="I14" s="29">
+        <f>Transactions!$H14*Transactions!$G14</f>
         <v>-39379.99</v>
       </c>
-      <c r="I14" s="36">
+      <c r="J14" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-78.759979999999999</v>
       </c>
-      <c r="J14" s="36">
+      <c r="K14" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39301.230019999995</v>
       </c>
-      <c r="K14" s="33" t="s">
-        <v>14</v>
+      <c r="L14" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="25">
+    <row r="15" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="20">
         <v>45840</v>
       </c>
-      <c r="C15" s="26" t="e" vm="4">
+      <c r="C15" s="20" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="D15" s="21" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
-      <c r="D15" s="27" t="str">
-        <f t="array" aca="1" ref="D15" ca="1">_FV(Transactions!$C15,"Ticker symbol",TRUE)</f>
+      <c r="E15" s="22" t="str">
+        <f t="array" aca="1" ref="E15" ca="1">_FV(Transactions!$D15,"Ticker symbol",TRUE)</f>
         <v>MSFT</v>
       </c>
-      <c r="E15" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="27">
+      <c r="F15" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="22">
         <v>-96</v>
       </c>
-      <c r="G15" s="29">
+      <c r="H15" s="23">
         <v>409.75</v>
       </c>
-      <c r="H15" s="30">
-        <f>Transactions!$G15*Transactions!$F15</f>
+      <c r="I15" s="24">
+        <f>Transactions!$H15*Transactions!$G15</f>
         <v>-39336</v>
       </c>
-      <c r="I15" s="30">
+      <c r="J15" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-78.671999999999997</v>
       </c>
-      <c r="J15" s="30">
+      <c r="K15" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39257.328000000001</v>
       </c>
-      <c r="K15" s="27" t="s">
-        <v>14</v>
+      <c r="L15" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="16" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="25">
+    <row r="16" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="20">
         <v>45840</v>
       </c>
-      <c r="C16" s="26" t="e" vm="10">
+      <c r="C16" s="20" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Healthcare Providers &amp; Services</v>
+      </c>
+      <c r="D16" s="21" t="e" vm="10">
         <v>#VALUE!</v>
       </c>
-      <c r="D16" s="27" t="str">
-        <f t="array" aca="1" ref="D16" ca="1">_FV(Transactions!$C16,"Ticker symbol",TRUE)</f>
+      <c r="E16" s="22" t="str">
+        <f t="array" aca="1" ref="E16" ca="1">_FV(Transactions!$D16,"Ticker symbol",TRUE)</f>
         <v>UNH</v>
       </c>
-      <c r="E16" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="27">
+      <c r="F16" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="22">
         <v>-75</v>
       </c>
-      <c r="G16" s="29">
+      <c r="H16" s="23">
         <v>527.03</v>
       </c>
-      <c r="H16" s="30">
-        <f>Transactions!$G16*Transactions!$F16</f>
+      <c r="I16" s="24">
+        <f>Transactions!$H16*Transactions!$G16</f>
         <v>-39527.25</v>
       </c>
-      <c r="I16" s="30">
+      <c r="J16" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-79.054500000000004</v>
       </c>
-      <c r="J16" s="30">
+      <c r="K16" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39448.195500000002</v>
       </c>
-      <c r="K16" s="27" t="s">
-        <v>14</v>
+      <c r="L16" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="25">
+    <row r="17" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20">
         <v>45840</v>
       </c>
-      <c r="C17" s="26" t="e" vm="11">
+      <c r="C17" s="20" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="D17" s="21" t="e" vm="11">
         <v>#VALUE!</v>
       </c>
-      <c r="D17" s="27" t="str">
-        <f t="array" aca="1" ref="D17" ca="1">_FV(Transactions!$C17,"Ticker symbol",TRUE)</f>
+      <c r="E17" s="22" t="str">
+        <f t="array" aca="1" ref="E17" ca="1">_FV(Transactions!$D17,"Ticker symbol",TRUE)</f>
         <v>CRM</v>
       </c>
-      <c r="E17" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F17" s="27">
+      <c r="F17" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="22">
         <v>-121</v>
       </c>
-      <c r="G17" s="29">
+      <c r="H17" s="23">
         <v>325.83</v>
       </c>
-      <c r="H17" s="30">
-        <f>Transactions!$G17*Transactions!$F17</f>
+      <c r="I17" s="24">
+        <f>Transactions!$H17*Transactions!$G17</f>
         <v>-39425.43</v>
       </c>
-      <c r="I17" s="30">
+      <c r="J17" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-78.850859999999997</v>
       </c>
-      <c r="J17" s="30">
+      <c r="K17" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39346.579140000002</v>
       </c>
-      <c r="K17" s="27" t="s">
-        <v>14</v>
+      <c r="L17" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31">
+    <row r="18" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="25">
         <v>45840</v>
       </c>
-      <c r="C18" s="32" t="e" vm="5">
+      <c r="C18" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="D18" s="26" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="D18" s="33" t="str">
-        <f t="array" aca="1" ref="D18" ca="1">_FV(Transactions!$C18,"Ticker symbol",TRUE)</f>
+      <c r="E18" s="27" t="str">
+        <f t="array" aca="1" ref="E18" ca="1">_FV(Transactions!$D18,"Ticker symbol",TRUE)</f>
         <v>CVX</v>
       </c>
-      <c r="E18" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="33">
+      <c r="F18" s="89" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="27">
         <v>-259</v>
       </c>
-      <c r="G18" s="35">
+      <c r="H18" s="28">
         <v>152.62</v>
       </c>
-      <c r="H18" s="36">
-        <f>Transactions!$G18*Transactions!$F18</f>
+      <c r="I18" s="29">
+        <f>Transactions!$H18*Transactions!$G18</f>
         <v>-39528.58</v>
       </c>
-      <c r="I18" s="36">
+      <c r="J18" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-79.05716000000001</v>
       </c>
-      <c r="J18" s="36">
+      <c r="K18" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39449.522840000005</v>
       </c>
-      <c r="K18" s="33" t="s">
-        <v>14</v>
+      <c r="L18" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="25">
+    <row r="19" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="20">
         <v>45840</v>
       </c>
-      <c r="C19" s="26" t="e" vm="12">
+      <c r="C19" s="20" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Pharmaceuticals</v>
+      </c>
+      <c r="D19" s="21" t="e" vm="12">
         <v>#VALUE!</v>
       </c>
-      <c r="D19" s="27" t="str">
-        <f t="array" aca="1" ref="D19" ca="1">_FV(Transactions!$C19,"Ticker symbol",TRUE)</f>
+      <c r="E19" s="22" t="str">
+        <f t="array" aca="1" ref="E19" ca="1">_FV(Transactions!$D19,"Ticker symbol",TRUE)</f>
         <v>MRK</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="27">
+      <c r="F19" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="22">
         <v>-452</v>
       </c>
-      <c r="G19" s="29">
+      <c r="H19" s="23">
         <v>87.28</v>
       </c>
-      <c r="H19" s="30">
-        <f>Transactions!$G19*Transactions!$F19</f>
+      <c r="I19" s="24">
+        <f>Transactions!$H19*Transactions!$G19</f>
         <v>-39450.559999999998</v>
       </c>
-      <c r="I19" s="30">
+      <c r="J19" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-78.901119999999992</v>
       </c>
-      <c r="J19" s="30">
+      <c r="K19" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39371.658879999995</v>
       </c>
-      <c r="K19" s="27" t="s">
-        <v>14</v>
+      <c r="L19" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="20" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="25">
+    <row r="20" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="20">
         <v>45840</v>
       </c>
-      <c r="C20" s="26" t="e" vm="13">
+      <c r="C20" s="20" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Machinery, Equipment &amp; Components</v>
+      </c>
+      <c r="D20" s="21" t="e" vm="13">
         <v>#VALUE!</v>
       </c>
-      <c r="D20" s="27" t="str">
-        <f t="array" aca="1" ref="D20" ca="1">_FV(Transactions!$C20,"Ticker symbol",TRUE)</f>
+      <c r="E20" s="22" t="str">
+        <f t="array" aca="1" ref="E20" ca="1">_FV(Transactions!$D20,"Ticker symbol",TRUE)</f>
         <v>CAT</v>
       </c>
-      <c r="E20" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="27">
+      <c r="F20" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="22">
         <v>-109</v>
       </c>
-      <c r="G20" s="29">
+      <c r="H20" s="23">
         <v>363.88</v>
       </c>
-      <c r="H20" s="30">
-        <f>Transactions!$G20*Transactions!$F20</f>
+      <c r="I20" s="24">
+        <f>Transactions!$H20*Transactions!$G20</f>
         <v>-39662.92</v>
       </c>
-      <c r="I20" s="30">
+      <c r="J20" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-79.325839999999999</v>
       </c>
-      <c r="J20" s="30">
+      <c r="K20" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39583.594160000001</v>
       </c>
-      <c r="K20" s="27" t="s">
-        <v>14</v>
+      <c r="L20" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="25">
+    <row r="21" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20">
         <v>45840</v>
       </c>
-      <c r="C21" s="26" t="e" vm="14">
+      <c r="C21" s="20" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Consumer Goods Conglomerates</v>
+      </c>
+      <c r="D21" s="21" t="e" vm="14">
         <v>#VALUE!</v>
       </c>
-      <c r="D21" s="27" t="str">
-        <f t="array" aca="1" ref="D21" ca="1">_FV(Transactions!$C21,"Ticker symbol",TRUE)</f>
+      <c r="E21" s="22" t="str">
+        <f t="array" aca="1" ref="E21" ca="1">_FV(Transactions!$D21,"Ticker symbol",TRUE)</f>
         <v>HON</v>
       </c>
-      <c r="E21" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="27">
+      <c r="F21" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="22">
         <v>-192</v>
       </c>
-      <c r="G21" s="29">
+      <c r="H21" s="23">
         <v>205.52</v>
       </c>
-      <c r="H21" s="30">
-        <f>Transactions!$G21*Transactions!$F21</f>
+      <c r="I21" s="24">
+        <f>Transactions!$H21*Transactions!$G21</f>
         <v>-39459.840000000004</v>
       </c>
-      <c r="I21" s="30">
+      <c r="J21" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-78.919680000000014</v>
       </c>
-      <c r="J21" s="30">
+      <c r="K21" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39380.920320000005</v>
       </c>
-      <c r="K21" s="27" t="s">
-        <v>14</v>
+      <c r="L21" s="22" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="25">
+    <row r="22" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="20">
         <v>45840</v>
       </c>
-      <c r="C22" s="26" t="e" vm="15">
+      <c r="C22" s="20" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Textiles &amp; Apparel</v>
+      </c>
+      <c r="D22" s="21" t="e" vm="15">
         <v>#VALUE!</v>
       </c>
-      <c r="D22" s="27" t="str">
-        <f t="array" aca="1" ref="D22" ca="1">_FV(Transactions!$C22,"Ticker symbol",TRUE)</f>
+      <c r="E22" s="22" t="str">
+        <f t="array" aca="1" ref="E22" ca="1">_FV(Transactions!$D22,"Ticker symbol",TRUE)</f>
         <v>NKE</v>
       </c>
-      <c r="E22" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="27">
+      <c r="F22" s="90" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="22">
         <v>-575</v>
       </c>
-      <c r="G22" s="29">
+      <c r="H22" s="23">
         <v>68.680000000000007</v>
       </c>
-      <c r="H22" s="30">
-        <f>Transactions!$G22*Transactions!$F22</f>
+      <c r="I22" s="24">
+        <f>Transactions!$H22*Transactions!$G22</f>
         <v>-39491.000000000007</v>
       </c>
-      <c r="I22" s="30">
+      <c r="J22" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-78.982000000000014</v>
       </c>
-      <c r="J22" s="30">
+      <c r="K22" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39412.018000000004</v>
       </c>
-      <c r="K22" s="27" t="s">
+      <c r="L22" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C23" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Food &amp; Drug Retailing</v>
+      </c>
+      <c r="D23" s="26" t="e" vm="16">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E23" s="27" t="str">
+        <f t="array" aca="1" ref="E23" ca="1">_FV(Transactions!$D23,"Ticker symbol",TRUE)</f>
+        <v>WMT</v>
+      </c>
+      <c r="F23" s="83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C23" s="32" t="e" vm="16">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" s="33" t="str">
-        <f t="array" aca="1" ref="D23" ca="1">_FV(Transactions!$C23,"Ticker symbol",TRUE)</f>
-        <v>WMT</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="33">
+      <c r="G23" s="27">
         <v>390</v>
       </c>
-      <c r="G23" s="35">
+      <c r="H23" s="28">
         <v>101.15</v>
       </c>
-      <c r="H23" s="36">
-        <f>Transactions!$G23*Transactions!$F23</f>
+      <c r="I23" s="29">
+        <f>Transactions!$H23*Transactions!$G23</f>
         <v>39448.5</v>
       </c>
-      <c r="I23" s="36">
+      <c r="J23" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.897000000000006</v>
       </c>
-      <c r="J23" s="36">
+      <c r="K23" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39369.603000000003</v>
       </c>
-      <c r="K23" s="33" t="s">
+      <c r="L23" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C24" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="D24" s="26" t="e" vm="17">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E24" s="27" t="str">
+        <f t="array" aca="1" ref="E24" ca="1">_FV(Transactions!$D24,"Ticker symbol",TRUE)</f>
+        <v>JPM</v>
+      </c>
+      <c r="F24" s="83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C24" s="32" t="e" vm="17">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="33" t="str">
-        <f t="array" aca="1" ref="D24" ca="1">_FV(Transactions!$C24,"Ticker symbol",TRUE)</f>
-        <v>JPM</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="33">
+      <c r="G24" s="27">
         <v>143</v>
       </c>
-      <c r="G24" s="35">
+      <c r="H24" s="28">
         <v>275.8</v>
       </c>
-      <c r="H24" s="36">
-        <f>Transactions!$G24*Transactions!$F24</f>
+      <c r="I24" s="29">
+        <f>Transactions!$H24*Transactions!$G24</f>
         <v>39439.4</v>
       </c>
-      <c r="I24" s="36">
+      <c r="J24" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.878799999999998</v>
       </c>
-      <c r="J24" s="36">
+      <c r="K24" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39360.521200000003</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="L24" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C25" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="D25" s="26" t="e" vm="18">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E25" s="27" t="str">
+        <f t="array" aca="1" ref="E25" ca="1">_FV(Transactions!$D25,"Ticker symbol",TRUE)</f>
+        <v>V</v>
+      </c>
+      <c r="F25" s="83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C25" s="32" t="e" vm="18">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D25" s="33" t="str">
-        <f t="array" aca="1" ref="D25" ca="1">_FV(Transactions!$C25,"Ticker symbol",TRUE)</f>
-        <v>V</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="33">
+      <c r="G25" s="27">
         <v>113</v>
       </c>
-      <c r="G25" s="35">
+      <c r="H25" s="28">
         <v>348.02</v>
       </c>
-      <c r="H25" s="36">
-        <f>Transactions!$G25*Transactions!$F25</f>
+      <c r="I25" s="29">
+        <f>Transactions!$H25*Transactions!$G25</f>
         <v>39326.259999999995</v>
       </c>
-      <c r="I25" s="36">
+      <c r="J25" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.652519999999996</v>
       </c>
-      <c r="J25" s="36">
+      <c r="K25" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39247.607479999991</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="L25" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20">
+        <v>45840</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Personal &amp; Household Products &amp; Services</v>
+      </c>
+      <c r="D26" s="21" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E26" s="22" t="str">
+        <f t="array" aca="1" ref="E26" ca="1">_FV(Transactions!$D26,"Ticker symbol",TRUE)</f>
+        <v>PG</v>
+      </c>
+      <c r="F26" s="84" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="25">
-        <v>45840</v>
-      </c>
-      <c r="C26" s="26" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" s="27" t="str">
-        <f t="array" aca="1" ref="D26" ca="1">_FV(Transactions!$C26,"Ticker symbol",TRUE)</f>
-        <v>PG</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="27">
+      <c r="G26" s="22">
         <v>235</v>
       </c>
-      <c r="G26" s="29">
+      <c r="H26" s="23">
         <v>167.97</v>
       </c>
-      <c r="H26" s="30">
-        <f>Transactions!$G26*Transactions!$F26</f>
+      <c r="I26" s="24">
+        <f>Transactions!$H26*Transactions!$G26</f>
         <v>39472.949999999997</v>
       </c>
-      <c r="I26" s="30">
+      <c r="J26" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.945899999999995</v>
       </c>
-      <c r="J26" s="30">
+      <c r="K26" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39394.004099999998</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="L26" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C27" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Pharmaceuticals</v>
+      </c>
+      <c r="D27" s="26" t="e" vm="19">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E27" s="27" t="str">
+        <f t="array" aca="1" ref="E27" ca="1">_FV(Transactions!$D27,"Ticker symbol",TRUE)</f>
+        <v>JNJ</v>
+      </c>
+      <c r="F27" s="83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C27" s="32" t="e" vm="19">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D27" s="33" t="str">
-        <f t="array" aca="1" ref="D27" ca="1">_FV(Transactions!$C27,"Ticker symbol",TRUE)</f>
-        <v>JNJ</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="33">
+      <c r="G27" s="27">
         <v>258</v>
       </c>
-      <c r="G27" s="35">
+      <c r="H27" s="28">
         <v>153.12</v>
       </c>
-      <c r="H27" s="36">
-        <f>Transactions!$G27*Transactions!$F27</f>
+      <c r="I27" s="29">
+        <f>Transactions!$H27*Transactions!$G27</f>
         <v>39504.959999999999</v>
       </c>
-      <c r="I27" s="36">
+      <c r="J27" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.009919999999994</v>
       </c>
-      <c r="J27" s="36">
+      <c r="K27" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39425.950080000002</v>
       </c>
-      <c r="K27" s="33" t="s">
+      <c r="L27" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C28" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Beverages</v>
+      </c>
+      <c r="D28" s="26" t="e" vm="20">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E28" s="27" t="str">
+        <f t="array" aca="1" ref="E28" ca="1">_FV(Transactions!$D28,"Ticker symbol",TRUE)</f>
+        <v>KO</v>
+      </c>
+      <c r="F28" s="83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C28" s="32" t="e" vm="20">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" s="33" t="str">
-        <f t="array" aca="1" ref="D28" ca="1">_FV(Transactions!$C28,"Ticker symbol",TRUE)</f>
-        <v>KO</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="33">
+      <c r="G28" s="27">
         <v>618</v>
       </c>
-      <c r="G28" s="35">
+      <c r="H28" s="28">
         <v>63.84</v>
       </c>
-      <c r="H28" s="36">
-        <f>Transactions!$G28*Transactions!$F28</f>
+      <c r="I28" s="29">
+        <f>Transactions!$H28*Transactions!$G28</f>
         <v>39453.120000000003</v>
       </c>
-      <c r="I28" s="36">
+      <c r="J28" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.906240000000011</v>
       </c>
-      <c r="J28" s="36">
+      <c r="K28" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39374.213760000006</v>
       </c>
-      <c r="K28" s="33" t="s">
+      <c r="L28" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C29" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Communications &amp; Networking</v>
+      </c>
+      <c r="D29" s="26" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E29" s="27" t="str">
+        <f t="array" aca="1" ref="E29" ca="1">_FV(Transactions!$D29,"Ticker symbol",TRUE)</f>
+        <v>CSCO</v>
+      </c>
+      <c r="F29" s="83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C29" s="32" t="e" vm="21">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="33" t="str">
-        <f t="array" aca="1" ref="D29" ca="1">_FV(Transactions!$C29,"Ticker symbol",TRUE)</f>
-        <v>CSCO</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="33">
+      <c r="G29" s="27">
         <v>634</v>
       </c>
-      <c r="G29" s="35">
+      <c r="H29" s="28">
         <v>62.27</v>
       </c>
-      <c r="H29" s="36">
-        <f>Transactions!$G29*Transactions!$F29</f>
+      <c r="I29" s="29">
+        <f>Transactions!$H29*Transactions!$G29</f>
         <v>39479.18</v>
       </c>
-      <c r="I29" s="36">
+      <c r="J29" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.958359999999999</v>
       </c>
-      <c r="J29" s="36">
+      <c r="K29" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39400.221640000003</v>
       </c>
-      <c r="K29" s="33" t="s">
+      <c r="L29" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C30" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Software &amp; IT Services</v>
+      </c>
+      <c r="D30" s="26" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E30" s="27" t="str">
+        <f t="array" aca="1" ref="E30" ca="1">_FV(Transactions!$D30,"Ticker symbol",TRUE)</f>
+        <v>IBM</v>
+      </c>
+      <c r="F30" s="83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C30" s="32" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" s="33" t="str">
-        <f t="array" aca="1" ref="D30" ca="1">_FV(Transactions!$C30,"Ticker symbol",TRUE)</f>
-        <v>IBM</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="33">
+      <c r="G30" s="27">
         <v>156</v>
       </c>
-      <c r="G30" s="35">
+      <c r="H30" s="28">
         <v>252.34</v>
       </c>
-      <c r="H30" s="36">
-        <f>Transactions!$G30*Transactions!$F30</f>
+      <c r="I30" s="29">
+        <f>Transactions!$H30*Transactions!$G30</f>
         <v>39365.040000000001</v>
       </c>
-      <c r="I30" s="36">
+      <c r="J30" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.730080000000001</v>
       </c>
-      <c r="J30" s="36">
+      <c r="K30" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39286.30992</v>
       </c>
-      <c r="K30" s="33" t="s">
+      <c r="L30" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="31">
+        <v>45840</v>
+      </c>
+      <c r="C31" s="31" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="D31" s="32" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E31" s="33" t="str">
+        <f t="array" aca="1" ref="E31" ca="1">_FV(Transactions!$D31,"Ticker symbol",TRUE)</f>
+        <v>AXP</v>
+      </c>
+      <c r="F31" s="85" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="2:11" s="44" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="42">
-        <v>45840</v>
-      </c>
-      <c r="C31" s="43" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="44" t="str">
-        <f t="array" aca="1" ref="D31" ca="1">_FV(Transactions!$C31,"Ticker symbol",TRUE)</f>
-        <v>AXP</v>
-      </c>
-      <c r="E31" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="44">
+      <c r="G31" s="33">
         <v>125</v>
       </c>
-      <c r="G31" s="46">
+      <c r="H31" s="34">
         <v>316.77</v>
       </c>
-      <c r="H31" s="47">
-        <f>Transactions!$G31*Transactions!$F31</f>
+      <c r="I31" s="35">
+        <f>Transactions!$H31*Transactions!$G31</f>
         <v>39596.25</v>
       </c>
-      <c r="I31" s="47">
+      <c r="J31" s="35">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.192499999999995</v>
       </c>
-      <c r="J31" s="47">
+      <c r="K31" s="35">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39517.057500000003</v>
       </c>
-      <c r="K31" s="44" t="s">
+      <c r="L31" s="33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C32" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Hotels &amp; Entertainment Services</v>
+      </c>
+      <c r="D32" s="26" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" s="27" t="str">
+        <f t="array" aca="1" ref="E32" ca="1">_FV(Transactions!$D32,"Ticker symbol",TRUE)</f>
+        <v>MCD</v>
+      </c>
+      <c r="F32" s="83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="2:11" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C32" s="32" t="e" vm="22">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" s="33" t="str">
-        <f t="array" aca="1" ref="D32" ca="1">_FV(Transactions!$C32,"Ticker symbol",TRUE)</f>
-        <v>MCD</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="33">
+      <c r="G32" s="27">
         <v>134</v>
       </c>
-      <c r="G32" s="35">
+      <c r="H32" s="28">
         <v>294.3</v>
       </c>
-      <c r="H32" s="36">
-        <f>Transactions!$G32*Transactions!$F32</f>
+      <c r="I32" s="29">
+        <f>Transactions!$H32*Transactions!$G32</f>
         <v>39436.200000000004</v>
       </c>
-      <c r="I32" s="36">
+      <c r="J32" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.872400000000013</v>
       </c>
-      <c r="J32" s="36">
+      <c r="K32" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39357.327600000004</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="L32" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C33" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Investment Banking &amp; Investment Services</v>
+      </c>
+      <c r="D33" s="26" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" s="27" t="str">
+        <f t="array" aca="1" ref="E33" ca="1">_FV(Transactions!$D33,"Ticker symbol",TRUE)</f>
+        <v>GS</v>
+      </c>
+      <c r="F33" s="83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C33" s="32" t="e" vm="23">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="33" t="str">
-        <f t="array" aca="1" ref="D33" ca="1">_FV(Transactions!$C33,"Ticker symbol",TRUE)</f>
-        <v>GS</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" s="33">
+      <c r="G33" s="27">
         <v>60</v>
       </c>
-      <c r="G33" s="35">
+      <c r="H33" s="28">
         <v>655.9</v>
       </c>
-      <c r="H33" s="36">
-        <f>Transactions!$G33*Transactions!$F33</f>
+      <c r="I33" s="29">
+        <f>Transactions!$H33*Transactions!$G33</f>
         <v>39354</v>
       </c>
-      <c r="I33" s="36">
+      <c r="J33" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.707999999999998</v>
       </c>
-      <c r="J33" s="36">
+      <c r="K33" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39275.292000000001</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="L33" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C34" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Pharmaceuticals</v>
+      </c>
+      <c r="D34" s="26" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E34" s="27" t="str">
+        <f t="array" aca="1" ref="E34" ca="1">_FV(Transactions!$D34,"Ticker symbol",TRUE)</f>
+        <v>AMGN</v>
+      </c>
+      <c r="F34" s="83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C34" s="32" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" s="33" t="str">
-        <f t="array" aca="1" ref="D34" ca="1">_FV(Transactions!$C34,"Ticker symbol",TRUE)</f>
-        <v>AMGN</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="33">
+      <c r="G34" s="27">
         <v>135</v>
       </c>
-      <c r="G34" s="35">
+      <c r="H34" s="28">
         <v>293.54000000000002</v>
       </c>
-      <c r="H34" s="36">
-        <f>Transactions!$G34*Transactions!$F34</f>
+      <c r="I34" s="29">
+        <f>Transactions!$H34*Transactions!$G34</f>
         <v>39627.9</v>
       </c>
-      <c r="I34" s="36">
+      <c r="J34" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.255800000000008</v>
       </c>
-      <c r="J34" s="36">
+      <c r="K34" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39548.644200000002</v>
       </c>
-      <c r="K34" s="33" t="s">
+      <c r="L34" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20">
+        <v>45840</v>
+      </c>
+      <c r="C35" s="20" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Chemicals</v>
+      </c>
+      <c r="D35" s="21" t="e" vm="8">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" s="22" t="str">
+        <f t="array" aca="1" ref="E35" ca="1">_FV(Transactions!$D35,"Ticker symbol",TRUE)</f>
+        <v>SHW</v>
+      </c>
+      <c r="F35" s="84" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="25">
-        <v>45840</v>
-      </c>
-      <c r="C35" s="26" t="e" vm="8">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" s="27" t="str">
-        <f t="array" aca="1" ref="D35" ca="1">_FV(Transactions!$C35,"Ticker symbol",TRUE)</f>
-        <v>SHW</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="27">
+      <c r="G35" s="22">
         <v>110</v>
       </c>
-      <c r="G35" s="29">
+      <c r="H35" s="23">
         <v>360.57</v>
       </c>
-      <c r="H35" s="30">
-        <f>Transactions!$G35*Transactions!$F35</f>
+      <c r="I35" s="24">
+        <f>Transactions!$H35*Transactions!$G35</f>
         <v>39662.699999999997</v>
       </c>
-      <c r="I35" s="30">
+      <c r="J35" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.325400000000002</v>
       </c>
-      <c r="J35" s="30">
+      <c r="K35" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39583.374599999996</v>
       </c>
-      <c r="K35" s="27" t="s">
+      <c r="L35" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Consumer Goods Conglomerates</v>
+      </c>
+      <c r="D36" s="26" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" s="27" t="str">
+        <f t="array" aca="1" ref="E36" ca="1">_FV(Transactions!$D36,"Ticker symbol",TRUE)</f>
+        <v>MMM</v>
+      </c>
+      <c r="F36" s="83" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C36" s="32" t="e" vm="25">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" s="33" t="str">
-        <f t="array" aca="1" ref="D36" ca="1">_FV(Transactions!$C36,"Ticker symbol",TRUE)</f>
-        <v>MMM</v>
-      </c>
-      <c r="E36" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="33">
+      <c r="G36" s="27">
         <v>263</v>
       </c>
-      <c r="G36" s="35">
+      <c r="H36" s="28">
         <v>149.87</v>
       </c>
-      <c r="H36" s="36">
-        <f>Transactions!$G36*Transactions!$F36</f>
+      <c r="I36" s="29">
+        <f>Transactions!$H36*Transactions!$G36</f>
         <v>39415.81</v>
       </c>
-      <c r="I36" s="36">
+      <c r="J36" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.831620000000001</v>
       </c>
-      <c r="J36" s="36">
+      <c r="K36" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39336.97838</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="L36" s="27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="20">
+        <v>45840</v>
+      </c>
+      <c r="C37" s="20" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Insurance</v>
+      </c>
+      <c r="D37" s="21" t="e" vm="9">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" s="22" t="str">
+        <f t="array" aca="1" ref="E37" ca="1">_FV(Transactions!$D37,"Ticker symbol",TRUE)</f>
+        <v>TRV</v>
+      </c>
+      <c r="F37" s="84" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="25">
-        <v>45840</v>
-      </c>
-      <c r="C37" s="26" t="e" vm="9">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" s="27" t="str">
-        <f t="array" aca="1" ref="D37" ca="1">_FV(Transactions!$C37,"Ticker symbol",TRUE)</f>
-        <v>TRV</v>
-      </c>
-      <c r="E37" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="27">
+      <c r="G37" s="22">
         <v>161</v>
       </c>
-      <c r="G37" s="29">
+      <c r="H37" s="23">
         <v>245.19</v>
       </c>
-      <c r="H37" s="30">
-        <f>Transactions!$G37*Transactions!$F37</f>
+      <c r="I37" s="24">
+        <f>Transactions!$H37*Transactions!$G37</f>
         <v>39475.589999999997</v>
       </c>
-      <c r="I37" s="30">
+      <c r="J37" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>78.951179999999994</v>
       </c>
-      <c r="J37" s="30">
+      <c r="K37" s="24">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39396.63882</v>
       </c>
-      <c r="K37" s="27" t="s">
+      <c r="L37" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="25">
+        <v>45840</v>
+      </c>
+      <c r="C38" s="25" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Aerospace &amp; Defense</v>
+      </c>
+      <c r="D38" s="27" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E38" s="27" t="str">
+        <f t="array" aca="1" ref="E38" ca="1">_FV(Transactions!$D38,"Ticker symbol",TRUE)</f>
+        <v>BA</v>
+      </c>
+      <c r="F38" s="86" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="31">
-        <v>45840</v>
-      </c>
-      <c r="C38" s="33" t="e" vm="26">
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" s="33" t="str">
-        <f t="array" aca="1" ref="D38" ca="1">_FV(Transactions!$C38,"Ticker symbol",TRUE)</f>
-        <v>BA</v>
-      </c>
-      <c r="E38" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="33">
+      <c r="G38" s="27">
         <v>218</v>
       </c>
-      <c r="G38" s="35">
+      <c r="H38" s="28">
         <v>181.49</v>
       </c>
-      <c r="H38" s="36">
-        <f>Transactions!$G38*Transactions!$F38</f>
+      <c r="I38" s="29">
+        <f>Transactions!$H38*Transactions!$G38</f>
         <v>39564.82</v>
       </c>
-      <c r="I38" s="36">
+      <c r="J38" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.129639999999995</v>
       </c>
-      <c r="J38" s="36">
+      <c r="K38" s="29">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39485.690360000001</v>
       </c>
-      <c r="K38" s="33" t="s">
-        <v>14</v>
+      <c r="L38" s="27" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="24" t="e" vm="6">
+        <v>28</v>
+      </c>
+      <c r="C39" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Computers, Phones &amp; Household Electronics</v>
+      </c>
+      <c r="D39" s="19" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="D39" s="1" t="str">
-        <f t="array" aca="1" ref="D39" ca="1">_FV(Transactions!$C39,"Ticker symbol",TRUE)</f>
+      <c r="E39" s="1" t="str">
+        <f t="array" aca="1" ref="E39" ca="1">_FV(Transactions!$D39,"Ticker symbol",TRUE)</f>
         <v>AAPL</v>
       </c>
-      <c r="E39" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39">
+      <c r="F39" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G39">
         <v>173</v>
       </c>
-      <c r="G39" s="21">
+      <c r="H39" s="17">
         <v>244.6</v>
       </c>
-      <c r="H39" s="10">
-        <f>Transactions!$G39*Transactions!$F39</f>
+      <c r="I39" s="10">
+        <f>Transactions!$H39*Transactions!$G39</f>
         <v>42315.799999999996</v>
       </c>
-      <c r="I39" s="10">
+      <c r="J39" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>84.631599999999992</v>
       </c>
-      <c r="J39" s="10">
+      <c r="K39" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>42231.168399999995</v>
       </c>
-      <c r="K39" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="11"/>
+      <c r="L39" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C40" s="40" t="e" vm="5">
+        <v>28</v>
+      </c>
+      <c r="C40" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="D40" s="30" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="D40" s="1" t="str">
-        <f t="array" aca="1" ref="D40" ca="1">_FV(Transactions!$C40,"Ticker symbol",TRUE)</f>
+      <c r="E40" s="1" t="str">
+        <f t="array" aca="1" ref="E40" ca="1">_FV(Transactions!$D40,"Ticker symbol",TRUE)</f>
         <v>CVX</v>
       </c>
-      <c r="E40" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40">
+      <c r="F40" s="87" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40">
         <v>259</v>
       </c>
-      <c r="G40" s="21">
+      <c r="H40" s="17">
         <v>155.26499999999999</v>
       </c>
-      <c r="H40" s="10">
-        <f>Transactions!$G40*Transactions!$F40</f>
+      <c r="I40" s="10">
+        <f>Transactions!$H40*Transactions!$G40</f>
         <v>40213.634999999995</v>
       </c>
-      <c r="I40" s="10">
+      <c r="J40" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>80.427269999999993</v>
       </c>
-      <c r="J40" s="10">
+      <c r="K40" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>40133.207729999995</v>
       </c>
-      <c r="K40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L40" s="11"/>
+      <c r="L40" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" s="40" t="e" vm="7">
+        <v>28</v>
+      </c>
+      <c r="C41" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Personal &amp; Household Products &amp; Services</v>
+      </c>
+      <c r="D41" s="30" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="D41" s="1" t="str">
-        <f t="array" aca="1" ref="D41" ca="1">_FV(Transactions!$C41,"Ticker symbol",TRUE)</f>
+      <c r="E41" s="1" t="str">
+        <f t="array" aca="1" ref="E41" ca="1">_FV(Transactions!$D41,"Ticker symbol",TRUE)</f>
         <v>PG</v>
       </c>
-      <c r="E41" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41">
+      <c r="F41" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41">
         <v>-235</v>
       </c>
-      <c r="G41" s="21">
+      <c r="H41" s="17">
         <v>162.9</v>
       </c>
-      <c r="H41" s="10">
-        <f>Transactions!$G41*Transactions!$F41</f>
+      <c r="I41" s="10">
+        <f>Transactions!$H41*Transactions!$G41</f>
         <v>-38281.5</v>
       </c>
-      <c r="I41" s="10">
+      <c r="J41" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-76.563000000000002</v>
       </c>
-      <c r="J41" s="10">
+      <c r="K41" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-38204.936999999998</v>
       </c>
-      <c r="K41" s="1" t="s">
-        <v>14</v>
+      <c r="L41" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="40" t="e" vm="8">
+        <v>28</v>
+      </c>
+      <c r="C42" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Chemicals</v>
+      </c>
+      <c r="D42" s="30" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="D42" s="1" t="str">
-        <f t="array" aca="1" ref="D42" ca="1">_FV(Transactions!$C42,"Ticker symbol",TRUE)</f>
+      <c r="E42" s="1" t="str">
+        <f t="array" aca="1" ref="E42" ca="1">_FV(Transactions!$D42,"Ticker symbol",TRUE)</f>
         <v>SHW</v>
       </c>
-      <c r="E42" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42">
+      <c r="F42" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42">
         <v>-110</v>
       </c>
-      <c r="G42" s="21">
+      <c r="H42" s="17">
         <v>356.86</v>
       </c>
-      <c r="H42" s="10">
-        <f>Transactions!$G42*Transactions!$F42</f>
+      <c r="I42" s="10">
+        <f>Transactions!$H42*Transactions!$G42</f>
         <v>-39254.6</v>
       </c>
-      <c r="I42" s="10">
+      <c r="J42" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-78.509199999999993</v>
       </c>
-      <c r="J42" s="10">
+      <c r="K42" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39176.090799999998</v>
       </c>
-      <c r="K42" s="1" t="s">
-        <v>14</v>
+      <c r="L42" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C43" s="40" t="e" vm="9">
+        <v>28</v>
+      </c>
+      <c r="C43" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Insurance</v>
+      </c>
+      <c r="D43" s="30" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="D43" s="1" t="str">
-        <f t="array" aca="1" ref="D43" ca="1">_FV(Transactions!$C43,"Ticker symbol",TRUE)</f>
+      <c r="E43" s="1" t="str">
+        <f t="array" aca="1" ref="E43" ca="1">_FV(Transactions!$D43,"Ticker symbol",TRUE)</f>
         <v>TRV</v>
       </c>
-      <c r="E43" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43">
+      <c r="F43" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43">
         <v>-161</v>
       </c>
-      <c r="G43" s="21">
+      <c r="H43" s="17">
         <v>238.31</v>
       </c>
-      <c r="H43" s="10">
-        <f>Transactions!$G43*Transactions!$F43</f>
+      <c r="I43" s="10">
+        <f>Transactions!$H43*Transactions!$G43</f>
         <v>-38367.910000000003</v>
       </c>
-      <c r="I43" s="10">
+      <c r="J43" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-76.735820000000004</v>
       </c>
-      <c r="J43" s="10">
+      <c r="K43" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-38291.174180000002</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>14</v>
+      <c r="L43" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C44" s="40" t="e" vm="2">
+        <v>28</v>
+      </c>
+      <c r="C44" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Banking Services</v>
+      </c>
+      <c r="D44" s="30" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="D44" s="1" t="str">
-        <f t="array" aca="1" ref="D44" ca="1">_FV(Transactions!$C44,"Ticker symbol",TRUE)</f>
+      <c r="E44" s="1" t="str">
+        <f t="array" aca="1" ref="E44" ca="1">_FV(Transactions!$D44,"Ticker symbol",TRUE)</f>
         <v>AXP</v>
       </c>
-      <c r="E44" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44">
+      <c r="F44" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44">
         <v>-125</v>
       </c>
-      <c r="G44" s="21">
+      <c r="H44" s="17">
         <v>311.04000000000002</v>
       </c>
-      <c r="H44" s="10">
-        <f>Transactions!$G44*Transactions!$F44</f>
+      <c r="I44" s="10">
+        <f>Transactions!$H44*Transactions!$G44</f>
         <v>-38880</v>
       </c>
-      <c r="I44" s="10">
+      <c r="J44" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-77.760000000000005</v>
       </c>
-      <c r="J44" s="10">
+      <c r="K44" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-38802.239999999998</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>14</v>
+      <c r="L44" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="84" t="s">
-        <v>37</v>
+      <c r="A45" s="55" t="s">
+        <v>30</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C45" s="40" t="e" vm="6">
+        <v>28</v>
+      </c>
+      <c r="C45" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Computers, Phones &amp; Household Electronics</v>
+      </c>
+      <c r="D45" s="30" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
-      <c r="D45" s="1" t="str">
-        <f t="array" aca="1" ref="D45" ca="1">_FV(Transactions!$C45,"Ticker symbol",TRUE)</f>
+      <c r="E45" s="1" t="str">
+        <f t="array" aca="1" ref="E45" ca="1">_FV(Transactions!$D45,"Ticker symbol",TRUE)</f>
         <v>AAPL</v>
       </c>
-      <c r="E45" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45">
+      <c r="F45" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45">
         <v>163</v>
       </c>
-      <c r="G45" s="21">
+      <c r="H45" s="17">
         <v>244.6</v>
       </c>
-      <c r="H45" s="10">
-        <f>Transactions!$G45*Transactions!$F45</f>
+      <c r="I45" s="10">
+        <f>Transactions!$H45*Transactions!$G45</f>
         <v>39869.799999999996</v>
       </c>
-      <c r="I45" s="10">
+      <c r="J45" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.739599999999996</v>
       </c>
-      <c r="J45" s="10">
+      <c r="K45" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39790.060399999995</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>14</v>
+      <c r="L45" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="43" t="e" vm="5">
+        <v>28</v>
+      </c>
+      <c r="C46" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Oil &amp; Gas</v>
+      </c>
+      <c r="D46" s="32" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
-      <c r="D46" s="44" t="str">
-        <f t="array" aca="1" ref="D46" ca="1">_FV(Transactions!$C46,"Ticker symbol",TRUE)</f>
+      <c r="E46" s="33" t="str">
+        <f t="array" aca="1" ref="E46" ca="1">_FV(Transactions!$D46,"Ticker symbol",TRUE)</f>
         <v>CVX</v>
       </c>
-      <c r="E46" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46">
+      <c r="F46" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46">
         <v>257</v>
       </c>
-      <c r="G46" s="21">
+      <c r="H46" s="17">
         <v>155.26499999999999</v>
       </c>
-      <c r="H46" s="10">
-        <f>Transactions!$G46*Transactions!$F46</f>
+      <c r="I46" s="10">
+        <f>Transactions!$H46*Transactions!$G46</f>
         <v>39903.104999999996</v>
       </c>
-      <c r="I46" s="10">
+      <c r="J46" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.806209999999993</v>
       </c>
-      <c r="J46" s="10">
+      <c r="K46" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39823.298789999993</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>14</v>
+      <c r="L46" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C47" s="40" t="e" vm="27">
+        <v>28</v>
+      </c>
+      <c r="C47" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Telecommunications Services</v>
+      </c>
+      <c r="D47" s="30" t="e" vm="27">
         <v>#VALUE!</v>
       </c>
-      <c r="D47" s="1" t="str">
-        <f t="array" aca="1" ref="D47" ca="1">_FV(Transactions!$C47,"Ticker symbol",TRUE)</f>
+      <c r="E47" s="1" t="str">
+        <f t="array" aca="1" ref="E47" ca="1">_FV(Transactions!$D47,"Ticker symbol",TRUE)</f>
         <v>VZ</v>
       </c>
-      <c r="E47" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F47">
+      <c r="F47" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47">
         <v>975</v>
       </c>
-      <c r="G47" s="21">
+      <c r="H47" s="17">
         <v>40.99</v>
       </c>
-      <c r="H47" s="10">
-        <f>Transactions!$G47*Transactions!$F47</f>
+      <c r="I47" s="10">
+        <f>Transactions!$H47*Transactions!$G47</f>
         <v>39965.25</v>
       </c>
-      <c r="I47" s="10">
+      <c r="J47" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.930499999999995</v>
       </c>
-      <c r="J47" s="10">
+      <c r="K47" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39885.319499999998</v>
       </c>
-      <c r="K47" s="1" t="s">
-        <v>14</v>
+      <c r="L47" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="40" t="e" vm="28">
+        <v>29</v>
+      </c>
+      <c r="C48" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Semiconductors &amp; Semiconductor Equipment</v>
+      </c>
+      <c r="D48" s="30" t="e" vm="28">
         <v>#VALUE!</v>
       </c>
-      <c r="D48" s="1" t="str">
-        <f t="array" aca="1" ref="D48" ca="1">_FV(Transactions!$C48,"Ticker symbol",TRUE)</f>
+      <c r="E48" s="1" t="str">
+        <f t="array" aca="1" ref="E48" ca="1">_FV(Transactions!$D48,"Ticker symbol",TRUE)</f>
         <v>NVDA</v>
       </c>
-      <c r="E48" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F48">
+      <c r="F48" s="88" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48">
         <v>288</v>
       </c>
-      <c r="G48" s="21">
+      <c r="H48" s="17">
         <v>138.85</v>
       </c>
-      <c r="H48" s="10">
-        <f>Transactions!$G48*Transactions!$F48</f>
+      <c r="I48" s="10">
+        <f>Transactions!$H48*Transactions!$G48</f>
         <v>39988.799999999996</v>
       </c>
-      <c r="I48" s="10">
+      <c r="J48" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>79.977599999999995</v>
       </c>
-      <c r="J48" s="10">
+      <c r="K48" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>39908.822399999997</v>
       </c>
-      <c r="K48" s="1" t="s">
-        <v>14</v>
+      <c r="L48" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="40" t="e" vm="7">
+        <v>28</v>
+      </c>
+      <c r="C49" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Personal &amp; Household Products &amp; Services</v>
+      </c>
+      <c r="D49" s="30" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
-      <c r="D49" s="1" t="str">
-        <f t="array" aca="1" ref="D49" ca="1">_FV(Transactions!$C49,"Ticker symbol",TRUE)</f>
+      <c r="E49" s="1" t="str">
+        <f t="array" aca="1" ref="E49" ca="1">_FV(Transactions!$D49,"Ticker symbol",TRUE)</f>
         <v>PG</v>
       </c>
-      <c r="E49" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49">
+      <c r="F49" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49">
         <v>-245</v>
       </c>
-      <c r="G49" s="21">
+      <c r="H49" s="17">
         <v>162.9</v>
       </c>
-      <c r="H49" s="10">
-        <f>Transactions!$G49*Transactions!$F49</f>
+      <c r="I49" s="10">
+        <f>Transactions!$H49*Transactions!$G49</f>
         <v>-39910.5</v>
       </c>
-      <c r="I49" s="10">
+      <c r="J49" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-79.820999999999998</v>
       </c>
-      <c r="J49" s="10">
+      <c r="K49" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39830.678999999996</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>14</v>
+      <c r="L49" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C50" s="40" t="e" vm="8">
+        <v>28</v>
+      </c>
+      <c r="C50" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Chemicals</v>
+      </c>
+      <c r="D50" s="30" t="e" vm="8">
         <v>#VALUE!</v>
       </c>
-      <c r="D50" s="1" t="str">
-        <f t="array" aca="1" ref="D50" ca="1">_FV(Transactions!$C50,"Ticker symbol",TRUE)</f>
+      <c r="E50" s="1" t="str">
+        <f t="array" aca="1" ref="E50" ca="1">_FV(Transactions!$D50,"Ticker symbol",TRUE)</f>
         <v>SHW</v>
       </c>
-      <c r="E50" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50">
+      <c r="F50" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50">
         <v>-112</v>
       </c>
-      <c r="G50" s="21">
+      <c r="H50" s="17">
         <v>356.86</v>
       </c>
-      <c r="H50" s="10">
-        <f>Transactions!$G50*Transactions!$F50</f>
+      <c r="I50" s="10">
+        <f>Transactions!$H50*Transactions!$G50</f>
         <v>-39968.32</v>
       </c>
-      <c r="I50" s="10">
+      <c r="J50" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-79.936639999999997</v>
       </c>
-      <c r="J50" s="10">
+      <c r="K50" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39888.38336</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>14</v>
+      <c r="L50" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="40" t="e" vm="9">
+        <v>28</v>
+      </c>
+      <c r="C51" s="9" t="str">
+        <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
+        <v>Insurance</v>
+      </c>
+      <c r="D51" s="30" t="e" vm="9">
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="1" t="str">
-        <f t="array" aca="1" ref="D51" ca="1">_FV(Transactions!$C51,"Ticker symbol",TRUE)</f>
+      <c r="E51" s="1" t="str">
+        <f t="array" aca="1" ref="E51" ca="1">_FV(Transactions!$D51,"Ticker symbol",TRUE)</f>
         <v>TRV</v>
       </c>
-      <c r="E51" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51">
+      <c r="F51" s="88" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51">
         <v>-167</v>
       </c>
-      <c r="G51" s="21">
+      <c r="H51" s="17">
         <v>238.31</v>
       </c>
-      <c r="H51" s="10">
-        <f>Transactions!$G51*Transactions!$F51</f>
+      <c r="I51" s="10">
+        <f>Transactions!$H51*Transactions!$G51</f>
         <v>-39797.769999999997</v>
       </c>
-      <c r="I51" s="10">
+      <c r="J51" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]*0.002</f>
         <v>-79.59554</v>
       </c>
-      <c r="J51" s="10">
+      <c r="K51" s="10">
         <f>Table_1[[#This Row],[Transaction Amount]]-Table_1[[#This Row],[Transaction Cost]]</f>
         <v>-39718.174459999995</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>14</v>
+      <c r="L51" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9677,7 +9506,7 @@
     <row r="995" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="996" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
@@ -9687,6 +9516,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="a73d4695-d219-4a5e-88c5-c92faa0f5b0b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D24EC77B650C3C4BA5360C2D45487E5E" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bbc4646843794ed6a31b64234e2278ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a73d4695-d219-4a5e-88c5-c92faa0f5b0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6bb8df8608df37a83850cc81ab1d3b74" ns3:_="">
     <xsd:import namespace="a73d4695-d219-4a5e-88c5-c92faa0f5b0b"/>
@@ -9842,24 +9688,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="a73d4695-d219-4a5e-88c5-c92faa0f5b0b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7653B62B-EB76-4755-ACB4-CCA01354AC3A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABB6279-A2CA-457A-889C-AF974474C132}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a73d4695-d219-4a5e-88c5-c92faa0f5b0b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9660CD80-D69B-4B05-92F2-D1CF45FAFA67}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9875,28 +9728,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABB6279-A2CA-457A-889C-AF974474C132}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="a73d4695-d219-4a5e-88c5-c92faa0f5b0b"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7653B62B-EB76-4755-ACB4-CCA01354AC3A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Group-6 Portfolio Dashboard_Week4_14022025.xlsx
+++ b/Group-6 Portfolio Dashboard_Week4_14022025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maanoj_ToBeTransferred\Dev\PyCharm\Algo\FinMod_MVO\FinMod_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7261FD-D591-466C-A84A-6A2AEAC5A530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71044884-46D1-439F-8FBC-EE6AA1C680E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfolio_Summary" sheetId="5" r:id="rId1"/>
@@ -343,7 +343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="33">
   <si>
     <t>Current Holdings</t>
   </si>
@@ -396,12 +396,6 @@
     <t>SELL</t>
   </si>
   <si>
-    <t>31/1/2025</t>
-  </si>
-  <si>
-    <t>24/1/2025</t>
-  </si>
-  <si>
     <t>Transaction Cost</t>
   </si>
   <si>
@@ -427,12 +421,6 @@
   </si>
   <si>
     <t>Exit Price</t>
-  </si>
-  <si>
-    <t>14/2/2025</t>
-  </si>
-  <si>
-    <t>14/2/2026</t>
   </si>
   <si>
     <t>a</t>
@@ -3655,7 +3643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCC68F3-4670-4212-8896-E53A68AC05E8}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="76" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3670,19 +3658,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C1" s="63" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D1" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="63" t="s">
         <v>32</v>
-      </c>
-      <c r="E1" s="63" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="21" x14ac:dyDescent="0.3">
@@ -3855,7 +3843,7 @@
     </row>
     <row r="7" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="65" t="s">
         <v>2</v>
@@ -3867,7 +3855,7 @@
         <v>4</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="65" t="s">
         <v>6</v>
@@ -3876,7 +3864,7 @@
         <v>5</v>
       </c>
       <c r="I7" s="66" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J7" s="65" t="s">
         <v>7</v>
@@ -3890,13 +3878,13 @@
     </row>
     <row r="8" spans="1:22" s="56" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="57" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="58" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>25</v>
       </c>
       <c r="E8" s="58"/>
       <c r="F8" s="59">
@@ -3911,10 +3899,10 @@
         <v>557.58975238457788</v>
       </c>
       <c r="K8" s="62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L8" s="62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:22" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -6545,8 +6533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L996"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -6569,7 +6557,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>1</v>
@@ -6584,34 +6572,34 @@
         <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="L2" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
-        <v>18</v>
+      <c r="B3" s="9">
+        <v>45681</v>
       </c>
       <c r="C3" s="9" t="str">
         <f>VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
         <v>U.S. Treasury</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F3" s="82" t="s">
         <v>14</v>
@@ -6638,8 +6626,8 @@
       </c>
     </row>
     <row r="4" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>17</v>
+      <c r="B4" s="9">
+        <v>45688</v>
       </c>
       <c r="C4" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -6678,8 +6666,8 @@
       </c>
     </row>
     <row r="5" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="9" t="s">
-        <v>17</v>
+      <c r="B5" s="9">
+        <v>45688</v>
       </c>
       <c r="C5" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -6718,8 +6706,8 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>17</v>
+      <c r="B6" s="9">
+        <v>45688</v>
       </c>
       <c r="C6" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -6758,8 +6746,8 @@
       </c>
     </row>
     <row r="7" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>17</v>
+      <c r="B7" s="9">
+        <v>45688</v>
       </c>
       <c r="C7" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -6798,8 +6786,8 @@
       </c>
     </row>
     <row r="8" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>17</v>
+      <c r="B8" s="9">
+        <v>45688</v>
       </c>
       <c r="C8" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -6838,8 +6826,8 @@
       </c>
     </row>
     <row r="9" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="9">
-        <v>45840</v>
+      <c r="B9" s="25">
+        <v>45695</v>
       </c>
       <c r="C9" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -6878,8 +6866,8 @@
       </c>
     </row>
     <row r="10" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="9">
-        <v>45840</v>
+      <c r="B10" s="25">
+        <v>45695</v>
       </c>
       <c r="C10" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -6918,8 +6906,8 @@
       </c>
     </row>
     <row r="11" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="9">
-        <v>45840</v>
+      <c r="B11" s="25">
+        <v>45695</v>
       </c>
       <c r="C11" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -6958,8 +6946,8 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="9">
-        <v>45840</v>
+      <c r="B12" s="25">
+        <v>45695</v>
       </c>
       <c r="C12" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -6998,8 +6986,8 @@
       </c>
     </row>
     <row r="13" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="9">
-        <v>45840</v>
+      <c r="B13" s="25">
+        <v>45695</v>
       </c>
       <c r="C13" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7039,7 +7027,7 @@
     </row>
     <row r="14" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C14" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7078,8 +7066,8 @@
       </c>
     </row>
     <row r="15" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="20">
-        <v>45840</v>
+      <c r="B15" s="25">
+        <v>45695</v>
       </c>
       <c r="C15" s="20" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7118,8 +7106,8 @@
       </c>
     </row>
     <row r="16" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="20">
-        <v>45840</v>
+      <c r="B16" s="25">
+        <v>45695</v>
       </c>
       <c r="C16" s="20" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7158,8 +7146,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="20">
-        <v>45840</v>
+      <c r="B17" s="25">
+        <v>45695</v>
       </c>
       <c r="C17" s="20" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7199,7 +7187,7 @@
     </row>
     <row r="18" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C18" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7238,8 +7226,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="20">
-        <v>45840</v>
+      <c r="B19" s="25">
+        <v>45695</v>
       </c>
       <c r="C19" s="20" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7278,8 +7266,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="20">
-        <v>45840</v>
+      <c r="B20" s="25">
+        <v>45695</v>
       </c>
       <c r="C20" s="20" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7318,8 +7306,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20">
-        <v>45840</v>
+      <c r="B21" s="25">
+        <v>45695</v>
       </c>
       <c r="C21" s="20" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7358,8 +7346,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="20">
-        <v>45840</v>
+      <c r="B22" s="25">
+        <v>45695</v>
       </c>
       <c r="C22" s="20" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7399,7 +7387,7 @@
     </row>
     <row r="23" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C23" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7439,7 +7427,7 @@
     </row>
     <row r="24" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C24" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7479,7 +7467,7 @@
     </row>
     <row r="25" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C25" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7518,8 +7506,8 @@
       </c>
     </row>
     <row r="26" spans="2:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20">
-        <v>45840</v>
+      <c r="B26" s="25">
+        <v>45695</v>
       </c>
       <c r="C26" s="20" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7559,7 +7547,7 @@
     </row>
     <row r="27" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C27" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7599,7 +7587,7 @@
     </row>
     <row r="28" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C28" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7639,7 +7627,7 @@
     </row>
     <row r="29" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C29" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7679,7 +7667,7 @@
     </row>
     <row r="30" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C30" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7718,8 +7706,8 @@
       </c>
     </row>
     <row r="31" spans="2:12" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="31">
-        <v>45840</v>
+      <c r="B31" s="25">
+        <v>45695</v>
       </c>
       <c r="C31" s="31" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7759,7 +7747,7 @@
     </row>
     <row r="32" spans="2:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C32" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7799,7 +7787,7 @@
     </row>
     <row r="33" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C33" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7839,7 +7827,7 @@
     </row>
     <row r="34" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C34" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7878,8 +7866,8 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20">
-        <v>45840</v>
+      <c r="B35" s="25">
+        <v>45695</v>
       </c>
       <c r="C35" s="20" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7919,7 +7907,7 @@
     </row>
     <row r="36" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C36" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7958,8 +7946,8 @@
       </c>
     </row>
     <row r="37" spans="1:12" s="22" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="20">
-        <v>45840</v>
+      <c r="B37" s="25">
+        <v>45695</v>
       </c>
       <c r="C37" s="20" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -7999,7 +7987,7 @@
     </row>
     <row r="38" spans="1:12" s="27" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="25">
-        <v>45840</v>
+        <v>45695</v>
       </c>
       <c r="C38" s="25" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8038,8 +8026,8 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="9" t="s">
-        <v>28</v>
+      <c r="B39" s="9">
+        <v>45702</v>
       </c>
       <c r="C39" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8078,8 +8066,8 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
-        <v>28</v>
+      <c r="B40" s="9">
+        <v>45702</v>
       </c>
       <c r="C40" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8118,8 +8106,8 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="9" t="s">
-        <v>28</v>
+      <c r="B41" s="9">
+        <v>45702</v>
       </c>
       <c r="C41" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8158,8 +8146,8 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="9" t="s">
-        <v>28</v>
+      <c r="B42" s="9">
+        <v>45702</v>
       </c>
       <c r="C42" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8198,8 +8186,8 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="9" t="s">
-        <v>28</v>
+      <c r="B43" s="9">
+        <v>45702</v>
       </c>
       <c r="C43" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8238,8 +8226,8 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="9" t="s">
-        <v>28</v>
+      <c r="B44" s="9">
+        <v>45702</v>
       </c>
       <c r="C44" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8279,10 +8267,10 @@
     </row>
     <row r="45" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B45" s="9">
+        <v>45702</v>
       </c>
       <c r="C45" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8321,8 +8309,8 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="9" t="s">
-        <v>28</v>
+      <c r="B46" s="9">
+        <v>45702</v>
       </c>
       <c r="C46" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8361,8 +8349,8 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="9" t="s">
-        <v>28</v>
+      <c r="B47" s="9">
+        <v>45702</v>
       </c>
       <c r="C47" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8401,8 +8389,8 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="9" t="s">
-        <v>29</v>
+      <c r="B48" s="9">
+        <v>45702</v>
       </c>
       <c r="C48" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8441,8 +8429,8 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="9" t="s">
-        <v>28</v>
+      <c r="B49" s="9">
+        <v>45702</v>
       </c>
       <c r="C49" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8481,8 +8469,8 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="9" t="s">
-        <v>28</v>
+      <c r="B50" s="9">
+        <v>45702</v>
       </c>
       <c r="C50" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
@@ -8521,8 +8509,8 @@
       </c>
     </row>
     <row r="51" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="9" t="s">
-        <v>28</v>
+      <c r="B51" s="9">
+        <v>45702</v>
       </c>
       <c r="C51" s="9" t="str">
         <f ca="1">VLOOKUP(Table_1[[#This Row],[Company]],Dashboard!$B$8:$D$44,3,FALSE)</f>
